--- a/trunk/yaol-p-xml/testresult/Experiment.xlsx
+++ b/trunk/yaol-p-xml/testresult/Experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="dblp-vary query batch size" sheetId="7" r:id="rId1"/>
@@ -15,13 +15,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="138">
   <si>
     <t>SE</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
     <t>Vary batch size</t>
   </si>
   <si>
@@ -255,6 +252,189 @@
   </si>
   <si>
     <t>performance,functional,research,visual,fast</t>
+  </si>
+  <si>
+    <t>sample 1</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>performance,business,research,notes,services,mining</t>
+  </si>
+  <si>
+    <t>performance,advanced,research,methods,complexity,mining</t>
+  </si>
+  <si>
+    <t>performance,platform,research,digital,graph,mining</t>
+  </si>
+  <si>
+    <t>performance,middleware,research,communication,automatic,mining</t>
+  </si>
+  <si>
+    <t>performance,process,research,transactions,reference,mining</t>
+  </si>
+  <si>
+    <t>performance,representation,research,resource,interface,mining</t>
+  </si>
+  <si>
+    <t>performance,agents,research,mathematical,reliability,mining</t>
+  </si>
+  <si>
+    <t>performance,collaborative,research,traffic,evolution,mining</t>
+  </si>
+  <si>
+    <t>performance,functional,research,visual,fast,mining</t>
+  </si>
+  <si>
+    <t>sample 2</t>
+  </si>
+  <si>
+    <t>sample 3</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>vldb</t>
+  </si>
+  <si>
+    <t>estimation</t>
+  </si>
+  <si>
+    <t>multimedia</t>
+  </si>
+  <si>
+    <t>engineering</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>L_k6</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,machine,estimation</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,multimedia,services</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,methods,complexity</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,digital,graph</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,communication,automatic</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,engineering,reference</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,user,automatic</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,multiple,implementation</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,mathematical,reliability</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,traffic,evolution</t>
+  </si>
+  <si>
+    <t>2 batch size 20</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,resource,interface</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,visual,fast</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>dimensional</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>driven</t>
+  </si>
+  <si>
+    <t>routing</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>verification</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>european</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>statistical</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,digital,online</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,communication,dimensional,resource</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,user,automatic,artificial</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,driven,mining</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,notes,services,routing</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,flow,verification</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,program,graph</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,business,planning</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,transactions,motion,european</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,free,identification</t>
+  </si>
+  <si>
+    <t>framework,database,vldb,reliability,statistical</t>
   </si>
 </sst>
 </file>
@@ -485,7 +665,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dblp-vary query batch size'!$O$2:$O$3</c:f>
+              <c:f>'dblp-vary query batch size'!$N$2:$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -497,7 +677,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:f>'dblp-vary query batch size'!$M$4:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'dblp-vary query batch size'!$N$4:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.218000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$O$2:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$M$4:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -519,10 +750,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>52.145000000000003</c:v>
+                  <c:v>19.245999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>36.1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -532,15 +763,15 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$P$2:$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QA</c:v>
+                  <c:v>Short</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -548,7 +779,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dblp-vary query batch size'!$N$4:$N$7</c:f>
+              <c:f>'dblp-vary query batch size'!$M$4:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -570,10 +801,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.984999999999999</c:v>
+                  <c:v>16.782333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>27.072500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -583,15 +814,15 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$Q$2:$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Short</c:v>
+                  <c:v>Share</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,7 +830,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dblp-vary query batch size'!$N$4:$N$7</c:f>
+              <c:f>'dblp-vary query batch size'!$M$4:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -621,61 +852,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.625999999999999</c:v>
+                  <c:v>10.074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dblp-vary query batch size'!$R$2:$R$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Share</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'dblp-vary query batch size'!$N$4:$N$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'dblp-vary query batch size'!$R$4:$R$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10.72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>15.743499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -693,11 +873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203663616"/>
-        <c:axId val="203669888"/>
+        <c:axId val="192976384"/>
+        <c:axId val="192978304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203663616"/>
+        <c:axId val="192976384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203669888"/>
+        <c:crossAx val="192978304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203669888"/>
+        <c:axId val="192978304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203663616"/>
+        <c:crossAx val="192976384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -802,11 +982,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41032.717938078706" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41036.699799768518" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:L14" sheet="dblp-vary query batch size"/>
+    <worksheetSource ref="B2:K14" sheet="dblp-vary query batch size"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="10">
     <cacheField name="Algorithm" numFmtId="0">
       <sharedItems count="10">
         <s v="BA"/>
@@ -831,13 +1011,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10720" maxValue="52145"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10720" maxValue="76471"/>
     </cacheField>
     <cacheField name="2" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="11861" maxValue="83069"/>
     </cacheField>
     <cacheField name="3" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="7094" maxValue="35267"/>
     </cacheField>
     <cacheField name="4" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -846,16 +1026,13 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Average" numFmtId="43">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="10.72" maxValue="52.145000000000003"/>
-    </cacheField>
-    <cacheField name="Standard Deviation" numFmtId="43">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="10.074" maxValue="79.77"/>
     </cacheField>
     <cacheField name="memory" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12502756" maxValue="46673540"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Memory Usage(MB)" numFmtId="43">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.923557281494141" maxValue="44.511356353759766"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -872,38 +1049,35 @@
     <x v="0"/>
     <x v="0"/>
     <n v="52145"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="52.145000000000003"/>
-    <e v="#DIV/0!"/>
-    <n v="16841172"/>
-    <n v="16.060993194580078"/>
+    <n v="51242"/>
+    <n v="35267"/>
+    <m/>
+    <m/>
+    <n v="46.218000000000004"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="21985"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="21.984999999999999"/>
-    <e v="#DIV/0!"/>
-    <n v="12502756"/>
-    <n v="11.923557281494141"/>
+    <n v="17002"/>
+    <n v="18751"/>
+    <m/>
+    <m/>
+    <n v="19.245999999999999"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="14626"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="14.625999999999999"/>
-    <m/>
+    <n v="11861"/>
+    <n v="23860"/>
+    <m/>
+    <m/>
+    <n v="16.782333333333334"/>
     <m/>
     <m/>
   </r>
@@ -911,66 +1085,61 @@
     <x v="3"/>
     <x v="0"/>
     <n v="10720"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="10.72"/>
-    <e v="#DIV/0!"/>
-    <n v="12722184"/>
-    <n v="12.132820129394531"/>
+    <n v="12408"/>
+    <n v="7094"/>
+    <m/>
+    <m/>
+    <n v="10.074"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <e v="#DIV/0!"/>
-    <e v="#DIV/0!"/>
-    <n v="33185100"/>
-    <n v="31.647777557373047"/>
+    <n v="76471"/>
+    <n v="83069"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="79.77"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <e v="#DIV/0!"/>
-    <e v="#DIV/0!"/>
-    <n v="24759932"/>
-    <n v="23.612911224365234"/>
+    <n v="35174"/>
+    <n v="37201"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="36.1875"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <e v="#DIV/0!"/>
-    <m/>
+    <n v="32893"/>
+    <n v="21252"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="27.072500000000002"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <e v="#DIV/0!"/>
-    <e v="#DIV/0!"/>
-    <n v="25189554"/>
-    <n v="24.02263069152832"/>
+    <n v="11735"/>
+    <n v="19752"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="15.743499999999999"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -981,9 +1150,8 @@
     <m/>
     <m/>
     <e v="#DIV/0!"/>
-    <e v="#DIV/0!"/>
-    <n v="46673540"/>
-    <n v="44.511356353759766"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -994,9 +1162,8 @@
     <m/>
     <m/>
     <e v="#DIV/0!"/>
-    <e v="#DIV/0!"/>
-    <n v="35240390"/>
-    <n v="33.607854843139648"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1009,7 +1176,6 @@
     <e v="#DIV/0!"/>
     <m/>
     <m/>
-    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -1020,17 +1186,16 @@
     <m/>
     <m/>
     <e v="#DIV/0!"/>
-    <e v="#DIV/0!"/>
-    <n v="35335764"/>
-    <n v="33.698810577392578"/>
+    <m/>
+    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="N14:S19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="M14:R19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
       <items count="11">
         <item m="1" x="4"/>
@@ -1061,7 +1226,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="43" showAll="0"/>
     <pivotField numFmtId="43" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="43" showAll="0"/>
@@ -1104,7 +1268,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Memory Usage(MB)" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Memory Usage(MB)" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
@@ -1245,9 +1409,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="N2:S7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="M2:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
       <items count="11">
         <item x="0"/>
@@ -1279,7 +1443,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="43" showAll="0"/>
-    <pivotField numFmtId="43" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="43" showAll="0"/>
   </pivotFields>
@@ -1775,10 +1938,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:S58"/>
+  <dimension ref="B1:R58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,24 +1954,25 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
     <col min="8" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="7.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="7" customWidth="1"/>
-    <col min="21" max="21" width="6" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1834,24 +1998,21 @@
         <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5">
         <v>10</v>
@@ -1859,27 +2020,28 @@
       <c r="D3" s="5">
         <v>52145</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5">
+        <v>51242</v>
+      </c>
+      <c r="F3" s="5">
+        <v>35267</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="8">
         <f>AVERAGE(D3:H3)/1000</f>
-        <v>52.145000000000003</v>
-      </c>
-      <c r="J3" s="8" t="e">
-        <f>STDEV(D3:H3)/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="5">
-        <v>16841172</v>
-      </c>
-      <c r="L3" s="8">
-        <f>K3/1024/1024</f>
-        <v>16.060993194580078</v>
-      </c>
-      <c r="N3" s="1" t="s">
+        <v>46.218000000000004</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="8">
+        <f>J3/1024/1024</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>36</v>
@@ -1891,15 +2053,12 @@
         <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5">
         <v>10</v>
@@ -1907,47 +2066,45 @@
       <c r="D4" s="5">
         <v>21985</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5">
+        <v>17002</v>
+      </c>
+      <c r="F4" s="5">
+        <v>18751</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="8">
         <f t="shared" ref="I4:I14" si="0">AVERAGE(D4:H4)/1000</f>
-        <v>21.984999999999999</v>
-      </c>
-      <c r="J4" s="8" t="e">
-        <f t="shared" ref="J4:J14" si="1">STDEV(D4:H4)/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="5">
-        <v>12502756</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" ref="L4:L14" si="2">K4/1024/1024</f>
-        <v>11.923557281494141</v>
-      </c>
-      <c r="N4" s="3">
+        <v>19.245999999999999</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K14" si="1">J4/1024/1024</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <v>10</v>
       </c>
+      <c r="N4" s="2">
+        <v>46.218000000000004</v>
+      </c>
       <c r="O4" s="2">
-        <v>52.145000000000003</v>
+        <v>19.245999999999999</v>
       </c>
       <c r="P4" s="2">
-        <v>21.984999999999999</v>
+        <v>16.782333333333334</v>
       </c>
       <c r="Q4" s="2">
-        <v>14.625999999999999</v>
+        <v>10.074</v>
       </c>
       <c r="R4" s="2">
-        <v>10.72</v>
-      </c>
-      <c r="S4" s="2">
-        <v>99.475999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+        <v>92.320333333333323</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
@@ -1955,39 +2112,42 @@
       <c r="D5" s="5">
         <v>14626</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5">
+        <v>11861</v>
+      </c>
+      <c r="F5" s="5">
+        <v>23860</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="8">
         <f t="shared" si="0"/>
-        <v>14.625999999999999</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="8"/>
-      <c r="N5" s="3">
+        <v>16.782333333333334</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="3">
         <v>20</v>
       </c>
-      <c r="O5" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>79.77</v>
+      </c>
+      <c r="O5" s="2">
+        <v>36.1875</v>
+      </c>
+      <c r="P5" s="2">
+        <v>27.072500000000002</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>15.743499999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <v>158.77350000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -1995,27 +2155,28 @@
       <c r="D6" s="5">
         <v>10720</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5">
+        <v>12408</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7094</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="8">
         <f t="shared" si="0"/>
-        <v>10.72</v>
-      </c>
-      <c r="J6" s="8" t="e">
+        <v>10.074</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>50</v>
+      </c>
+      <c r="N6" s="2" t="e">
         <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="5">
-        <v>12722184</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" si="2"/>
-        <v>12.132820129394531</v>
-      </c>
-      <c r="N6" s="3">
-        <v>50</v>
       </c>
       <c r="O6" s="2" t="e">
         <v>#DIV/0!</v>
@@ -2029,39 +2190,37 @@
       <c r="R6" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>20</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="5">
+        <v>76471</v>
+      </c>
+      <c r="E7" s="5">
+        <v>83069</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="8" t="e">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
+        <v>79.77</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2" t="e">
         <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="5">
-        <v>33185100</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="2"/>
-        <v>31.647777557373047</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="O7" s="2" t="e">
         <v>#DIV/0!</v>
@@ -2075,89 +2234,85 @@
       <c r="R7" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>20</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="5">
+        <v>35174</v>
+      </c>
+      <c r="E8" s="5">
+        <v>37201</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="8" t="e">
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="8" t="e">
+        <v>36.1875</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="5">
-        <v>24759932</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="2"/>
-        <v>23.612911224365234</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
         <v>20</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5">
+        <v>32893</v>
+      </c>
+      <c r="E9" s="5">
+        <v>21252</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="8" t="e">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+        <v>27.072500000000002</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5">
         <v>20</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5">
+        <v>11735</v>
+      </c>
+      <c r="E10" s="5">
+        <v>19752</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="8" t="e">
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="8" t="e">
+        <v>15.743499999999999</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="5">
-        <v>25189554</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="2"/>
-        <v>24.02263069152832</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5">
         <v>50</v>
@@ -2171,21 +2326,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="8" t="e">
+      <c r="J11" s="5"/>
+      <c r="K11" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="5">
-        <v>46673540</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="2"/>
-        <v>44.511356353759766</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5">
         <v>50</v>
@@ -2199,21 +2348,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="8" t="e">
+      <c r="J12" s="5"/>
+      <c r="K12" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="5">
-        <v>35240390</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="2"/>
-        <v>33.607854843139648</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
         <v>50</v>
@@ -2227,13 +2370,12 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5">
         <v>50</v>
@@ -2247,27 +2389,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="8" t="e">
+      <c r="J14" s="5"/>
+      <c r="K14" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="5">
-        <v>35335764</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="2"/>
-        <v>33.698810577392578</v>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N15" s="1" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
       </c>
       <c r="O15" t="s">
         <v>36</v>
@@ -2279,100 +2418,97 @@
         <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N16" s="3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M16" s="3">
         <v>10</v>
       </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
       <c r="O16" s="2">
-        <v>16.060993194580078</v>
-      </c>
-      <c r="P16" s="2">
-        <v>11.923557281494141</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
-        <v>12.132820129394531</v>
-      </c>
-      <c r="S16" s="2">
-        <v>40.11737060546875</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
         <v>20</v>
       </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
       <c r="O17" s="2">
-        <v>31.647777557373047</v>
-      </c>
-      <c r="P17" s="2">
-        <v>23.612911224365234</v>
-      </c>
-      <c r="Q17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
       <c r="R17" s="2">
-        <v>24.02263069152832</v>
-      </c>
-      <c r="S17" s="2">
-        <v>79.283319473266602</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M18" s="3">
         <v>50</v>
       </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
       <c r="O18" s="2">
-        <v>44.511356353759766</v>
-      </c>
-      <c r="P18" s="2">
-        <v>33.607854843139648</v>
-      </c>
-      <c r="Q18" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
       <c r="R18" s="2">
-        <v>33.698810577392578</v>
-      </c>
-      <c r="S18" s="2">
-        <v>111.81802177429199</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M19" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
       <c r="O19" s="2">
-        <v>92.220127105712891</v>
-      </c>
-      <c r="P19" s="2">
-        <v>69.144323348999023</v>
-      </c>
-      <c r="Q19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
       <c r="R19" s="2">
-        <v>69.85426139831543</v>
-      </c>
-      <c r="S19" s="2">
-        <v>231.21871185302734</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C27" s="6">
         <v>5</v>
@@ -2387,7 +2523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2541,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2559,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
@@ -2441,7 +2577,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>3</v>
       </c>
@@ -2459,15 +2595,15 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="6">
         <v>5</v>
@@ -2565,407 +2701,2077 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <v>42425</v>
+      </c>
+      <c r="K3">
+        <v>50011</v>
+      </c>
+      <c r="L3">
+        <v>34491</v>
+      </c>
+      <c r="M3">
+        <v>17074</v>
+      </c>
+      <c r="N3">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>42425</v>
       </c>
-      <c r="J3">
-        <v>50011</v>
-      </c>
-      <c r="K3">
+      <c r="K4">
+        <v>10637</v>
+      </c>
+      <c r="L4">
         <v>34491</v>
       </c>
-      <c r="L3">
-        <v>17074</v>
-      </c>
-      <c r="M3">
-        <v>15703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="M4">
+        <v>16220</v>
+      </c>
+      <c r="N4">
+        <v>19125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4">
-        <v>42425</v>
-      </c>
-      <c r="J4">
-        <v>10637</v>
-      </c>
-      <c r="K4">
-        <v>34491</v>
-      </c>
-      <c r="L4">
-        <v>16220</v>
-      </c>
-      <c r="M4">
-        <v>19125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5">
+        <v>27</v>
+      </c>
+      <c r="J5">
         <v>42425</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6623</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>34491</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>20792</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>20693</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>42425</v>
+      </c>
+      <c r="K6">
+        <v>5907</v>
+      </c>
+      <c r="L6">
+        <v>34491</v>
+      </c>
+      <c r="M6">
+        <v>21290</v>
+      </c>
+      <c r="N6">
+        <v>21376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>42425</v>
+      </c>
+      <c r="K7">
+        <v>4686</v>
+      </c>
+      <c r="L7">
+        <v>34491</v>
+      </c>
+      <c r="M7">
+        <v>22242</v>
+      </c>
+      <c r="N7">
+        <v>17988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8">
+        <v>42425</v>
+      </c>
+      <c r="K8">
+        <v>28267</v>
+      </c>
+      <c r="L8">
+        <v>34491</v>
+      </c>
+      <c r="M8">
+        <v>46434</v>
+      </c>
+      <c r="N8">
+        <v>25818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>42425</v>
+      </c>
+      <c r="K9">
+        <v>10592</v>
+      </c>
+      <c r="L9">
+        <v>34491</v>
+      </c>
+      <c r="M9">
+        <v>10159</v>
+      </c>
+      <c r="N9">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10">
+        <v>42425</v>
+      </c>
+      <c r="K10">
+        <v>10303</v>
+      </c>
+      <c r="L10">
+        <v>34491</v>
+      </c>
+      <c r="M10">
+        <v>9463</v>
+      </c>
+      <c r="N10">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11">
+        <v>42425</v>
+      </c>
+      <c r="K11">
+        <v>9725</v>
+      </c>
+      <c r="L11">
+        <v>34491</v>
+      </c>
+      <c r="M11">
+        <v>8920</v>
+      </c>
+      <c r="N11">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>42425</v>
+      </c>
+      <c r="K12">
+        <v>8577</v>
+      </c>
+      <c r="L12">
+        <v>34491</v>
+      </c>
+      <c r="M12">
+        <v>15675</v>
+      </c>
+      <c r="N12">
+        <v>16220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="J17">
+        <v>42425</v>
+      </c>
+      <c r="K17">
+        <v>50011</v>
+      </c>
+      <c r="L17">
+        <v>34491</v>
+      </c>
+      <c r="M17">
+        <v>17074</v>
+      </c>
+      <c r="N17">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18">
+        <v>42425</v>
+      </c>
+      <c r="K18">
+        <v>10637</v>
+      </c>
+      <c r="L18">
+        <v>34491</v>
+      </c>
+      <c r="M18">
+        <v>16220</v>
+      </c>
+      <c r="N18">
+        <v>19125</v>
+      </c>
+      <c r="O18">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19">
+        <v>42425</v>
+      </c>
+      <c r="K19">
+        <v>6623</v>
+      </c>
+      <c r="L19">
+        <v>34491</v>
+      </c>
+      <c r="M19">
+        <v>20792</v>
+      </c>
+      <c r="N19">
+        <v>20693</v>
+      </c>
+      <c r="O19">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20">
+        <v>42425</v>
+      </c>
+      <c r="K20">
+        <v>5907</v>
+      </c>
+      <c r="L20">
+        <v>34491</v>
+      </c>
+      <c r="M20">
+        <v>21290</v>
+      </c>
+      <c r="N20">
+        <v>21376</v>
+      </c>
+      <c r="O20">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21">
+        <v>42425</v>
+      </c>
+      <c r="K21">
+        <v>4686</v>
+      </c>
+      <c r="L21">
+        <v>34491</v>
+      </c>
+      <c r="M21">
+        <v>22242</v>
+      </c>
+      <c r="N21">
+        <v>17988</v>
+      </c>
+      <c r="O21">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22">
+        <v>42425</v>
+      </c>
+      <c r="K22">
+        <v>28267</v>
+      </c>
+      <c r="L22">
+        <v>34491</v>
+      </c>
+      <c r="M22">
+        <v>46434</v>
+      </c>
+      <c r="N22">
+        <v>25818</v>
+      </c>
+      <c r="O22">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23">
+        <v>42425</v>
+      </c>
+      <c r="K23">
+        <v>10592</v>
+      </c>
+      <c r="L23">
+        <v>34491</v>
+      </c>
+      <c r="M23">
+        <v>10159</v>
+      </c>
+      <c r="N23">
+        <v>10009</v>
+      </c>
+      <c r="O23">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24">
+        <v>42425</v>
+      </c>
+      <c r="K24">
+        <v>10303</v>
+      </c>
+      <c r="L24">
+        <v>34491</v>
+      </c>
+      <c r="M24">
+        <v>9463</v>
+      </c>
+      <c r="N24">
+        <v>9005</v>
+      </c>
+      <c r="O24">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25">
+        <v>42425</v>
+      </c>
+      <c r="K25">
+        <v>9725</v>
+      </c>
+      <c r="L25">
+        <v>34491</v>
+      </c>
+      <c r="M25">
+        <v>8920</v>
+      </c>
+      <c r="N25">
+        <v>8523</v>
+      </c>
+      <c r="O25">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
         <v>31</v>
       </c>
-      <c r="I6">
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26">
         <v>42425</v>
       </c>
-      <c r="J6">
-        <v>5907</v>
-      </c>
-      <c r="K6">
+      <c r="K26">
+        <v>8577</v>
+      </c>
+      <c r="L26">
         <v>34491</v>
       </c>
-      <c r="L6">
+      <c r="M26">
+        <v>15675</v>
+      </c>
+      <c r="N26">
+        <v>16220</v>
+      </c>
+      <c r="O26">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31">
+        <v>25198</v>
+      </c>
+      <c r="K31">
+        <v>23517</v>
+      </c>
+      <c r="L31">
+        <v>24048</v>
+      </c>
+      <c r="M31">
+        <v>17074</v>
+      </c>
+      <c r="N31">
+        <v>21175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32">
+        <v>25198</v>
+      </c>
+      <c r="K32">
+        <v>23517</v>
+      </c>
+      <c r="L32">
+        <v>24048</v>
+      </c>
+      <c r="M32">
+        <v>20480</v>
+      </c>
+      <c r="N32">
+        <v>19125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33">
+        <v>25198</v>
+      </c>
+      <c r="K33">
+        <v>23517</v>
+      </c>
+      <c r="L33">
+        <v>24048</v>
+      </c>
+      <c r="M33">
+        <v>20792</v>
+      </c>
+      <c r="N33">
+        <v>20693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>25198</v>
+      </c>
+      <c r="K34">
+        <v>23517</v>
+      </c>
+      <c r="L34">
+        <v>24048</v>
+      </c>
+      <c r="M34">
         <v>21290</v>
       </c>
-      <c r="M6">
+      <c r="N34">
         <v>21376</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>25198</v>
+      </c>
+      <c r="K35">
+        <v>23517</v>
+      </c>
+      <c r="L35">
+        <v>24048</v>
+      </c>
+      <c r="M35">
+        <v>22242</v>
+      </c>
+      <c r="N35">
+        <v>17988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36">
+        <v>25198</v>
+      </c>
+      <c r="K36">
+        <v>23517</v>
+      </c>
+      <c r="L36">
+        <v>24048</v>
+      </c>
+      <c r="M36">
+        <v>29091</v>
+      </c>
+      <c r="N36">
+        <v>25818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>25198</v>
+      </c>
+      <c r="K37">
+        <v>23517</v>
+      </c>
+      <c r="L37">
+        <v>24048</v>
+      </c>
+      <c r="M37">
+        <v>19414</v>
+      </c>
+      <c r="N37">
+        <v>17988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38">
+        <v>25198</v>
+      </c>
+      <c r="K38">
+        <v>23517</v>
+      </c>
+      <c r="L38">
+        <v>24048</v>
+      </c>
+      <c r="M38">
+        <v>21671</v>
+      </c>
+      <c r="N38">
+        <v>18288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39">
+        <v>25198</v>
+      </c>
+      <c r="K39">
+        <v>23517</v>
+      </c>
+      <c r="L39">
+        <v>24048</v>
+      </c>
+      <c r="M39">
+        <v>9463</v>
+      </c>
+      <c r="N39">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40">
+        <v>25198</v>
+      </c>
+      <c r="K40">
+        <v>23517</v>
+      </c>
+      <c r="L40">
+        <v>24048</v>
+      </c>
+      <c r="M40">
+        <v>8920</v>
+      </c>
+      <c r="N40">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" t="s">
+        <v>48</v>
+      </c>
+      <c r="N43" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44">
+        <v>25198</v>
+      </c>
+      <c r="K44">
+        <v>23517</v>
+      </c>
+      <c r="L44">
+        <v>24048</v>
+      </c>
+      <c r="M44">
+        <v>17074</v>
+      </c>
+      <c r="N44">
+        <v>21175</v>
+      </c>
+      <c r="O44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45">
+        <v>25198</v>
+      </c>
+      <c r="K45">
+        <v>23517</v>
+      </c>
+      <c r="L45">
+        <v>24048</v>
+      </c>
+      <c r="M45">
+        <v>20480</v>
+      </c>
+      <c r="N45">
+        <v>19125</v>
+      </c>
+      <c r="O45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46">
+        <v>25198</v>
+      </c>
+      <c r="K46">
+        <v>23517</v>
+      </c>
+      <c r="L46">
+        <v>24048</v>
+      </c>
+      <c r="M46">
+        <v>20792</v>
+      </c>
+      <c r="N46">
+        <v>20693</v>
+      </c>
+      <c r="O46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47">
+        <v>25198</v>
+      </c>
+      <c r="K47">
+        <v>23517</v>
+      </c>
+      <c r="L47">
+        <v>24048</v>
+      </c>
+      <c r="M47">
+        <v>21290</v>
+      </c>
+      <c r="N47">
+        <v>12892</v>
+      </c>
+      <c r="O47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48">
+        <v>25198</v>
+      </c>
+      <c r="K48">
+        <v>23517</v>
+      </c>
+      <c r="L48">
+        <v>24048</v>
+      </c>
+      <c r="M48">
+        <v>22242</v>
+      </c>
+      <c r="N48">
+        <v>10910</v>
+      </c>
+      <c r="O48">
+        <v>10159</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49">
+        <v>25198</v>
+      </c>
+      <c r="K49">
+        <v>23517</v>
+      </c>
+      <c r="L49">
+        <v>24048</v>
+      </c>
+      <c r="M49">
+        <v>29091</v>
+      </c>
+      <c r="N49">
+        <v>25818</v>
+      </c>
+      <c r="O49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>115</v>
+      </c>
+      <c r="J50">
+        <v>25198</v>
+      </c>
+      <c r="K50">
+        <v>23517</v>
+      </c>
+      <c r="L50">
+        <v>24048</v>
+      </c>
+      <c r="M50">
+        <v>19414</v>
+      </c>
+      <c r="N50">
+        <v>17988</v>
+      </c>
+      <c r="O50">
+        <v>13831</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51">
+        <v>25198</v>
+      </c>
+      <c r="K51">
+        <v>23517</v>
+      </c>
+      <c r="L51">
+        <v>24048</v>
+      </c>
+      <c r="M51">
+        <v>21671</v>
+      </c>
+      <c r="N51">
+        <v>18288</v>
+      </c>
+      <c r="O51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+      <c r="J52">
+        <v>25198</v>
+      </c>
+      <c r="K52">
+        <v>23517</v>
+      </c>
+      <c r="L52">
+        <v>24048</v>
+      </c>
+      <c r="M52">
+        <v>9463</v>
+      </c>
+      <c r="N52">
+        <v>9005</v>
+      </c>
+      <c r="O52" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53">
+        <v>25198</v>
+      </c>
+      <c r="K53">
+        <v>23517</v>
+      </c>
+      <c r="L53">
+        <v>24048</v>
+      </c>
+      <c r="M53">
+        <v>8920</v>
+      </c>
+      <c r="N53">
+        <v>8523</v>
+      </c>
+      <c r="O53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>42425</v>
-      </c>
-      <c r="J7">
-        <v>4686</v>
-      </c>
-      <c r="K7">
-        <v>34491</v>
-      </c>
-      <c r="L7">
-        <v>22242</v>
-      </c>
-      <c r="M7">
-        <v>17988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="J54">
+        <v>25198</v>
+      </c>
+      <c r="K54">
+        <v>23517</v>
+      </c>
+      <c r="L54">
+        <v>24048</v>
+      </c>
+      <c r="M54">
+        <v>10491</v>
+      </c>
+      <c r="N54">
+        <v>15703</v>
+      </c>
+      <c r="O54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55">
+        <v>25198</v>
+      </c>
+      <c r="K55">
+        <v>23517</v>
+      </c>
+      <c r="L55">
+        <v>24048</v>
+      </c>
+      <c r="M55">
+        <v>16220</v>
+      </c>
+      <c r="N55">
+        <v>19125</v>
+      </c>
+      <c r="O55">
+        <v>14673</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56">
+        <v>25198</v>
+      </c>
+      <c r="K56">
+        <v>23517</v>
+      </c>
+      <c r="L56">
+        <v>24048</v>
+      </c>
+      <c r="M56">
+        <v>10781</v>
+      </c>
+      <c r="N56">
+        <v>10781</v>
+      </c>
+      <c r="O56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57">
+        <v>25198</v>
+      </c>
+      <c r="K57">
+        <v>23517</v>
+      </c>
+      <c r="L57">
+        <v>24048</v>
+      </c>
+      <c r="M57">
+        <v>13993</v>
+      </c>
+      <c r="N57">
+        <v>21376</v>
+      </c>
+      <c r="O57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>121</v>
+      </c>
+      <c r="J58">
+        <v>25198</v>
+      </c>
+      <c r="K58">
+        <v>23517</v>
+      </c>
+      <c r="L58">
+        <v>24048</v>
+      </c>
+      <c r="M58">
+        <v>10637</v>
+      </c>
+      <c r="N58">
+        <v>11370</v>
+      </c>
+      <c r="O58" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8">
-        <v>42425</v>
-      </c>
-      <c r="J8">
-        <v>28267</v>
-      </c>
-      <c r="K8">
-        <v>34491</v>
-      </c>
-      <c r="L8">
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59">
+        <v>25198</v>
+      </c>
+      <c r="K59">
+        <v>23517</v>
+      </c>
+      <c r="L59">
+        <v>24048</v>
+      </c>
+      <c r="M59">
         <v>46434</v>
       </c>
-      <c r="M8">
-        <v>25818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="N59">
+        <v>12203</v>
+      </c>
+      <c r="O59">
+        <v>11121</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9">
-        <v>42425</v>
-      </c>
-      <c r="J9">
-        <v>10592</v>
-      </c>
-      <c r="K9">
-        <v>34491</v>
-      </c>
-      <c r="L9">
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60">
+        <v>25198</v>
+      </c>
+      <c r="K60">
+        <v>23517</v>
+      </c>
+      <c r="L60">
+        <v>24048</v>
+      </c>
+      <c r="M60">
         <v>10159</v>
       </c>
-      <c r="M9">
+      <c r="N60">
         <v>10009</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="O60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" t="s">
+        <v>125</v>
+      </c>
+      <c r="J61">
+        <v>25198</v>
+      </c>
+      <c r="K61">
+        <v>23517</v>
+      </c>
+      <c r="L61">
+        <v>24048</v>
+      </c>
+      <c r="M61">
+        <v>9382</v>
+      </c>
+      <c r="N61">
+        <v>10182</v>
+      </c>
+      <c r="O61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10">
-        <v>42425</v>
-      </c>
-      <c r="J10">
-        <v>10303</v>
-      </c>
-      <c r="K10">
-        <v>34491</v>
-      </c>
-      <c r="L10">
-        <v>9463</v>
-      </c>
-      <c r="M10">
+      <c r="G62" t="s">
+        <v>126</v>
+      </c>
+      <c r="J62">
+        <v>25198</v>
+      </c>
+      <c r="K62">
+        <v>23517</v>
+      </c>
+      <c r="L62">
+        <v>24048</v>
+      </c>
+      <c r="M62">
         <v>9005</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11">
-        <v>42425</v>
-      </c>
-      <c r="J11">
-        <v>9725</v>
-      </c>
-      <c r="K11">
-        <v>34491</v>
-      </c>
-      <c r="L11">
-        <v>8920</v>
-      </c>
-      <c r="M11">
-        <v>8523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="N62">
+        <v>8864</v>
+      </c>
+      <c r="O62" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12">
-        <v>42425</v>
-      </c>
-      <c r="J12">
-        <v>8577</v>
-      </c>
-      <c r="K12">
-        <v>34491</v>
-      </c>
-      <c r="L12">
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63">
+        <v>25198</v>
+      </c>
+      <c r="K63">
+        <v>23517</v>
+      </c>
+      <c r="L63">
+        <v>24048</v>
+      </c>
+      <c r="M63">
         <v>15675</v>
       </c>
-      <c r="M12">
+      <c r="N63">
         <v>16220</v>
+      </c>
+      <c r="O63" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/yaol-p-xml/testresult/Experiment.xlsx
+++ b/trunk/yaol-p-xml/testresult/Experiment.xlsx
@@ -4,36 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dblp-vary query batch size" sheetId="7" r:id="rId1"/>
     <sheet name="dblp keyword set used" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'dblp-vary query batch size'!$A$27:$G$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'dblp keyword set used'!$A$1:$P$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'dblp-vary query batch size'!$A$25:$G$49</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="138">
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="253">
   <si>
     <t>Algorithm</t>
   </si>
@@ -65,12 +54,6 @@
     <t>Vary batch size</t>
   </si>
   <si>
-    <t>Algorithm\Batch Size</t>
-  </si>
-  <si>
-    <t>2. Standard Deviation</t>
-  </si>
-  <si>
     <t>time(s)</t>
   </si>
   <si>
@@ -80,9 +63,6 @@
     <t>Sum of Average</t>
   </si>
   <si>
-    <t>1. Average Processing Times</t>
-  </si>
-  <si>
     <t>Memory Usage(MB)</t>
   </si>
   <si>
@@ -134,12 +114,6 @@
     <t>QA</t>
   </si>
   <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
     <t>1 batch size 10</t>
   </si>
   <si>
@@ -435,6 +409,378 @@
   </si>
   <si>
     <t>framework,database,vldb,reliability,statistical</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>SHORT-E</t>
+  </si>
+  <si>
+    <t>SHARE-E</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>scheduling</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>hierarchical</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>tracking</t>
+  </si>
+  <si>
+    <t>segmentation</t>
+  </si>
+  <si>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>cikm</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>performance,database,cikm,code,article</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,fast,mining</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,test</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,automatic,artificial</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,evolution</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,graph</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,notes</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,online</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,services,transactions</t>
+  </si>
+  <si>
+    <t>multimedia,resource,interface,middleware,reliability</t>
+  </si>
+  <si>
+    <t>performance,database,mathematical,reliability,learning</t>
+  </si>
+  <si>
+    <t>performance,database,implementation,middleware,vldb</t>
+  </si>
+  <si>
+    <t>performance,database,business,dimensional,robot</t>
+  </si>
+  <si>
+    <t>performance,database,statistical,index,scheduling,frequency</t>
+  </si>
+  <si>
+    <t>performance,database,hierarchical,practice,decision</t>
+  </si>
+  <si>
+    <t>performance,database,internet,study,real</t>
+  </si>
+  <si>
+    <t>performance,database,multimedia,problem,energy</t>
+  </si>
+  <si>
+    <t>performance,database,extraction,tracking,segmentation</t>
+  </si>
+  <si>
+    <t>performance,database,visualization,date,quality</t>
+  </si>
+  <si>
+    <t>performance,database,intelligence,cikm,code</t>
+  </si>
+  <si>
+    <t>3 batch size 50</t>
+  </si>
+  <si>
+    <t>multicast</t>
+  </si>
+  <si>
+    <t>localization</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>nonlinear</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>computers</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>graphs</t>
+  </si>
+  <si>
+    <t>icc</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>electronic</t>
+  </si>
+  <si>
+    <t>globecom</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>embedded</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,machine,estimation</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,multimedia,services</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,methods,complexity</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,digital,graph</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,communication,automatic</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,engineering,reference</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,user,automatic</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,multiple,implementation</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,resource,reliability</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,automatic,evolution</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,multicast,localization,quality</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,multicast,localization,min</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,sensor,line</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,case,matching</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,classification,nonlinear</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,com,interface</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,computers,traffic</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,scheduling,graph</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,problems,driven</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,graphs,methods</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,icc,hybrid</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,andrew,mathematical</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,decision,series</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,notes,electronic</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,artificial,</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,mining,</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,globecom,</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,finite,</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,comparison,</t>
+  </si>
+  <si>
+    <t>framework,vldb,agents,embedded,</t>
+  </si>
+  <si>
+    <t>for short-e</t>
+  </si>
+  <si>
+    <t>for large and small shared</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,middleware,code,mining</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,multicast,mathematical</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,reliability,automatic,artificial</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,cikm,evolution</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,practice,resource</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,interface,online</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,flow,verification</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,traffic,fast</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,free,reliability</t>
+  </si>
+  <si>
+    <t>multimedia,performance,database,notes,services</t>
+  </si>
+  <si>
+    <t>share large keywords</t>
+  </si>
+  <si>
+    <t>share small keywords</t>
+  </si>
+  <si>
+    <t>multimedia,performance,middleware,code,evolution,mining</t>
+  </si>
+  <si>
+    <t>date,quality,middleware,code,evolution,agents</t>
+  </si>
+  <si>
+    <t>online,database,middleware,code,evolution</t>
+  </si>
+  <si>
+    <t>communication,dimensional,middleware,code,evolution</t>
+  </si>
+  <si>
+    <t>machine,estimation,middleware,code,evolution</t>
+  </si>
+  <si>
+    <t>transactions,reference,middleware,code,evolution</t>
+  </si>
+  <si>
+    <t>notes,services,middleware,code,evolution</t>
+  </si>
+  <si>
+    <t>transactions,learning,middleware,code,evolution</t>
+  </si>
+  <si>
+    <t>implementation,automatic,middleware,code,evolution</t>
+  </si>
+  <si>
+    <t>icc,hybrid,middleware,code,evolution</t>
   </si>
 </sst>
 </file>
@@ -516,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -528,9 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -653,6 +997,18 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -705,7 +1061,7 @@
                   <c:v>79.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>184.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,7 +1112,7 @@
                   <c:v>36.1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>47.655999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,7 +1127,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Short</c:v>
+                  <c:v>SHORT-E</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -807,7 +1163,7 @@
                   <c:v>27.072500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>42.264000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +1178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Share</c:v>
+                  <c:v>SHARE-E</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -858,7 +1214,7 @@
                   <c:v>15.743499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>29.126000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,11 +1229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192976384"/>
-        <c:axId val="192978304"/>
+        <c:axId val="192984576"/>
+        <c:axId val="192986496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192976384"/>
+        <c:axId val="192984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192978304"/>
+        <c:crossAx val="192986496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -913,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192978304"/>
+        <c:axId val="192986496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +1280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192976384"/>
+        <c:crossAx val="192984576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -946,19 +1302,539 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Processing Time (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BA</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Scenario 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Scenario 2</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>52.145000000000003</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>35.267000000000003</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>QA</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Scenario 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Scenario 2</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>21.984999999999999</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>18.751000000000001</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SHORT-E</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Scenario 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Scenario 2</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>14.625999999999999</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>23.86</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SHARE-E</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Scenario 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Scenario 2</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>10.72</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7.0940000000000003</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="193002112"/>
+        <c:axId val="209205888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="193002112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="209205888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209205888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193002112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Processing Time (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$J$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$K$56:$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dblp-vary query batch size'!$K$57:$L$57</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>38.828000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.244999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$J$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$K$56:$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dblp-vary query batch size'!$K$58:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$J$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHORT-E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$K$56:$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dblp-vary query batch size'!$K$59:$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$J$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHARE-E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$K$56:$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dblp-vary query batch size'!$K$60:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9529999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="232756736"/>
+        <c:axId val="232758272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="232756736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232758272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232758272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232756736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -978,25 +1854,87 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>871537</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>890587</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>976312</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41036.699799768518" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41037.510636805557" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:K14" sheet="dblp-vary query batch size"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Algorithm" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="12">
         <s v="BA"/>
         <s v="QA"/>
-        <s v="Short"/>
-        <s v="Share"/>
+        <s v="SHORT-E"/>
+        <s v="SHARE-E"/>
         <s v="SE" u="1"/>
         <s v="SE-I" u="1"/>
         <s v="A1" u="1"/>
         <s v="A3" u="1"/>
+        <s v="Share" u="1"/>
+        <s v="Short" u="1"/>
         <s v="A2" u="1"/>
         <s v="SE-II" u="1"/>
       </sharedItems>
@@ -1011,7 +1949,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10720" maxValue="76471"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10720" maxValue="184530"/>
     </cacheField>
     <cacheField name="2" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="11861" maxValue="83069"/>
@@ -1026,7 +1964,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Average" numFmtId="43">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="10.074" maxValue="79.77"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.074" maxValue="184.53"/>
     </cacheField>
     <cacheField name="memory" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -1144,48 +2082,48 @@
   <r>
     <x v="0"/>
     <x v="2"/>
+    <n v="184530"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <e v="#DIV/0!"/>
+    <n v="184.53"/>
     <m/>
     <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
+    <n v="47656"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <e v="#DIV/0!"/>
+    <n v="47.655999999999999"/>
     <m/>
     <n v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
+    <n v="42264"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <e v="#DIV/0!"/>
+    <n v="42.264000000000003"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
+    <n v="29126"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <e v="#DIV/0!"/>
+    <n v="29.126000000000001"/>
     <m/>
     <n v="0"/>
   </r>
@@ -1193,19 +2131,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="M14:R19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
-      <items count="11">
+      <items count="13">
         <item m="1" x="4"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item m="1" x="5"/>
+        <item m="1" x="11"/>
         <item m="1" x="9"/>
+        <item m="1" x="8"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -1258,10 +2198,10 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -1409,19 +2349,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="M2:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
-      <items count="11">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="7"/>
         <item m="1" x="5"/>
+        <item m="1" x="11"/>
         <item m="1" x="9"/>
+        <item m="1" x="8"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -1474,10 +2416,10 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -1486,7 +2428,7 @@
   <dataFields count="1">
     <dataField name="Sum of Average" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="14">
+  <chartFormats count="16">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -1639,6 +2581,30 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -1938,10 +2904,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:R58"/>
+  <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,28 +2922,28 @@
     <col min="8" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="12" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1995,24 +2961,24 @@
         <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5">
         <v>10</v>
@@ -2028,37 +2994,37 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <f>AVERAGE(D3:H3)/1000</f>
         <v>46.218000000000004</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>J3/1024/1024</f>
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="R3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5">
         <v>10</v>
@@ -2074,12 +3040,12 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f t="shared" ref="I4:I14" si="0">AVERAGE(D4:H4)/1000</f>
         <v>19.245999999999999</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K14" si="1">J4/1024/1024</f>
         <v>0</v>
       </c>
@@ -2104,7 +3070,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
@@ -2120,12 +3086,12 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>16.782333333333334</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="7"/>
       <c r="M5" s="3">
         <v>20</v>
       </c>
@@ -2147,7 +3113,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -2163,37 +3129,37 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
         <v>10.074</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6" s="3">
         <v>50</v>
       </c>
-      <c r="N6" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="2" t="e">
-        <v>#DIV/0!</v>
+      <c r="N6" s="2">
+        <v>184.53</v>
+      </c>
+      <c r="O6" s="2">
+        <v>47.655999999999999</v>
+      </c>
+      <c r="P6" s="2">
+        <v>42.264000000000003</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>29.126000000000001</v>
+      </c>
+      <c r="R6" s="2">
+        <v>303.57599999999996</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5">
         <v>20</v>
@@ -2207,37 +3173,37 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>79.77</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="2" t="e">
-        <v>#DIV/0!</v>
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>310.51800000000003</v>
+      </c>
+      <c r="O7" s="2">
+        <v>103.08949999999999</v>
+      </c>
+      <c r="P7" s="2">
+        <v>86.118833333333328</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>54.9435</v>
+      </c>
+      <c r="R7" s="2">
+        <v>554.66983333333337</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>20</v>
@@ -2251,19 +3217,19 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
         <v>36.1875</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5">
         <v>20</v>
@@ -2277,16 +3243,16 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>27.072500000000002</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5">
         <v>20</v>
@@ -2300,125 +3266,133 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>15.743499999999999</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5">
         <v>50</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>184530</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="8" t="e">
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>184.53</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5">
         <v>50</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>47656</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="8" t="e">
+      <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>47.655999999999999</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C13" s="5">
         <v>50</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>42264</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="8" t="e">
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>42.264000000000003</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C14" s="5">
         <v>50</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>29126</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="8" t="e">
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>29.126000000000001</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="Q15" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="R15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
@@ -2477,7 +3451,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M19" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -2495,203 +3469,133 @@
     </row>
     <row r="24" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6">
-        <v>5</v>
-      </c>
-      <c r="D27" s="6">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6">
-        <v>15</v>
-      </c>
-      <c r="F27" s="6">
-        <v>20</v>
+      <c r="J27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="J28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="7">
+        <v>52.145000000000003</v>
+      </c>
+      <c r="L28" s="7">
+        <v>35.267000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="7">
+        <v>21.984999999999999</v>
+      </c>
+      <c r="L29" s="7">
+        <v>18.751000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="7">
+        <v>14.625999999999999</v>
+      </c>
+      <c r="L30" s="7">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7">
+        <v>10.72</v>
+      </c>
+      <c r="L31" s="7">
+        <v>7.0940000000000003</v>
+      </c>
+    </row>
+    <row r="45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J56" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="8">
-        <v>7.8138000000000005</v>
-      </c>
-      <c r="D28" s="9">
-        <v>22.512599999999999</v>
-      </c>
-      <c r="E28" s="9">
-        <v>42.963200000000001</v>
-      </c>
-      <c r="F28" s="9">
-        <v>54.664499999999997</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8">
-        <v>6.0068000000000001</v>
-      </c>
-      <c r="D29" s="9">
-        <v>17.287800000000001</v>
-      </c>
-      <c r="E29" s="9">
-        <v>30.287800000000001</v>
-      </c>
-      <c r="F29" s="9">
-        <v>34.453499999999998</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:18" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="8">
-        <v>5.2166000000000006</v>
-      </c>
-      <c r="D30" s="9">
-        <v>14.997200000000001</v>
-      </c>
-      <c r="E30" s="9">
-        <v>26.525400000000001</v>
-      </c>
-      <c r="F30" s="9">
-        <v>31.954000000000001</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="8">
-        <v>5.3070000000000004</v>
-      </c>
-      <c r="D31" s="9">
-        <v>15.484399999999999</v>
-      </c>
-      <c r="E31" s="9">
-        <v>27.0944</v>
-      </c>
-      <c r="F31" s="9">
-        <v>33.063000000000002</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="6">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6">
-        <v>15</v>
-      </c>
-      <c r="F33" s="6">
-        <v>20</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2.1684125991148462</v>
-      </c>
-      <c r="D34" s="9">
-        <v>3.8698443508751037</v>
-      </c>
-      <c r="E34" s="9">
-        <v>15.196458179457469</v>
-      </c>
-      <c r="F34" s="9">
-        <v>13.534730898691707</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1.7651599644224891</v>
-      </c>
-      <c r="D35" s="9">
-        <v>3.32634539697849</v>
-      </c>
-      <c r="E35" s="9">
-        <v>7.3728747242849613</v>
-      </c>
-      <c r="F35" s="9">
-        <v>5.8993918754393659</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1.1539546351568579</v>
-      </c>
-      <c r="D36" s="9">
-        <v>3.033064077793278</v>
-      </c>
-      <c r="E36" s="9">
-        <v>5.6484250725312757</v>
-      </c>
-      <c r="F36" s="9">
-        <v>4.8168113934427623</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="8">
-        <v>1.1461404800459674</v>
-      </c>
-      <c r="D37" s="9">
-        <v>3.1048595459376278</v>
-      </c>
-      <c r="E37" s="9">
-        <v>6.3525563200966548</v>
-      </c>
-      <c r="F37" s="9">
-        <v>7.6904933521848911</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="58" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="K56" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="7">
+        <v>38.828000000000003</v>
+      </c>
+      <c r="L57" s="7">
+        <v>57.244999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="7">
+        <v>13.827999999999999</v>
+      </c>
+      <c r="L58" s="7">
+        <v>17.645</v>
+      </c>
+    </row>
+    <row r="59" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K59" s="7">
+        <v>4.141</v>
+      </c>
+      <c r="L59" s="7">
+        <v>11.859</v>
+      </c>
+    </row>
+    <row r="60" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" s="7">
+        <v>3.516</v>
+      </c>
+      <c r="L60" s="7">
+        <v>9.9529999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId3"/>
@@ -2701,10 +3605,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="P167" sqref="A1:P167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,7 +3620,7 @@
     <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
@@ -2721,68 +3628,68 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>99</v>
+      <c r="O2" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>42425</v>
@@ -2802,22 +3709,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>42425</v>
@@ -2837,22 +3744,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>42425</v>
@@ -2872,22 +3779,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J6">
         <v>42425</v>
@@ -2907,22 +3814,22 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>42425</v>
@@ -2942,22 +3849,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
       </c>
       <c r="J8">
         <v>42425</v>
@@ -2977,22 +3884,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <v>42425</v>
@@ -3012,22 +3919,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
       </c>
       <c r="J10">
         <v>42425</v>
@@ -3047,22 +3954,22 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>42425</v>
@@ -3082,22 +3989,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J12">
         <v>42425</v>
@@ -3117,63 +4024,63 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>99</v>
+      <c r="O16" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>42425</v>
@@ -3193,25 +4100,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>42425</v>
@@ -3234,25 +4141,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>42425</v>
@@ -3275,25 +4182,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>42425</v>
@@ -3316,25 +4223,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>42425</v>
@@ -3357,25 +4264,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>42425</v>
@@ -3398,25 +4305,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>42425</v>
@@ -3439,25 +4346,25 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
         <v>52</v>
       </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>42425</v>
@@ -3480,25 +4387,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>42425</v>
@@ -3521,25 +4428,25 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>42425</v>
@@ -3562,63 +4469,63 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>99</v>
+      <c r="O30" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J31">
         <v>25198</v>
@@ -3638,22 +4545,22 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>25198</v>
@@ -3673,22 +4580,22 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J33">
         <v>25198</v>
@@ -3708,22 +4615,22 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J34">
         <v>25198</v>
@@ -3743,22 +4650,22 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J35">
         <v>25198</v>
@@ -3778,22 +4685,22 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>25198</v>
@@ -3813,22 +4720,22 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J37">
         <v>25198</v>
@@ -3848,22 +4755,22 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J38">
         <v>25198</v>
@@ -3883,22 +4790,22 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>25198</v>
@@ -3918,22 +4825,22 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J40">
         <v>25198</v>
@@ -3953,68 +4860,68 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" t="s">
-        <v>78</v>
-      </c>
-      <c r="J43" t="s">
-        <v>45</v>
-      </c>
-      <c r="K43" t="s">
-        <v>46</v>
-      </c>
-      <c r="L43" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43" t="s">
-        <v>48</v>
-      </c>
-      <c r="N43" t="s">
-        <v>49</v>
-      </c>
-      <c r="O43" t="s">
-        <v>99</v>
+      <c r="O43" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J44">
         <v>25198</v>
@@ -4031,28 +4938,25 @@
       <c r="N44">
         <v>21175</v>
       </c>
-      <c r="O44" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>25198</v>
@@ -4069,28 +4973,25 @@
       <c r="N45">
         <v>19125</v>
       </c>
-      <c r="O45" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J46">
         <v>25198</v>
@@ -4107,28 +5008,25 @@
       <c r="N46">
         <v>20693</v>
       </c>
-      <c r="O46" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J47">
         <v>25198</v>
@@ -4145,31 +5043,28 @@
       <c r="N47">
         <v>12892</v>
       </c>
-      <c r="O47" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H48" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J48">
         <v>25198</v>
@@ -4192,22 +5087,22 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>25198</v>
@@ -4224,31 +5119,28 @@
       <c r="N49">
         <v>25818</v>
       </c>
-      <c r="O49" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J50">
         <v>25198</v>
@@ -4271,22 +5163,22 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J51">
         <v>25198</v>
@@ -4303,28 +5195,25 @@
       <c r="N51">
         <v>18288</v>
       </c>
-      <c r="O51" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>25198</v>
@@ -4341,28 +5230,25 @@
       <c r="N52">
         <v>9005</v>
       </c>
-      <c r="O52" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J53">
         <v>25198</v>
@@ -4379,28 +5265,25 @@
       <c r="N53">
         <v>8523</v>
       </c>
-      <c r="O53" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>25198</v>
@@ -4417,31 +5300,28 @@
       <c r="N54">
         <v>15703</v>
       </c>
-      <c r="O54" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J55">
         <v>25198</v>
@@ -4464,22 +5344,22 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J56">
         <v>25198</v>
@@ -4496,28 +5376,25 @@
       <c r="N56">
         <v>10781</v>
       </c>
-      <c r="O56" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J57">
         <v>25198</v>
@@ -4534,28 +5411,25 @@
       <c r="N57">
         <v>21376</v>
       </c>
-      <c r="O57" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J58">
         <v>25198</v>
@@ -4572,31 +5446,28 @@
       <c r="N58">
         <v>11370</v>
       </c>
-      <c r="O58" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H59" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J59">
         <v>25198</v>
@@ -4619,22 +5490,22 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J60">
         <v>25198</v>
@@ -4651,28 +5522,25 @@
       <c r="N60">
         <v>10009</v>
       </c>
-      <c r="O60" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G61" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J61">
         <v>25198</v>
@@ -4689,28 +5557,25 @@
       <c r="N61">
         <v>10182</v>
       </c>
-      <c r="O61" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J62">
         <v>25198</v>
@@ -4727,28 +5592,25 @@
       <c r="N62">
         <v>8864</v>
       </c>
-      <c r="O62" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J63">
         <v>25198</v>
@@ -4765,16 +5627,3374 @@
       <c r="N63">
         <v>16220</v>
       </c>
-      <c r="O63" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67">
+        <v>20480</v>
+      </c>
+      <c r="K67">
+        <v>10159</v>
+      </c>
+      <c r="L67">
+        <v>10009</v>
+      </c>
+      <c r="M67">
+        <v>4686</v>
+      </c>
+      <c r="N67">
+        <v>16220</v>
+      </c>
+      <c r="O67">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J68">
+        <v>20480</v>
+      </c>
+      <c r="K68">
+        <v>10159</v>
+      </c>
+      <c r="L68">
+        <v>10009</v>
+      </c>
+      <c r="M68">
+        <v>4686</v>
+      </c>
+      <c r="N68">
+        <v>15191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69">
+        <v>20480</v>
+      </c>
+      <c r="K69">
+        <v>10159</v>
+      </c>
+      <c r="L69">
+        <v>10009</v>
+      </c>
+      <c r="M69">
+        <v>4686</v>
+      </c>
+      <c r="N69">
+        <v>17988</v>
+      </c>
+      <c r="O69">
+        <v>13831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" t="s">
+        <v>55</v>
+      </c>
+      <c r="J70">
+        <v>20480</v>
+      </c>
+      <c r="K70">
+        <v>10159</v>
+      </c>
+      <c r="L70">
+        <v>10009</v>
+      </c>
+      <c r="M70">
+        <v>4686</v>
+      </c>
+      <c r="N70">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71">
+        <v>20480</v>
+      </c>
+      <c r="K71">
+        <v>10159</v>
+      </c>
+      <c r="L71">
+        <v>10009</v>
+      </c>
+      <c r="M71">
+        <v>4686</v>
+      </c>
+      <c r="N71">
+        <v>21376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72">
+        <v>20480</v>
+      </c>
+      <c r="K72">
+        <v>10159</v>
+      </c>
+      <c r="L72">
+        <v>10009</v>
+      </c>
+      <c r="M72">
+        <v>4686</v>
+      </c>
+      <c r="N72">
+        <v>16220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" t="s">
+        <v>104</v>
+      </c>
+      <c r="J73">
+        <v>20480</v>
+      </c>
+      <c r="K73">
+        <v>10159</v>
+      </c>
+      <c r="L73">
+        <v>10009</v>
+      </c>
+      <c r="M73">
+        <v>4686</v>
+      </c>
+      <c r="N73">
+        <v>12892</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74">
+        <v>20480</v>
+      </c>
+      <c r="K74">
+        <v>10159</v>
+      </c>
+      <c r="L74">
+        <v>10009</v>
+      </c>
+      <c r="M74">
+        <v>4686</v>
+      </c>
+      <c r="N74">
+        <v>19125</v>
+      </c>
+      <c r="O74">
+        <v>46434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" t="s">
+        <v>52</v>
+      </c>
+      <c r="J75">
+        <v>20480</v>
+      </c>
+      <c r="K75">
+        <v>10159</v>
+      </c>
+      <c r="L75">
+        <v>10009</v>
+      </c>
+      <c r="M75">
+        <v>4686</v>
+      </c>
+      <c r="N75">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76">
+        <v>42425</v>
+      </c>
+      <c r="K76">
+        <v>23517</v>
+      </c>
+      <c r="L76">
+        <v>9463</v>
+      </c>
+      <c r="M76">
+        <v>9005</v>
+      </c>
+      <c r="N76">
+        <v>50011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" t="s">
+        <v>83</v>
+      </c>
+      <c r="J77">
+        <v>42425</v>
+      </c>
+      <c r="K77">
+        <v>23517</v>
+      </c>
+      <c r="L77">
+        <v>18288</v>
+      </c>
+      <c r="M77">
+        <v>4686</v>
+      </c>
+      <c r="N77">
+        <v>24048</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="J78">
+        <v>42425</v>
+      </c>
+      <c r="K78">
+        <v>23517</v>
+      </c>
+      <c r="L78">
+        <v>10637</v>
+      </c>
+      <c r="M78">
+        <v>10910</v>
+      </c>
+      <c r="N78">
+        <v>17057</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79">
+        <v>42425</v>
+      </c>
+      <c r="K79">
+        <v>23517</v>
+      </c>
+      <c r="L79">
+        <v>8864</v>
+      </c>
+      <c r="M79">
+        <v>15115</v>
+      </c>
+      <c r="N79">
+        <v>19883</v>
+      </c>
+      <c r="O79">
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" t="s">
+        <v>140</v>
+      </c>
+      <c r="J80">
+        <v>42425</v>
+      </c>
+      <c r="K80">
+        <v>23517</v>
+      </c>
+      <c r="L80">
+        <v>9455</v>
+      </c>
+      <c r="M80">
+        <v>8171</v>
+      </c>
+      <c r="N80">
+        <v>17083</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" t="s">
+        <v>141</v>
+      </c>
+      <c r="F81" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81">
+        <v>42425</v>
+      </c>
+      <c r="K81">
+        <v>23517</v>
+      </c>
+      <c r="L81">
+        <v>17019</v>
+      </c>
+      <c r="M81">
+        <v>28585</v>
+      </c>
+      <c r="N81">
+        <v>26989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G82" t="s">
+        <v>145</v>
+      </c>
+      <c r="J82">
+        <v>42425</v>
+      </c>
+      <c r="K82">
+        <v>23517</v>
+      </c>
+      <c r="L82">
+        <v>20480</v>
+      </c>
+      <c r="M82">
+        <v>25620</v>
+      </c>
+      <c r="N82">
+        <v>10465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" t="s">
+        <v>147</v>
+      </c>
+      <c r="G83" t="s">
+        <v>148</v>
+      </c>
+      <c r="J83">
+        <v>42425</v>
+      </c>
+      <c r="K83">
+        <v>23517</v>
+      </c>
+      <c r="L83">
+        <v>9970</v>
+      </c>
+      <c r="M83">
+        <v>11207</v>
+      </c>
+      <c r="N83">
+        <v>12087</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" t="s">
+        <v>149</v>
+      </c>
+      <c r="F84" t="s">
+        <v>150</v>
+      </c>
+      <c r="G84" t="s">
+        <v>151</v>
+      </c>
+      <c r="J84">
+        <v>42425</v>
+      </c>
+      <c r="K84">
+        <v>23517</v>
+      </c>
+      <c r="L84">
+        <v>12651</v>
+      </c>
+      <c r="M84">
+        <v>13414</v>
+      </c>
+      <c r="N84">
+        <v>13842</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G85" t="s">
+        <v>154</v>
+      </c>
+      <c r="J85">
+        <v>42425</v>
+      </c>
+      <c r="K85">
+        <v>23517</v>
+      </c>
+      <c r="L85">
+        <v>15334</v>
+      </c>
+      <c r="M85">
+        <v>8076</v>
+      </c>
+      <c r="N85">
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
+        <v>153</v>
+      </c>
+      <c r="F86" t="s">
+        <v>154</v>
+      </c>
+      <c r="G86" t="s">
+        <v>155</v>
+      </c>
+      <c r="J86">
+        <v>42425</v>
+      </c>
+      <c r="K86">
+        <v>23517</v>
+      </c>
+      <c r="L86">
+        <v>8076</v>
+      </c>
+      <c r="M86">
+        <v>8073</v>
+      </c>
+      <c r="N86">
+        <v>11939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s">
+        <v>44</v>
+      </c>
+      <c r="J90">
+        <v>20480</v>
+      </c>
+      <c r="K90">
+        <v>10159</v>
+      </c>
+      <c r="L90">
+        <v>10009</v>
+      </c>
+      <c r="M90">
+        <v>4686</v>
+      </c>
+      <c r="N90">
+        <v>16220</v>
+      </c>
+      <c r="O90">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" t="s">
+        <v>133</v>
+      </c>
+      <c r="J91">
+        <v>20480</v>
+      </c>
+      <c r="K91">
+        <v>10159</v>
+      </c>
+      <c r="L91">
+        <v>10009</v>
+      </c>
+      <c r="M91">
+        <v>4686</v>
+      </c>
+      <c r="N91">
+        <v>15191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" t="s">
+        <v>106</v>
+      </c>
+      <c r="J92">
+        <v>20480</v>
+      </c>
+      <c r="K92">
+        <v>10159</v>
+      </c>
+      <c r="L92">
+        <v>10009</v>
+      </c>
+      <c r="M92">
+        <v>4686</v>
+      </c>
+      <c r="N92">
+        <v>17988</v>
+      </c>
+      <c r="O92">
+        <v>13831</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" t="s">
+        <v>55</v>
+      </c>
+      <c r="J93">
+        <v>20480</v>
+      </c>
+      <c r="K93">
+        <v>10159</v>
+      </c>
+      <c r="L93">
+        <v>10009</v>
+      </c>
+      <c r="M93">
+        <v>4686</v>
+      </c>
+      <c r="N93">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94">
+        <v>20480</v>
+      </c>
+      <c r="K94">
+        <v>10159</v>
+      </c>
+      <c r="L94">
+        <v>10009</v>
+      </c>
+      <c r="M94">
+        <v>4686</v>
+      </c>
+      <c r="N94">
+        <v>21376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95">
+        <v>20480</v>
+      </c>
+      <c r="K95">
+        <v>10159</v>
+      </c>
+      <c r="L95">
+        <v>10009</v>
+      </c>
+      <c r="M95">
+        <v>4686</v>
+      </c>
+      <c r="N95">
+        <v>16220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" t="s">
+        <v>104</v>
+      </c>
+      <c r="J96">
+        <v>20480</v>
+      </c>
+      <c r="K96">
+        <v>10159</v>
+      </c>
+      <c r="L96">
+        <v>10009</v>
+      </c>
+      <c r="M96">
+        <v>4686</v>
+      </c>
+      <c r="N96">
+        <v>12892</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97">
+        <v>20480</v>
+      </c>
+      <c r="K97">
+        <v>10159</v>
+      </c>
+      <c r="L97">
+        <v>10009</v>
+      </c>
+      <c r="M97">
+        <v>4686</v>
+      </c>
+      <c r="N97">
+        <v>19125</v>
+      </c>
+      <c r="O97">
+        <v>46434</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98" t="s">
+        <v>52</v>
+      </c>
+      <c r="J98">
+        <v>20480</v>
+      </c>
+      <c r="K98">
+        <v>10159</v>
+      </c>
+      <c r="L98">
+        <v>10009</v>
+      </c>
+      <c r="M98">
+        <v>4686</v>
+      </c>
+      <c r="N98">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+      <c r="J99">
+        <v>42425</v>
+      </c>
+      <c r="K99">
+        <v>23517</v>
+      </c>
+      <c r="L99">
+        <v>9463</v>
+      </c>
+      <c r="M99">
+        <v>9005</v>
+      </c>
+      <c r="N99">
+        <v>50011</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" t="s">
+        <v>89</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+      <c r="J100">
+        <v>42425</v>
+      </c>
+      <c r="K100">
+        <v>23517</v>
+      </c>
+      <c r="L100">
+        <v>18288</v>
+      </c>
+      <c r="M100">
+        <v>4686</v>
+      </c>
+      <c r="N100">
+        <v>24048</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>105</v>
+      </c>
+      <c r="G101" t="s">
+        <v>134</v>
+      </c>
+      <c r="J101">
+        <v>42425</v>
+      </c>
+      <c r="K101">
+        <v>23517</v>
+      </c>
+      <c r="L101">
+        <v>10637</v>
+      </c>
+      <c r="M101">
+        <v>10910</v>
+      </c>
+      <c r="N101">
+        <v>17057</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" t="s">
+        <v>135</v>
+      </c>
+      <c r="G102" t="s">
+        <v>136</v>
+      </c>
+      <c r="H102" t="s">
+        <v>137</v>
+      </c>
+      <c r="J102">
+        <v>42425</v>
+      </c>
+      <c r="K102">
+        <v>23517</v>
+      </c>
+      <c r="L102">
+        <v>8864</v>
+      </c>
+      <c r="M102">
+        <v>15115</v>
+      </c>
+      <c r="N102">
+        <v>19883</v>
+      </c>
+      <c r="O102">
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" t="s">
+        <v>140</v>
+      </c>
+      <c r="J103">
+        <v>42425</v>
+      </c>
+      <c r="K103">
+        <v>23517</v>
+      </c>
+      <c r="L103">
+        <v>9455</v>
+      </c>
+      <c r="M103">
+        <v>8171</v>
+      </c>
+      <c r="N103">
+        <v>17083</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" t="s">
+        <v>142</v>
+      </c>
+      <c r="G104" t="s">
+        <v>143</v>
+      </c>
+      <c r="J104">
+        <v>42425</v>
+      </c>
+      <c r="K104">
+        <v>23517</v>
+      </c>
+      <c r="L104">
+        <v>17019</v>
+      </c>
+      <c r="M104">
+        <v>28585</v>
+      </c>
+      <c r="N104">
+        <v>26989</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105" t="s">
+        <v>85</v>
+      </c>
+      <c r="F105" t="s">
+        <v>144</v>
+      </c>
+      <c r="G105" t="s">
+        <v>145</v>
+      </c>
+      <c r="J105">
+        <v>42425</v>
+      </c>
+      <c r="K105">
+        <v>23517</v>
+      </c>
+      <c r="L105">
+        <v>20480</v>
+      </c>
+      <c r="M105">
+        <v>25620</v>
+      </c>
+      <c r="N105">
+        <v>10465</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>173</v>
+      </c>
+      <c r="C106" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106" t="s">
+        <v>147</v>
+      </c>
+      <c r="G106" t="s">
+        <v>148</v>
+      </c>
+      <c r="J106">
+        <v>42425</v>
+      </c>
+      <c r="K106">
+        <v>23517</v>
+      </c>
+      <c r="L106">
+        <v>9970</v>
+      </c>
+      <c r="M106">
+        <v>11207</v>
+      </c>
+      <c r="N106">
+        <v>12087</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>174</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" t="s">
+        <v>149</v>
+      </c>
+      <c r="F107" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" t="s">
+        <v>151</v>
+      </c>
+      <c r="J107">
+        <v>42425</v>
+      </c>
+      <c r="K107">
+        <v>23517</v>
+      </c>
+      <c r="L107">
+        <v>12651</v>
+      </c>
+      <c r="M107">
+        <v>13414</v>
+      </c>
+      <c r="N107">
+        <v>13842</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" t="s">
+        <v>152</v>
+      </c>
+      <c r="F108" t="s">
+        <v>153</v>
+      </c>
+      <c r="G108" t="s">
+        <v>154</v>
+      </c>
+      <c r="J108">
+        <v>42425</v>
+      </c>
+      <c r="K108">
+        <v>23517</v>
+      </c>
+      <c r="L108">
+        <v>15334</v>
+      </c>
+      <c r="M108">
+        <v>8076</v>
+      </c>
+      <c r="N108">
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" t="s">
+        <v>153</v>
+      </c>
+      <c r="F109" t="s">
+        <v>154</v>
+      </c>
+      <c r="G109" t="s">
+        <v>155</v>
+      </c>
+      <c r="J109">
+        <v>42425</v>
+      </c>
+      <c r="K109">
+        <v>23517</v>
+      </c>
+      <c r="L109">
+        <v>8076</v>
+      </c>
+      <c r="M109">
+        <v>8073</v>
+      </c>
+      <c r="N109">
+        <v>11939</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s">
+        <v>84</v>
+      </c>
+      <c r="J110">
+        <v>25198</v>
+      </c>
+      <c r="K110">
+        <v>24048</v>
+      </c>
+      <c r="L110">
+        <v>10303</v>
+      </c>
+      <c r="M110">
+        <v>17074</v>
+      </c>
+      <c r="N110">
+        <v>21175</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" t="s">
+        <v>83</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" t="s">
+        <v>45</v>
+      </c>
+      <c r="J111">
+        <v>25198</v>
+      </c>
+      <c r="K111">
+        <v>24048</v>
+      </c>
+      <c r="L111">
+        <v>10303</v>
+      </c>
+      <c r="M111">
+        <v>20480</v>
+      </c>
+      <c r="N111">
+        <v>19125</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112">
+        <v>25198</v>
+      </c>
+      <c r="K112">
+        <v>24048</v>
+      </c>
+      <c r="L112">
+        <v>10303</v>
+      </c>
+      <c r="M112">
+        <v>20792</v>
+      </c>
+      <c r="N112">
+        <v>20693</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" t="s">
+        <v>23</v>
+      </c>
+      <c r="J113">
+        <v>25198</v>
+      </c>
+      <c r="K113">
+        <v>24048</v>
+      </c>
+      <c r="L113">
+        <v>10303</v>
+      </c>
+      <c r="M113">
+        <v>21290</v>
+      </c>
+      <c r="N113">
+        <v>21376</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>47</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114">
+        <v>25198</v>
+      </c>
+      <c r="K114">
+        <v>24048</v>
+      </c>
+      <c r="L114">
+        <v>10303</v>
+      </c>
+      <c r="M114">
+        <v>22242</v>
+      </c>
+      <c r="N114">
+        <v>17988</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>86</v>
+      </c>
+      <c r="G115" t="s">
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <v>25198</v>
+      </c>
+      <c r="K115">
+        <v>24048</v>
+      </c>
+      <c r="L115">
+        <v>10303</v>
+      </c>
+      <c r="M115">
+        <v>29091</v>
+      </c>
+      <c r="N115">
+        <v>25818</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116">
+        <v>25198</v>
+      </c>
+      <c r="K116">
+        <v>24048</v>
+      </c>
+      <c r="L116">
+        <v>10303</v>
+      </c>
+      <c r="M116">
+        <v>19414</v>
+      </c>
+      <c r="N116">
+        <v>17988</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
         <v>88</v>
+      </c>
+      <c r="G117" t="s">
+        <v>89</v>
+      </c>
+      <c r="J117">
+        <v>25198</v>
+      </c>
+      <c r="K117">
+        <v>24048</v>
+      </c>
+      <c r="L117">
+        <v>10303</v>
+      </c>
+      <c r="M117">
+        <v>21671</v>
+      </c>
+      <c r="N117">
+        <v>18288</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118" t="s">
+        <v>83</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s">
+        <v>52</v>
+      </c>
+      <c r="J118">
+        <v>25198</v>
+      </c>
+      <c r="K118">
+        <v>24048</v>
+      </c>
+      <c r="L118">
+        <v>10303</v>
+      </c>
+      <c r="M118">
+        <v>10159</v>
+      </c>
+      <c r="N118">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" t="s">
+        <v>81</v>
+      </c>
+      <c r="D119" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>55</v>
+      </c>
+      <c r="J119">
+        <v>25198</v>
+      </c>
+      <c r="K119">
+        <v>24048</v>
+      </c>
+      <c r="L119">
+        <v>10303</v>
+      </c>
+      <c r="M119">
+        <v>17988</v>
+      </c>
+      <c r="N119">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" t="s">
+        <v>177</v>
+      </c>
+      <c r="G120" t="s">
+        <v>178</v>
+      </c>
+      <c r="H120" t="s">
+        <v>151</v>
+      </c>
+      <c r="J120">
+        <v>25198</v>
+      </c>
+      <c r="K120">
+        <v>24048</v>
+      </c>
+      <c r="L120">
+        <v>10303</v>
+      </c>
+      <c r="M120">
+        <v>4698</v>
+      </c>
+      <c r="N120">
+        <v>4887</v>
+      </c>
+      <c r="O120">
+        <v>13842</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" t="s">
+        <v>177</v>
+      </c>
+      <c r="G121" t="s">
+        <v>178</v>
+      </c>
+      <c r="H121" t="s">
+        <v>179</v>
+      </c>
+      <c r="J121">
+        <v>25198</v>
+      </c>
+      <c r="K121">
+        <v>24048</v>
+      </c>
+      <c r="L121">
+        <v>10303</v>
+      </c>
+      <c r="M121">
+        <v>4698</v>
+      </c>
+      <c r="N121">
+        <v>4887</v>
+      </c>
+      <c r="O121">
+        <v>13637</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>211</v>
+      </c>
+      <c r="C122" t="s">
+        <v>81</v>
+      </c>
+      <c r="D122" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>180</v>
+      </c>
+      <c r="G122" t="s">
+        <v>181</v>
+      </c>
+      <c r="J122">
+        <v>25198</v>
+      </c>
+      <c r="K122">
+        <v>24048</v>
+      </c>
+      <c r="L122">
+        <v>10303</v>
+      </c>
+      <c r="M122">
+        <v>20452</v>
+      </c>
+      <c r="N122">
+        <v>10483</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>212</v>
+      </c>
+      <c r="C123" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>182</v>
+      </c>
+      <c r="G123" t="s">
+        <v>183</v>
+      </c>
+      <c r="J123">
+        <v>25198</v>
+      </c>
+      <c r="K123">
+        <v>24048</v>
+      </c>
+      <c r="L123">
+        <v>10303</v>
+      </c>
+      <c r="M123">
+        <v>20188</v>
+      </c>
+      <c r="N123">
+        <v>10564</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" t="s">
+        <v>81</v>
+      </c>
+      <c r="D124" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>184</v>
+      </c>
+      <c r="G124" t="s">
+        <v>185</v>
+      </c>
+      <c r="J124">
+        <v>25198</v>
+      </c>
+      <c r="K124">
+        <v>24048</v>
+      </c>
+      <c r="L124">
+        <v>10303</v>
+      </c>
+      <c r="M124">
+        <v>20117</v>
+      </c>
+      <c r="N124">
+        <v>10477</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" t="s">
+        <v>186</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>25198</v>
+      </c>
+      <c r="K125">
+        <v>24048</v>
+      </c>
+      <c r="L125">
+        <v>10303</v>
+      </c>
+      <c r="M125">
+        <v>20014</v>
+      </c>
+      <c r="N125">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" t="s">
+        <v>81</v>
+      </c>
+      <c r="D126" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>187</v>
+      </c>
+      <c r="G126" t="s">
+        <v>54</v>
+      </c>
+      <c r="J126">
+        <v>25198</v>
+      </c>
+      <c r="K126">
+        <v>24048</v>
+      </c>
+      <c r="L126">
+        <v>10303</v>
+      </c>
+      <c r="M126">
+        <v>20000</v>
+      </c>
+      <c r="N126">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" t="s">
+        <v>136</v>
+      </c>
+      <c r="G127" t="s">
+        <v>23</v>
+      </c>
+      <c r="J127">
+        <v>25198</v>
+      </c>
+      <c r="K127">
+        <v>24048</v>
+      </c>
+      <c r="L127">
+        <v>10303</v>
+      </c>
+      <c r="M127">
+        <v>19883</v>
+      </c>
+      <c r="N127">
+        <v>21376</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128" t="s">
+        <v>83</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>188</v>
+      </c>
+      <c r="G128" t="s">
+        <v>107</v>
+      </c>
+      <c r="J128">
+        <v>25198</v>
+      </c>
+      <c r="K128">
+        <v>24048</v>
+      </c>
+      <c r="L128">
+        <v>10303</v>
+      </c>
+      <c r="M128">
+        <v>19833</v>
+      </c>
+      <c r="N128">
+        <v>10491</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" t="s">
+        <v>83</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>189</v>
+      </c>
+      <c r="G129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129">
+        <v>25198</v>
+      </c>
+      <c r="K129">
+        <v>24048</v>
+      </c>
+      <c r="L129">
+        <v>10303</v>
+      </c>
+      <c r="M129">
+        <v>19819</v>
+      </c>
+      <c r="N129">
+        <v>20792</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" t="s">
+        <v>83</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" t="s">
+        <v>190</v>
+      </c>
+      <c r="G130" t="s">
+        <v>191</v>
+      </c>
+      <c r="J130">
+        <v>25198</v>
+      </c>
+      <c r="K130">
+        <v>24048</v>
+      </c>
+      <c r="L130">
+        <v>10303</v>
+      </c>
+      <c r="M130">
+        <v>19557</v>
+      </c>
+      <c r="N130">
+        <v>15980</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131" t="s">
+        <v>83</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>192</v>
+      </c>
+      <c r="G131" t="s">
+        <v>51</v>
+      </c>
+      <c r="J131">
+        <v>25198</v>
+      </c>
+      <c r="K131">
+        <v>24048</v>
+      </c>
+      <c r="L131">
+        <v>10303</v>
+      </c>
+      <c r="M131">
+        <v>18178</v>
+      </c>
+      <c r="N131">
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" t="s">
+        <v>140</v>
+      </c>
+      <c r="G132" t="s">
+        <v>193</v>
+      </c>
+      <c r="J132">
+        <v>25198</v>
+      </c>
+      <c r="K132">
+        <v>24048</v>
+      </c>
+      <c r="L132">
+        <v>10303</v>
+      </c>
+      <c r="M132">
+        <v>17083</v>
+      </c>
+      <c r="N132">
+        <v>16679</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>222</v>
+      </c>
+      <c r="C133" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" t="s">
+        <v>83</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" t="s">
+        <v>194</v>
+      </c>
+      <c r="J133">
+        <v>25198</v>
+      </c>
+      <c r="K133">
+        <v>24048</v>
+      </c>
+      <c r="L133">
+        <v>10303</v>
+      </c>
+      <c r="M133">
+        <v>16220</v>
+      </c>
+      <c r="N133">
+        <v>16583</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134" t="s">
+        <v>81</v>
+      </c>
+      <c r="D134" t="s">
+        <v>83</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" t="s">
+        <v>106</v>
+      </c>
+      <c r="J134">
+        <v>25198</v>
+      </c>
+      <c r="K134">
+        <v>24048</v>
+      </c>
+      <c r="L134">
+        <v>10303</v>
+      </c>
+      <c r="M134">
+        <v>13831</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>224</v>
+      </c>
+      <c r="C135" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" t="s">
+        <v>83</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>44</v>
+      </c>
+      <c r="J135">
+        <v>25198</v>
+      </c>
+      <c r="K135">
+        <v>24048</v>
+      </c>
+      <c r="L135">
+        <v>10303</v>
+      </c>
+      <c r="M135">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>225</v>
+      </c>
+      <c r="C136" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>195</v>
+      </c>
+      <c r="J136">
+        <v>25198</v>
+      </c>
+      <c r="K136">
+        <v>24048</v>
+      </c>
+      <c r="L136">
+        <v>10303</v>
+      </c>
+      <c r="M136">
+        <v>16345</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>226</v>
+      </c>
+      <c r="C137" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" t="s">
+        <v>83</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>196</v>
+      </c>
+      <c r="J137">
+        <v>25198</v>
+      </c>
+      <c r="K137">
+        <v>24048</v>
+      </c>
+      <c r="L137">
+        <v>10303</v>
+      </c>
+      <c r="M137">
+        <v>11376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" t="s">
+        <v>83</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>197</v>
+      </c>
+      <c r="J138">
+        <v>25198</v>
+      </c>
+      <c r="K138">
+        <v>24048</v>
+      </c>
+      <c r="L138">
+        <v>10303</v>
+      </c>
+      <c r="M138">
+        <v>10709</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>198</v>
+      </c>
+      <c r="J139">
+        <v>25198</v>
+      </c>
+      <c r="K139">
+        <v>24048</v>
+      </c>
+      <c r="L139">
+        <v>10303</v>
+      </c>
+      <c r="M139">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C143" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" t="s">
+        <v>85</v>
+      </c>
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" t="s">
+        <v>82</v>
+      </c>
+      <c r="F144" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" t="s">
+        <v>154</v>
+      </c>
+      <c r="H144" t="s">
+        <v>44</v>
+      </c>
+      <c r="J144">
+        <v>20480</v>
+      </c>
+      <c r="K144">
+        <v>42425</v>
+      </c>
+      <c r="L144">
+        <v>23517</v>
+      </c>
+      <c r="M144">
+        <v>4686</v>
+      </c>
+      <c r="N144">
+        <v>8073</v>
+      </c>
+      <c r="O144">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>232</v>
+      </c>
+      <c r="C145" t="s">
+        <v>85</v>
+      </c>
+      <c r="D145" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>82</v>
+      </c>
+      <c r="F145" t="s">
+        <v>177</v>
+      </c>
+      <c r="G145" t="s">
+        <v>51</v>
+      </c>
+      <c r="J145">
+        <v>20480</v>
+      </c>
+      <c r="K145">
+        <v>42425</v>
+      </c>
+      <c r="L145">
+        <v>23517</v>
+      </c>
+      <c r="M145">
+        <v>4698</v>
+      </c>
+      <c r="N145">
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" t="s">
+        <v>82</v>
+      </c>
+      <c r="F146" t="s">
+        <v>52</v>
+      </c>
+      <c r="G146" t="s">
+        <v>26</v>
+      </c>
+      <c r="H146" t="s">
+        <v>106</v>
+      </c>
+      <c r="J146">
+        <v>20480</v>
+      </c>
+      <c r="K146">
+        <v>42425</v>
+      </c>
+      <c r="L146">
+        <v>23517</v>
+      </c>
+      <c r="M146">
+        <v>9005</v>
+      </c>
+      <c r="N146">
+        <v>17988</v>
+      </c>
+      <c r="O146">
+        <v>13831</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" t="s">
+        <v>85</v>
+      </c>
+      <c r="D147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" t="s">
+        <v>153</v>
+      </c>
+      <c r="G147" t="s">
+        <v>55</v>
+      </c>
+      <c r="J147">
+        <v>20480</v>
+      </c>
+      <c r="K147">
+        <v>42425</v>
+      </c>
+      <c r="L147">
+        <v>23517</v>
+      </c>
+      <c r="M147">
+        <v>8076</v>
+      </c>
+      <c r="N147">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" t="s">
+        <v>85</v>
+      </c>
+      <c r="D148" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" t="s">
+        <v>139</v>
+      </c>
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+      <c r="J148">
+        <v>20480</v>
+      </c>
+      <c r="K148">
+        <v>42425</v>
+      </c>
+      <c r="L148">
+        <v>23517</v>
+      </c>
+      <c r="M148">
+        <v>8171</v>
+      </c>
+      <c r="N148">
+        <v>10159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" t="s">
+        <v>85</v>
+      </c>
+      <c r="D149" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>104</v>
+      </c>
+      <c r="J149">
+        <v>20480</v>
+      </c>
+      <c r="K149">
+        <v>42425</v>
+      </c>
+      <c r="L149">
+        <v>23517</v>
+      </c>
+      <c r="M149">
+        <v>10009</v>
+      </c>
+      <c r="N149">
+        <v>12892</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>237</v>
+      </c>
+      <c r="C150" t="s">
+        <v>85</v>
+      </c>
+      <c r="D150" t="s">
+        <v>41</v>
+      </c>
+      <c r="E150" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150" t="s">
+        <v>109</v>
+      </c>
+      <c r="G150" t="s">
+        <v>110</v>
+      </c>
+      <c r="J150">
+        <v>20480</v>
+      </c>
+      <c r="K150">
+        <v>42425</v>
+      </c>
+      <c r="L150">
+        <v>23517</v>
+      </c>
+      <c r="M150">
+        <v>10781</v>
+      </c>
+      <c r="N150">
+        <v>10781</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" t="s">
+        <v>85</v>
+      </c>
+      <c r="D151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" t="s">
+        <v>82</v>
+      </c>
+      <c r="F151" t="s">
+        <v>54</v>
+      </c>
+      <c r="G151" t="s">
+        <v>24</v>
+      </c>
+      <c r="J151">
+        <v>20480</v>
+      </c>
+      <c r="K151">
+        <v>42425</v>
+      </c>
+      <c r="L151">
+        <v>23517</v>
+      </c>
+      <c r="M151">
+        <v>8920</v>
+      </c>
+      <c r="N151">
+        <v>16220</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" t="s">
+        <v>85</v>
+      </c>
+      <c r="D152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" t="s">
+        <v>82</v>
+      </c>
+      <c r="F152" t="s">
+        <v>115</v>
+      </c>
+      <c r="G152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J152">
+        <v>20480</v>
+      </c>
+      <c r="K152">
+        <v>42425</v>
+      </c>
+      <c r="L152">
+        <v>23517</v>
+      </c>
+      <c r="M152">
+        <v>9382</v>
+      </c>
+      <c r="N152">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>240</v>
+      </c>
+      <c r="C153" t="s">
+        <v>85</v>
+      </c>
+      <c r="D153" t="s">
+        <v>41</v>
+      </c>
+      <c r="E153" t="s">
+        <v>82</v>
+      </c>
+      <c r="F153" t="s">
+        <v>25</v>
+      </c>
+      <c r="G153" t="s">
+        <v>45</v>
+      </c>
+      <c r="J153">
+        <v>20480</v>
+      </c>
+      <c r="K153">
+        <v>42425</v>
+      </c>
+      <c r="L153">
+        <v>23517</v>
+      </c>
+      <c r="M153">
+        <v>16220</v>
+      </c>
+      <c r="N153">
+        <v>19125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>242</v>
+      </c>
+      <c r="C156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+      <c r="H156" t="s">
+        <v>69</v>
+      </c>
+      <c r="J156" t="s">
+        <v>36</v>
+      </c>
+      <c r="K156" t="s">
+        <v>37</v>
+      </c>
+      <c r="L156" t="s">
+        <v>38</v>
+      </c>
+      <c r="M156" t="s">
+        <v>39</v>
+      </c>
+      <c r="N156" t="s">
+        <v>40</v>
+      </c>
+      <c r="O156" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" t="s">
+        <v>85</v>
+      </c>
+      <c r="D157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" t="s">
+        <v>154</v>
+      </c>
+      <c r="G157" t="s">
+        <v>55</v>
+      </c>
+      <c r="H157" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157">
+        <v>20480</v>
+      </c>
+      <c r="K157">
+        <v>42425</v>
+      </c>
+      <c r="L157">
+        <v>4686</v>
+      </c>
+      <c r="M157">
+        <v>8073</v>
+      </c>
+      <c r="N157">
+        <v>8523</v>
+      </c>
+      <c r="O157">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>244</v>
+      </c>
+      <c r="C158" t="s">
+        <v>150</v>
+      </c>
+      <c r="D158" t="s">
+        <v>151</v>
+      </c>
+      <c r="E158" t="s">
+        <v>46</v>
+      </c>
+      <c r="F158" t="s">
+        <v>154</v>
+      </c>
+      <c r="G158" t="s">
+        <v>55</v>
+      </c>
+      <c r="H158" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158">
+        <v>13414</v>
+      </c>
+      <c r="K158">
+        <v>13842</v>
+      </c>
+      <c r="L158">
+        <v>4686</v>
+      </c>
+      <c r="M158">
+        <v>8073</v>
+      </c>
+      <c r="N158">
+        <v>8523</v>
+      </c>
+      <c r="O158">
+        <v>10303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>245</v>
+      </c>
+      <c r="C159" t="s">
+        <v>104</v>
+      </c>
+      <c r="D159" t="s">
+        <v>82</v>
+      </c>
+      <c r="E159" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" t="s">
+        <v>154</v>
+      </c>
+      <c r="G159" t="s">
+        <v>55</v>
+      </c>
+      <c r="J159">
+        <v>12892</v>
+      </c>
+      <c r="K159">
+        <v>23517</v>
+      </c>
+      <c r="L159">
+        <v>4686</v>
+      </c>
+      <c r="M159">
+        <v>8073</v>
+      </c>
+      <c r="N159">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>246</v>
+      </c>
+      <c r="C160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" t="s">
+        <v>105</v>
+      </c>
+      <c r="E160" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" t="s">
+        <v>154</v>
+      </c>
+      <c r="G160" t="s">
+        <v>55</v>
+      </c>
+      <c r="J160">
+        <v>22242</v>
+      </c>
+      <c r="K160">
+        <v>10910</v>
+      </c>
+      <c r="L160">
+        <v>4686</v>
+      </c>
+      <c r="M160">
+        <v>8073</v>
+      </c>
+      <c r="N160">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>247</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>84</v>
+      </c>
+      <c r="E161" t="s">
+        <v>46</v>
+      </c>
+      <c r="F161" t="s">
+        <v>154</v>
+      </c>
+      <c r="G161" t="s">
+        <v>55</v>
+      </c>
+      <c r="J161">
+        <v>17074</v>
+      </c>
+      <c r="K161">
+        <v>21175</v>
+      </c>
+      <c r="L161">
+        <v>4686</v>
+      </c>
+      <c r="M161">
+        <v>8073</v>
+      </c>
+      <c r="N161">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>248</v>
+      </c>
+      <c r="C162" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" t="s">
+        <v>50</v>
+      </c>
+      <c r="E162" t="s">
+        <v>46</v>
+      </c>
+      <c r="F162" t="s">
+        <v>154</v>
+      </c>
+      <c r="G162" t="s">
+        <v>55</v>
+      </c>
+      <c r="J162">
+        <v>46434</v>
+      </c>
+      <c r="K162">
+        <v>25818</v>
+      </c>
+      <c r="L162">
+        <v>4686</v>
+      </c>
+      <c r="M162">
+        <v>8073</v>
+      </c>
+      <c r="N162">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>249</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" t="s">
+        <v>45</v>
+      </c>
+      <c r="E163" t="s">
+        <v>46</v>
+      </c>
+      <c r="F163" t="s">
+        <v>154</v>
+      </c>
+      <c r="G163" t="s">
+        <v>55</v>
+      </c>
+      <c r="J163">
+        <v>16220</v>
+      </c>
+      <c r="K163">
+        <v>19125</v>
+      </c>
+      <c r="L163">
+        <v>4686</v>
+      </c>
+      <c r="M163">
+        <v>8073</v>
+      </c>
+      <c r="N163">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>250</v>
+      </c>
+      <c r="C164" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" t="s">
+        <v>42</v>
+      </c>
+      <c r="E164" t="s">
+        <v>46</v>
+      </c>
+      <c r="F164" t="s">
+        <v>154</v>
+      </c>
+      <c r="G164" t="s">
+        <v>55</v>
+      </c>
+      <c r="J164">
+        <v>46434</v>
+      </c>
+      <c r="K164">
+        <v>50011</v>
+      </c>
+      <c r="L164">
+        <v>4686</v>
+      </c>
+      <c r="M164">
+        <v>8073</v>
+      </c>
+      <c r="N164">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>251</v>
+      </c>
+      <c r="C165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D165" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" t="s">
+        <v>46</v>
+      </c>
+      <c r="F165" t="s">
+        <v>154</v>
+      </c>
+      <c r="G165" t="s">
+        <v>55</v>
+      </c>
+      <c r="J165">
+        <v>18288</v>
+      </c>
+      <c r="K165">
+        <v>17988</v>
+      </c>
+      <c r="L165">
+        <v>4686</v>
+      </c>
+      <c r="M165">
+        <v>8073</v>
+      </c>
+      <c r="N165">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>252</v>
+      </c>
+      <c r="C166" t="s">
+        <v>190</v>
+      </c>
+      <c r="D166" t="s">
+        <v>191</v>
+      </c>
+      <c r="E166" t="s">
+        <v>46</v>
+      </c>
+      <c r="F166" t="s">
+        <v>154</v>
+      </c>
+      <c r="G166" t="s">
+        <v>55</v>
+      </c>
+      <c r="J166">
+        <v>19557</v>
+      </c>
+      <c r="K166">
+        <v>15980</v>
+      </c>
+      <c r="L166">
+        <v>4686</v>
+      </c>
+      <c r="M166">
+        <v>8073</v>
+      </c>
+      <c r="N166">
+        <v>8523</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/yaol-p-xml/testresult/Experiment.xlsx
+++ b/trunk/yaol-p-xml/testresult/Experiment.xlsx
@@ -4,25 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dblp-vary query batch size" sheetId="7" r:id="rId1"/>
     <sheet name="dblp keyword set used" sheetId="10" r:id="rId2"/>
+    <sheet name="xmark query batch size" sheetId="12" r:id="rId3"/>
+    <sheet name="xmark keyword set used" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'dblp keyword set used'!$A$1:$P$167</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'dblp-vary query batch size'!$A$25:$G$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'xmark keyword set used'!$A$1:$P$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'xmark query batch size'!$A$25:$G$49</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="23" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="306">
   <si>
     <t>Algorithm</t>
   </si>
@@ -781,6 +786,165 @@
   </si>
   <si>
     <t>icc,hybrid,middleware,code,evolution</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>lord</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>romeo</t>
+  </si>
+  <si>
+    <t>berkeley</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>male,college,new,bell,she</t>
+  </si>
+  <si>
+    <t>male,college,new,fortune,shame</t>
+  </si>
+  <si>
+    <t>male,college,new,ear,love,fight</t>
+  </si>
+  <si>
+    <t>male,college,new,good,high</t>
+  </si>
+  <si>
+    <t>male,college,new,head,nurse</t>
+  </si>
+  <si>
+    <t>male,college,new,state,lord,set</t>
+  </si>
+  <si>
+    <t>male,college,new,time,romeo</t>
+  </si>
+  <si>
+    <t>male,college,new,berkeley,school</t>
+  </si>
+  <si>
+    <t>male,college,new,enter,little</t>
+  </si>
+  <si>
+    <t>male,college,new,more,mine</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>tears</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>weep</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>new,bell,temple,fortune,shame</t>
+  </si>
+  <si>
+    <t>new,bell,tears,ear,love,fight</t>
+  </si>
+  <si>
+    <t>new,bell,action,good,high</t>
+  </si>
+  <si>
+    <t>new,bell,wife,head,nurse</t>
+  </si>
+  <si>
+    <t>new,bell,dear,state,lord,set</t>
+  </si>
+  <si>
+    <t>new,bell,purpose,time,romeo</t>
+  </si>
+  <si>
+    <t>new,bell,weep,berkeley,school</t>
+  </si>
+  <si>
+    <t>new,bell,swear,enter,little</t>
+  </si>
+  <si>
+    <t>new,bell,strange,more,mine</t>
   </si>
 </sst>
 </file>
@@ -1229,11 +1393,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192984576"/>
-        <c:axId val="192986496"/>
+        <c:axId val="203773056"/>
+        <c:axId val="203780096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192984576"/>
+        <c:axId val="203773056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192986496"/>
+        <c:crossAx val="203780096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192986496"/>
+        <c:axId val="203780096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192984576"/>
+        <c:crossAx val="203773056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,11 +1644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="193002112"/>
-        <c:axId val="209205888"/>
+        <c:axId val="205366784"/>
+        <c:axId val="205368320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193002112"/>
+        <c:axId val="205366784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209205888"/>
+        <c:crossAx val="205368320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1501,7 +1665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209205888"/>
+        <c:axId val="205368320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193002112"/>
+        <c:crossAx val="205366784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,11 +1932,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="232756736"/>
-        <c:axId val="232758272"/>
+        <c:axId val="209204736"/>
+        <c:axId val="209206272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="232756736"/>
+        <c:axId val="209204736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232758272"/>
+        <c:crossAx val="209206272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1789,7 +1953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232758272"/>
+        <c:axId val="209206272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1964,959 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232756736"/>
+        <c:crossAx val="209204736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Experiment.xlsx]xmark query batch size!PivotTable1</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Processing Time (s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$N$2:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$M$4:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$N$4:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.429500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$O$2:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$M$4:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$O$4:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$P$2:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHORT-E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$M$4:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$P$4:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9064999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$Q$2:$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHARE-E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$M$4:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$Q$4:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="255553536"/>
+        <c:axId val="255555456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="255553536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>batch size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255555456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255555456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255553536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Processing Time (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BA</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Scenario 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Scenario 2</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>52.145000000000003</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>35.267000000000003</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>QA</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Scenario 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Scenario 2</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>21.984999999999999</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>18.751000000000001</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SHORT-E</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Scenario 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Scenario 2</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>14.625999999999999</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>23.86</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SHARE-E</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Scenario 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Scenario 2</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>10.72</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7.0940000000000003</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="255797888"/>
+        <c:axId val="255799680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="255797888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255799680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255799680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255797888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Processing Time (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$J$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$K$56:$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$K$57:$L$57</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$J$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$K$56:$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$K$58:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$J$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHORT-E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$K$56:$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$K$59:$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$J$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHARE-E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$K$56:$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$K$60:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="255875712"/>
+        <c:axId val="255881600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="255875712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255881600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255881600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255875712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,8 +3033,109 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>976312</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41037.510636805557" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41038.567425347224" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:K14" sheet="dblp-vary query batch size"/>
   </cacheSource>
@@ -1929,14 +3146,14 @@
         <s v="QA"/>
         <s v="SHORT-E"/>
         <s v="SHARE-E"/>
+        <s v="SE-II" u="1"/>
         <s v="SE" u="1"/>
-        <s v="SE-I" u="1"/>
         <s v="A1" u="1"/>
         <s v="A3" u="1"/>
+        <s v="Short" u="1"/>
+        <s v="SE-I" u="1"/>
         <s v="Share" u="1"/>
-        <s v="Short" u="1"/>
         <s v="A2" u="1"/>
-        <s v="SE-II" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Query Batch Size" numFmtId="0">
@@ -1944,8 +3161,8 @@
         <n v="10"/>
         <n v="20"/>
         <n v="50"/>
+        <n v="15" u="1"/>
         <n v="5" u="1"/>
-        <n v="15" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="1" numFmtId="0">
@@ -1965,6 +3182,60 @@
     </cacheField>
     <cacheField name="Average" numFmtId="43">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.074" maxValue="184.53"/>
+    </cacheField>
+    <cacheField name="memory" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Memory Usage(MB)" numFmtId="43">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41038.691815162034" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:K14" sheet="xmark query batch size"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Algorithm" numFmtId="0">
+      <sharedItems count="4">
+        <s v="BA"/>
+        <s v="QA"/>
+        <s v="SHORT-E"/>
+        <s v="SHARE-E"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Query Batch Size" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="50" count="3">
+        <n v="10"/>
+        <n v="20"/>
+        <n v="50"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20562"/>
+    </cacheField>
+    <cacheField name="2" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1563" maxValue="6297"/>
+    </cacheField>
+    <cacheField name="3" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="4" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="5" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Average" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13.429500000000001"/>
     </cacheField>
     <cacheField name="memory" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -2130,22 +3401,171 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20562"/>
+    <n v="6297"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="13.429500000000001"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4969"/>
+    <n v="2469"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3.7189999999999999"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4172"/>
+    <n v="3641"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3.9064999999999999"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3375"/>
+    <n v="1563"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2.4689999999999999"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="M14:R19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
       <items count="13">
-        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
-        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item m="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="11"/>
         <item m="1" x="9"/>
+        <item m="1" x="4"/>
         <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -2153,9 +3573,9 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
         <item m="1" x="3"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -2349,21 +3769,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="M2:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="9"/>
         <item m="1" x="4"/>
-        <item m="1" x="6"/>
+        <item m="1" x="8"/>
         <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -2371,9 +3791,9 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
+        <item m="1" x="4"/>
+        <item x="0"/>
         <item m="1" x="3"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -2428,7 +3848,7 @@
   <dataFields count="1">
     <dataField name="Sum of Average" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="16">
+  <chartFormats count="20">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -2605,6 +4025,226 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="M2:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2906,7 +4546,7 @@
   </sheetPr>
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
@@ -3610,8 +5250,8 @@
   </sheetPr>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="P167" sqref="A1:P167"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,4 +10637,1663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B1:R60"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="19" width="11.28515625" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20562</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6297</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7">
+        <f>AVERAGE(D3:H3)/1000</f>
+        <v>13.429500000000001</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7">
+        <f>J3/1024/1024</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4969</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2469</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I14" si="0">AVERAGE(D4:H4)/1000</f>
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K14" si="1">J4/1024/1024</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>13.429500000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3.9064999999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="R4" s="2">
+        <v>23.524000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4172</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3641</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9064999999999999</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="M5" s="3">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3375</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1563</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>50</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>13.429500000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3.9064999999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="R7" s="2">
+        <v>23.524000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="5">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="5">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="5">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="5">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O156"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3">
+        <v>19836</v>
+      </c>
+      <c r="K3">
+        <v>10064</v>
+      </c>
+      <c r="L3">
+        <v>6743</v>
+      </c>
+      <c r="M3">
+        <v>4564</v>
+      </c>
+      <c r="N3">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J4">
+        <v>19836</v>
+      </c>
+      <c r="K4">
+        <v>10064</v>
+      </c>
+      <c r="L4">
+        <v>6743</v>
+      </c>
+      <c r="M4">
+        <v>4273</v>
+      </c>
+      <c r="N4">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5">
+        <v>19836</v>
+      </c>
+      <c r="K5">
+        <v>10064</v>
+      </c>
+      <c r="L5">
+        <v>6743</v>
+      </c>
+      <c r="M5">
+        <v>4250</v>
+      </c>
+      <c r="N5">
+        <v>4184</v>
+      </c>
+      <c r="O5">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6">
+        <v>19836</v>
+      </c>
+      <c r="K6">
+        <v>10064</v>
+      </c>
+      <c r="L6">
+        <v>6743</v>
+      </c>
+      <c r="M6">
+        <v>4169</v>
+      </c>
+      <c r="N6">
+        <v>13042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7">
+        <v>19836</v>
+      </c>
+      <c r="K7">
+        <v>10064</v>
+      </c>
+      <c r="L7">
+        <v>6743</v>
+      </c>
+      <c r="M7">
+        <v>4173</v>
+      </c>
+      <c r="N7">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8">
+        <v>19836</v>
+      </c>
+      <c r="K8">
+        <v>10064</v>
+      </c>
+      <c r="L8">
+        <v>6743</v>
+      </c>
+      <c r="M8">
+        <v>4115</v>
+      </c>
+      <c r="N8">
+        <v>4047</v>
+      </c>
+      <c r="O8">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9">
+        <v>19836</v>
+      </c>
+      <c r="K9">
+        <v>10064</v>
+      </c>
+      <c r="L9">
+        <v>6743</v>
+      </c>
+      <c r="M9">
+        <v>4068</v>
+      </c>
+      <c r="N9">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J10">
+        <v>19836</v>
+      </c>
+      <c r="K10">
+        <v>10064</v>
+      </c>
+      <c r="L10">
+        <v>6743</v>
+      </c>
+      <c r="M10">
+        <v>3985</v>
+      </c>
+      <c r="N10">
+        <v>21131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11">
+        <v>19836</v>
+      </c>
+      <c r="K11">
+        <v>10064</v>
+      </c>
+      <c r="L11">
+        <v>6743</v>
+      </c>
+      <c r="M11">
+        <v>4118</v>
+      </c>
+      <c r="N11">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="J12">
+        <v>19836</v>
+      </c>
+      <c r="K12">
+        <v>10064</v>
+      </c>
+      <c r="L12">
+        <v>6743</v>
+      </c>
+      <c r="M12">
+        <v>3996</v>
+      </c>
+      <c r="N12">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J17">
+        <v>19836</v>
+      </c>
+      <c r="K17">
+        <v>10064</v>
+      </c>
+      <c r="L17">
+        <v>6743</v>
+      </c>
+      <c r="M17">
+        <v>4564</v>
+      </c>
+      <c r="N17">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" t="s">
+        <v>259</v>
+      </c>
+      <c r="J18">
+        <v>6743</v>
+      </c>
+      <c r="K18">
+        <v>4564</v>
+      </c>
+      <c r="L18">
+        <v>3940</v>
+      </c>
+      <c r="M18">
+        <v>4273</v>
+      </c>
+      <c r="N18">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19">
+        <v>6743</v>
+      </c>
+      <c r="K19">
+        <v>4564</v>
+      </c>
+      <c r="L19">
+        <v>3934</v>
+      </c>
+      <c r="M19">
+        <v>4250</v>
+      </c>
+      <c r="N19">
+        <v>4184</v>
+      </c>
+      <c r="O19">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" t="s">
+        <v>264</v>
+      </c>
+      <c r="J20">
+        <v>6743</v>
+      </c>
+      <c r="K20">
+        <v>4564</v>
+      </c>
+      <c r="L20">
+        <v>3891</v>
+      </c>
+      <c r="M20">
+        <v>4169</v>
+      </c>
+      <c r="N20">
+        <v>13042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21">
+        <v>6743</v>
+      </c>
+      <c r="K21">
+        <v>4564</v>
+      </c>
+      <c r="L21">
+        <v>3880</v>
+      </c>
+      <c r="M21">
+        <v>4173</v>
+      </c>
+      <c r="N21">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" t="s">
+        <v>269</v>
+      </c>
+      <c r="J22">
+        <v>6743</v>
+      </c>
+      <c r="K22">
+        <v>4564</v>
+      </c>
+      <c r="L22">
+        <v>3859</v>
+      </c>
+      <c r="M22">
+        <v>4115</v>
+      </c>
+      <c r="N22">
+        <v>4047</v>
+      </c>
+      <c r="O22">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" t="s">
+        <v>271</v>
+      </c>
+      <c r="J23">
+        <v>6743</v>
+      </c>
+      <c r="K23">
+        <v>4564</v>
+      </c>
+      <c r="L23">
+        <v>3845</v>
+      </c>
+      <c r="M23">
+        <v>4068</v>
+      </c>
+      <c r="N23">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24">
+        <v>6743</v>
+      </c>
+      <c r="K24">
+        <v>4564</v>
+      </c>
+      <c r="L24">
+        <v>3822</v>
+      </c>
+      <c r="M24">
+        <v>3985</v>
+      </c>
+      <c r="N24">
+        <v>21131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" t="s">
+        <v>275</v>
+      </c>
+      <c r="J25">
+        <v>6743</v>
+      </c>
+      <c r="K25">
+        <v>4564</v>
+      </c>
+      <c r="L25">
+        <v>3793</v>
+      </c>
+      <c r="M25">
+        <v>4118</v>
+      </c>
+      <c r="N25">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J26">
+        <v>6743</v>
+      </c>
+      <c r="K26">
+        <v>4564</v>
+      </c>
+      <c r="L26">
+        <v>3787</v>
+      </c>
+      <c r="M26">
+        <v>3996</v>
+      </c>
+      <c r="N26">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G68" s="10"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H78" s="10"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C143" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>242</v>
+      </c>
+      <c r="C156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+      <c r="H156" t="s">
+        <v>69</v>
+      </c>
+      <c r="J156" t="s">
+        <v>36</v>
+      </c>
+      <c r="K156" t="s">
+        <v>37</v>
+      </c>
+      <c r="L156" t="s">
+        <v>38</v>
+      </c>
+      <c r="M156" t="s">
+        <v>39</v>
+      </c>
+      <c r="N156" t="s">
+        <v>40</v>
+      </c>
+      <c r="O156" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/yaol-p-xml/testresult/Experiment.xlsx
+++ b/trunk/yaol-p-xml/testresult/Experiment.xlsx
@@ -20,14 +20,14 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="23" r:id="rId6"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="21" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="434">
   <si>
     <t>Algorithm</t>
   </si>
@@ -416,18 +416,6 @@
     <t>framework,database,vldb,reliability,statistical</t>
   </si>
   <si>
-    <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>SHORT-E</t>
-  </si>
-  <si>
-    <t>SHARE-E</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -945,6 +933,402 @@
   </si>
   <si>
     <t>new,bell,strange,more,mine</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
+    <t>fellow</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>new,college,high,sun,graduate</t>
+  </si>
+  <si>
+    <t>new,college,high,ask,sweet</t>
+  </si>
+  <si>
+    <t>new,college,high,shame,away</t>
+  </si>
+  <si>
+    <t>new,college,high,fortune,good</t>
+  </si>
+  <si>
+    <t>new,college,high,living,ear</t>
+  </si>
+  <si>
+    <t>new,college,high,enter,school</t>
+  </si>
+  <si>
+    <t>new,college,high,take,hear</t>
+  </si>
+  <si>
+    <t>new,college,high,never,forth</t>
+  </si>
+  <si>
+    <t>new,college,high,fellow,description</t>
+  </si>
+  <si>
+    <t>new,college,high,honest,fixed</t>
+  </si>
+  <si>
+    <t>male,college,new,living,tears</t>
+  </si>
+  <si>
+    <t>male,college,new,must,more</t>
+  </si>
+  <si>
+    <t>male,college,new,light,tears</t>
+  </si>
+  <si>
+    <t>male,college,new,answer,hour</t>
+  </si>
+  <si>
+    <t>male,college,new,nothing,dead</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,dutch,nurse</t>
+  </si>
+  <si>
+    <t>berkeley,school,romeo,queen,antony</t>
+  </si>
+  <si>
+    <t>berkeley,school,lord,purpose,company</t>
+  </si>
+  <si>
+    <t>berkeley,school,set,spirit,court</t>
+  </si>
+  <si>
+    <t>berkeley,school,fight,york,counsel</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>dutch</t>
+  </si>
+  <si>
+    <t>queen</t>
+  </si>
+  <si>
+    <t>antony</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>york</t>
+  </si>
+  <si>
+    <t>counsel</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>verity</t>
+  </si>
+  <si>
+    <t>suit</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>duke</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>troy</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>him</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>thee</t>
+  </si>
+  <si>
+    <t>labs</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>creditcard</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>doth</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>madam</t>
+  </si>
+  <si>
+    <t>alas</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>cousin</t>
+  </si>
+  <si>
+    <t>confess</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>male,college,new,good,can</t>
+  </si>
+  <si>
+    <t>male,college,new,set,forth</t>
+  </si>
+  <si>
+    <t>male,college,new,living,tears,ship</t>
+  </si>
+  <si>
+    <t>male,college,new,must,verity</t>
+  </si>
+  <si>
+    <t>male,college,new,light,suit</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,queen,antony</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,purpose,company</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,spirit,court</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,york,counsel</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,romeo,more</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,fight,set</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,college,strange</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,suit,brown</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,male,duke</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,bell,can</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,she,alone</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,mine,heart</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,late,</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,tears,something</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,living,lack</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,dead,troy</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,nothing,person</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,hour,mad</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,answer,doubt,net</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,light,brother</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,new,him</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,love,like</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,cash,thee</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,labs,order</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,oracle,creditcard</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,heaven,doth</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,our,madam</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,little,alas</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,have,wife</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,cousin,confess</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,voice,father</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,temple,verity</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,very,bid</t>
+  </si>
+  <si>
+    <t>berkeley,school,high,old,give</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>LBO</t>
+  </si>
+  <si>
+    <t>"Non-flat" query</t>
+  </si>
+  <si>
+    <t>"Flat" query</t>
+  </si>
+  <si>
+    <t>"large" keyword shared</t>
+  </si>
+  <si>
+    <t>"small" keyword shared</t>
   </si>
 </sst>
 </file>
@@ -1173,6 +1557,12 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1291,7 +1681,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHORT-E</c:v>
+                  <c:v>SE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1342,7 +1732,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHARE-E</c:v>
+                  <c:v>LBO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1393,11 +1783,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203773056"/>
-        <c:axId val="203780096"/>
+        <c:axId val="193698048"/>
+        <c:axId val="193712512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203773056"/>
+        <c:axId val="193698048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203780096"/>
+        <c:crossAx val="193712512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203780096"/>
+        <c:axId val="193712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203773056"/>
+        <c:crossAx val="193698048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1515,124 +1905,180 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BA</c:v>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Scenario 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Scenario 2</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$K$27:$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>"Non-flat" query</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>"Flat" query</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>52.145000000000003</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>35.267000000000003</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'dblp-vary query batch size'!$K$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>52.145000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.267000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>QA</c:v>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Scenario 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Scenario 2</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$K$27:$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>"Non-flat" query</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>"Flat" query</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>21.984999999999999</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>18.751000000000001</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'dblp-vary query batch size'!$K$29:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>21.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.751000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SHORT-E</c:v>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Scenario 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Scenario 2</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$K$27:$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>"Non-flat" query</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>"Flat" query</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>14.625999999999999</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>23.86</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'dblp-vary query batch size'!$K$30:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14.625999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>SHARE-E</c:v>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LBO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Scenario 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Scenario 2</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'dblp-vary query batch size'!$K$27:$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>"Non-flat" query</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>"Flat" query</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>10.72</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>7.0940000000000003</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'dblp-vary query batch size'!$K$31:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0940000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -1644,11 +2090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="205366784"/>
-        <c:axId val="205368320"/>
+        <c:axId val="195041920"/>
+        <c:axId val="195047808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205366784"/>
+        <c:axId val="195041920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +2103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205368320"/>
+        <c:crossAx val="195047808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1665,18 +2111,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205368320"/>
+        <c:axId val="195047808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205366784"/>
+        <c:crossAx val="195041920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,10 +2210,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>"small" keyword shared</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
+                  <c:v>"large" keyword shared</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1809,10 +2255,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>"small" keyword shared</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
+                  <c:v>"large" keyword shared</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1842,7 +2288,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHORT-E</c:v>
+                  <c:v>SE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1854,10 +2300,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>"small" keyword shared</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
+                  <c:v>"large" keyword shared</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1887,7 +2333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHARE-E</c:v>
+                  <c:v>LBO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1899,10 +2345,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>"small" keyword shared</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
+                  <c:v>"large" keyword shared</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1932,11 +2378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209204736"/>
-        <c:axId val="209206272"/>
+        <c:axId val="195086976"/>
+        <c:axId val="195088768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209204736"/>
+        <c:axId val="195086976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +2391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209206272"/>
+        <c:crossAx val="195088768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1953,7 +2399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209206272"/>
+        <c:axId val="195088768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +2410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209204736"/>
+        <c:crossAx val="195086976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,6 +2594,18 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2194,13 +2652,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.429500000000001</c:v>
+                  <c:v>11.641333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.795999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>66.415000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,13 +2703,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7189999999999999</c:v>
+                  <c:v>4.3916666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25.393000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2724,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHORT-E</c:v>
+                  <c:v>SE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2296,13 +2754,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.9064999999999999</c:v>
+                  <c:v>3.5790000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.001999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2317,7 +2775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHARE-E</c:v>
+                  <c:v>LBO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2347,13 +2805,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.4689999999999999</c:v>
+                  <c:v>2.1566666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.5469999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15.569000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,11 +2826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="255553536"/>
-        <c:axId val="255555456"/>
+        <c:axId val="194726912"/>
+        <c:axId val="194737280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255553536"/>
+        <c:axId val="194726912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255555456"/>
+        <c:crossAx val="194737280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2408,7 +2866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255555456"/>
+        <c:axId val="194737280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255553536"/>
+        <c:crossAx val="194726912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2491,124 +2949,180 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BA</c:v>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Scenario 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Scenario 2</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$K$27:$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>"Non-flat" query</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>"Flat" query</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>52.145000000000003</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>35.267000000000003</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$K$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.0649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2969999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>QA</c:v>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Scenario 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Scenario 2</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$K$27:$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>"Non-flat" query</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>"Flat" query</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>21.984999999999999</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>18.751000000000001</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$K$29:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.7370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4689999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SHORT-E</c:v>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Scenario 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Scenario 2</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$K$27:$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>"Non-flat" query</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>"Flat" query</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>14.625999999999999</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>23.86</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$K$30:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.9239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>SHARE-E</c:v>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LBO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Scenario 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Scenario 2</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'xmark query batch size'!$K$27:$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>"Non-flat" query</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>"Flat" query</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>10.72</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>7.0940000000000003</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'xmark query batch size'!$K$31:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5629999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -2620,11 +3134,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="255797888"/>
-        <c:axId val="255799680"/>
+        <c:axId val="194772992"/>
+        <c:axId val="194774528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255797888"/>
+        <c:axId val="194772992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,7 +3147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255799680"/>
+        <c:crossAx val="194774528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2641,18 +3155,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255799680"/>
+        <c:axId val="194774528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255797888"/>
+        <c:crossAx val="194772992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2740,10 +3254,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>"small" keyword shared</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
+                  <c:v>"large" keyword shared</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2754,6 +3268,12 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.562000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2779,10 +3299,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>"small" keyword shared</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
+                  <c:v>"large" keyword shared</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2793,6 +3313,12 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.9850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2806,7 +3332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHORT-E</c:v>
+                  <c:v>SE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2818,10 +3344,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>"small" keyword shared</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
+                  <c:v>"large" keyword shared</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2832,6 +3358,12 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1719999999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2845,7 +3377,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SHARE-E</c:v>
+                  <c:v>LBO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2857,10 +3389,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>"small" keyword shared</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
+                  <c:v>"large" keyword shared</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2871,6 +3403,12 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.9529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.375</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2884,11 +3422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="255875712"/>
-        <c:axId val="255881600"/>
+        <c:axId val="194807296"/>
+        <c:axId val="194808832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255875712"/>
+        <c:axId val="194807296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,7 +3435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255881600"/>
+        <c:crossAx val="194808832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2905,7 +3443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255881600"/>
+        <c:axId val="194808832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,7 +3454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255875712"/>
+        <c:crossAx val="194807296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3069,16 +3607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>852487</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>871537</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3135,24 +3673,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41038.567425347224" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41040.50849375" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:K14" sheet="dblp-vary query batch size"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Algorithm" numFmtId="0">
-      <sharedItems count="12">
+      <sharedItems count="13">
         <s v="BA"/>
         <s v="QA"/>
-        <s v="SHORT-E"/>
-        <s v="SHARE-E"/>
+        <s v="SE"/>
+        <s v="LBO"/>
         <s v="SE-II" u="1"/>
-        <s v="SE" u="1"/>
         <s v="A1" u="1"/>
         <s v="A3" u="1"/>
         <s v="Short" u="1"/>
+        <s v="SHORT-E" u="1"/>
         <s v="SE-I" u="1"/>
         <s v="Share" u="1"/>
+        <s v="SHARE-E" u="1"/>
         <s v="A2" u="1"/>
       </sharedItems>
     </cacheField>
@@ -3199,17 +3738,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41038.691815162034" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41040.556486574074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:K14" sheet="xmark query batch size"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Algorithm" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="6">
         <s v="BA"/>
         <s v="QA"/>
-        <s v="SHORT-E"/>
-        <s v="SHARE-E"/>
+        <s v="SE"/>
+        <s v="LBO"/>
+        <s v="SHARE-E" u="1"/>
+        <s v="SHORT-E" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Query Batch Size" numFmtId="0">
@@ -3220,13 +3761,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20562"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3375" maxValue="66415"/>
     </cacheField>
     <cacheField name="2" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1563" maxValue="6297"/>
     </cacheField>
     <cacheField name="3" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1532" maxValue="8065"/>
     </cacheField>
     <cacheField name="4" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -3235,7 +3776,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Average" numFmtId="43">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13.429500000000001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.1566666666666667" maxValue="66.415000000000006"/>
     </cacheField>
     <cacheField name="memory" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -3408,10 +3949,10 @@
     <x v="0"/>
     <n v="20562"/>
     <n v="6297"/>
+    <n v="8065"/>
     <m/>
     <m/>
-    <m/>
-    <n v="13.429500000000001"/>
+    <n v="11.641333333333334"/>
     <m/>
     <n v="0"/>
   </r>
@@ -3420,10 +3961,10 @@
     <x v="0"/>
     <n v="4969"/>
     <n v="2469"/>
+    <n v="5737"/>
     <m/>
     <m/>
-    <m/>
-    <n v="3.7189999999999999"/>
+    <n v="4.3916666666666666"/>
     <m/>
     <n v="0"/>
   </r>
@@ -3431,11 +3972,11 @@
     <x v="2"/>
     <x v="0"/>
     <n v="4172"/>
-    <n v="3641"/>
+    <n v="2641"/>
+    <n v="3924"/>
     <m/>
     <m/>
-    <m/>
-    <n v="3.9064999999999999"/>
+    <n v="3.5790000000000002"/>
     <m/>
     <m/>
   </r>
@@ -3444,106 +3985,106 @@
     <x v="0"/>
     <n v="3375"/>
     <n v="1563"/>
+    <n v="1532"/>
     <m/>
     <m/>
-    <m/>
-    <n v="2.4689999999999999"/>
+    <n v="2.1566666666666667"/>
     <m/>
     <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <n v="36796"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="36.795999999999999"/>
     <m/>
     <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <n v="10625"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="10.625"/>
     <m/>
     <n v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <n v="7860"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="7.86"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="0"/>
+    <n v="4547"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="4.5469999999999997"/>
     <m/>
     <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="66415"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="66.415000000000006"/>
     <m/>
     <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="25393"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="25.393000000000001"/>
     <m/>
     <n v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="19002"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="19.001999999999999"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="15569"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="15.569000000000001"/>
     <m/>
     <n v="0"/>
   </r>
@@ -3551,22 +4092,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="M14:R19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
-      <items count="13">
+      <items count="14">
+        <item x="2"/>
         <item m="1" x="5"/>
+        <item m="1" x="12"/>
         <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item m="1" x="9"/>
         <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
         <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
+        <item m="1" x="11"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -3612,16 +4154,16 @@
   </colFields>
   <colItems count="5">
     <i>
+      <x/>
+    </i>
+    <i>
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -3769,22 +4311,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="M2:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
-      <items count="13">
+      <items count="14">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item m="1" x="5"/>
+        <item m="1" x="12"/>
         <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
         <item m="1" x="9"/>
         <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
         <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
+        <item m="1" x="11"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -3836,10 +4379,10 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -3848,7 +4391,7 @@
   <dataFields count="1">
     <dataField name="Sum of Average" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="20">
+  <chartFormats count="21">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4077,19 +4620,33 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="M2:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -4140,10 +4697,10 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -4152,7 +4709,7 @@
   <dataFields count="1">
     <dataField name="Sum of Average" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="8">
+  <chartFormats count="10">
     <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -4245,6 +4802,30 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -4547,7 +5128,7 @@
   <dimension ref="B1:R60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="K56" sqref="K56:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4566,7 +5147,7 @@
     <col min="14" max="14" width="16.140625" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" customWidth="1"/>
     <col min="20" max="21" width="16.7109375" customWidth="1"/>
@@ -4653,10 +5234,10 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="R3" t="s">
         <v>3</v>
@@ -4710,7 +5291,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
@@ -4753,7 +5334,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -4869,7 +5450,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="C9" s="5">
         <v>20</v>
@@ -4892,7 +5473,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="C10" s="5">
         <v>20</v>
@@ -4966,7 +5547,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="C13" s="5">
         <v>50</v>
@@ -4987,7 +5568,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="C14" s="5">
         <v>50</v>
@@ -5020,16 +5601,16 @@
         <v>4</v>
       </c>
       <c r="N15" t="s">
+        <v>428</v>
+      </c>
+      <c r="O15" t="s">
         <v>28</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>29</v>
       </c>
-      <c r="P15" t="s">
-        <v>131</v>
-      </c>
       <c r="Q15" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="R15" t="s">
         <v>3</v>
@@ -5039,13 +5620,13 @@
       <c r="M16" s="3">
         <v>10</v>
       </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
@@ -5057,13 +5638,13 @@
       <c r="M17" s="3">
         <v>20</v>
       </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
       <c r="Q17" s="2">
         <v>0</v>
       </c>
@@ -5075,13 +5656,13 @@
       <c r="M18" s="3">
         <v>50</v>
       </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
@@ -5093,13 +5674,13 @@
       <c r="M19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
       <c r="Q19" s="2">
         <v>0</v>
       </c>
@@ -5117,7 +5698,7 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
@@ -5125,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>130</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
@@ -5155,7 +5736,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J30" s="5" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="K30" s="7">
         <v>14.625999999999999</v>
@@ -5166,7 +5747,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J31" s="5" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="K31" s="7">
         <v>10.72</v>
@@ -5178,7 +5759,7 @@
     <row r="45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="10:12" x14ac:dyDescent="0.25">
@@ -5186,10 +5767,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>130</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="10:12" x14ac:dyDescent="0.25">
@@ -5216,7 +5797,7 @@
     </row>
     <row r="59" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J59" s="5" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="K59" s="7">
         <v>4.141</v>
@@ -5227,7 +5808,7 @@
     </row>
     <row r="60" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J60" s="5" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="K60" s="7">
         <v>3.516</v>
@@ -5250,7 +5831,7 @@
   </sheetPr>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
@@ -7311,7 +7892,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
@@ -7352,7 +7933,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
         <v>85</v>
@@ -7367,7 +7948,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J68">
         <v>20480</v>
@@ -7387,7 +7968,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
         <v>85</v>
@@ -7428,7 +8009,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
@@ -7463,7 +8044,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
@@ -7498,7 +8079,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
@@ -7533,7 +8114,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
@@ -7568,7 +8149,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
@@ -7609,7 +8190,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
         <v>85</v>
@@ -7644,7 +8225,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
         <v>41</v>
@@ -7679,7 +8260,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
         <v>41</v>
@@ -7714,7 +8295,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
@@ -7729,7 +8310,7 @@
         <v>105</v>
       </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H78" s="10"/>
       <c r="J78">
@@ -7750,7 +8331,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
         <v>41</v>
@@ -7762,13 +8343,13 @@
         <v>117</v>
       </c>
       <c r="F79" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H79" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J79">
         <v>42425</v>
@@ -7791,7 +8372,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
@@ -7800,13 +8381,13 @@
         <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J80">
         <v>42425</v>
@@ -7826,7 +8407,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
         <v>41</v>
@@ -7835,13 +8416,13 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J81">
         <v>42425</v>
@@ -7861,7 +8442,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
         <v>41</v>
@@ -7873,10 +8454,10 @@
         <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G82" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J82">
         <v>42425</v>
@@ -7896,7 +8477,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
         <v>41</v>
@@ -7905,13 +8486,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F83" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G83" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J83">
         <v>42425</v>
@@ -7931,7 +8512,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
         <v>41</v>
@@ -7940,13 +8521,13 @@
         <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G84" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J84">
         <v>42425</v>
@@ -7966,7 +8547,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
@@ -7975,13 +8556,13 @@
         <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F85" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G85" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J85">
         <v>42425</v>
@@ -8001,7 +8582,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -8010,13 +8591,13 @@
         <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G86" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J86">
         <v>42425</v>
@@ -8036,7 +8617,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>31</v>
@@ -8077,7 +8658,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
         <v>85</v>
@@ -8118,7 +8699,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C91" t="s">
         <v>85</v>
@@ -8133,7 +8714,7 @@
         <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J91">
         <v>20480</v>
@@ -8153,7 +8734,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C92" t="s">
         <v>85</v>
@@ -8194,7 +8775,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C93" t="s">
         <v>85</v>
@@ -8229,7 +8810,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s">
         <v>85</v>
@@ -8264,7 +8845,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C95" t="s">
         <v>85</v>
@@ -8299,7 +8880,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C96" t="s">
         <v>85</v>
@@ -8334,7 +8915,7 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s">
         <v>85</v>
@@ -8375,7 +8956,7 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s">
         <v>85</v>
@@ -8410,7 +8991,7 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s">
         <v>41</v>
@@ -8445,7 +9026,7 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
         <v>41</v>
@@ -8480,7 +9061,7 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
         <v>41</v>
@@ -8495,7 +9076,7 @@
         <v>105</v>
       </c>
       <c r="G101" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J101">
         <v>42425</v>
@@ -8515,7 +9096,7 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
         <v>41</v>
@@ -8527,13 +9108,13 @@
         <v>117</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J102">
         <v>42425</v>
@@ -8556,7 +9137,7 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
         <v>41</v>
@@ -8565,13 +9146,13 @@
         <v>82</v>
       </c>
       <c r="E103" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J103">
         <v>42425</v>
@@ -8591,7 +9172,7 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s">
         <v>41</v>
@@ -8600,13 +9181,13 @@
         <v>82</v>
       </c>
       <c r="E104" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G104" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J104">
         <v>42425</v>
@@ -8626,7 +9207,7 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s">
         <v>41</v>
@@ -8638,10 +9219,10 @@
         <v>85</v>
       </c>
       <c r="F105" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J105">
         <v>42425</v>
@@ -8661,7 +9242,7 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
         <v>41</v>
@@ -8670,13 +9251,13 @@
         <v>82</v>
       </c>
       <c r="E106" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F106" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G106" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J106">
         <v>42425</v>
@@ -8696,7 +9277,7 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
@@ -8705,13 +9286,13 @@
         <v>82</v>
       </c>
       <c r="E107" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F107" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G107" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J107">
         <v>42425</v>
@@ -8731,7 +9312,7 @@
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s">
         <v>41</v>
@@ -8740,13 +9321,13 @@
         <v>82</v>
       </c>
       <c r="E108" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F108" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G108" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>42425</v>
@@ -8766,7 +9347,7 @@
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
         <v>41</v>
@@ -8775,13 +9356,13 @@
         <v>82</v>
       </c>
       <c r="E109" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F109" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G109" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J109">
         <v>42425</v>
@@ -8801,7 +9382,7 @@
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
         <v>81</v>
@@ -8836,7 +9417,7 @@
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C111" t="s">
         <v>81</v>
@@ -8871,7 +9452,7 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C112" t="s">
         <v>81</v>
@@ -8906,7 +9487,7 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C113" t="s">
         <v>81</v>
@@ -8941,7 +9522,7 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C114" t="s">
         <v>81</v>
@@ -8976,7 +9557,7 @@
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C115" t="s">
         <v>81</v>
@@ -9011,7 +9592,7 @@
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
         <v>81</v>
@@ -9046,7 +9627,7 @@
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C117" t="s">
         <v>81</v>
@@ -9081,7 +9662,7 @@
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
         <v>81</v>
@@ -9116,7 +9697,7 @@
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C119" t="s">
         <v>81</v>
@@ -9151,7 +9732,7 @@
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
         <v>81</v>
@@ -9163,13 +9744,13 @@
         <v>15</v>
       </c>
       <c r="F120" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G120" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J120">
         <v>25198</v>
@@ -9192,7 +9773,7 @@
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C121" t="s">
         <v>81</v>
@@ -9204,13 +9785,13 @@
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G121" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H121" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J121">
         <v>25198</v>
@@ -9233,7 +9814,7 @@
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C122" t="s">
         <v>81</v>
@@ -9245,10 +9826,10 @@
         <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G122" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J122">
         <v>25198</v>
@@ -9268,7 +9849,7 @@
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C123" t="s">
         <v>81</v>
@@ -9280,10 +9861,10 @@
         <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G123" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J123">
         <v>25198</v>
@@ -9303,7 +9884,7 @@
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
         <v>81</v>
@@ -9315,10 +9896,10 @@
         <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G124" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J124">
         <v>25198</v>
@@ -9338,7 +9919,7 @@
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C125" t="s">
         <v>81</v>
@@ -9350,7 +9931,7 @@
         <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G125" t="s">
         <v>17</v>
@@ -9373,7 +9954,7 @@
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
         <v>81</v>
@@ -9385,7 +9966,7 @@
         <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G126" t="s">
         <v>54</v>
@@ -9408,7 +9989,7 @@
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C127" t="s">
         <v>81</v>
@@ -9420,7 +10001,7 @@
         <v>15</v>
       </c>
       <c r="F127" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G127" t="s">
         <v>23</v>
@@ -9443,7 +10024,7 @@
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C128" t="s">
         <v>81</v>
@@ -9455,7 +10036,7 @@
         <v>15</v>
       </c>
       <c r="F128" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G128" t="s">
         <v>107</v>
@@ -9478,7 +10059,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
         <v>81</v>
@@ -9490,7 +10071,7 @@
         <v>15</v>
       </c>
       <c r="F129" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G129" t="s">
         <v>21</v>
@@ -9513,7 +10094,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C130" t="s">
         <v>81</v>
@@ -9525,10 +10106,10 @@
         <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G130" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J130">
         <v>25198</v>
@@ -9548,7 +10129,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C131" t="s">
         <v>81</v>
@@ -9560,7 +10141,7 @@
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G131" t="s">
         <v>51</v>
@@ -9583,7 +10164,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C132" t="s">
         <v>81</v>
@@ -9595,10 +10176,10 @@
         <v>15</v>
       </c>
       <c r="F132" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G132" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J132">
         <v>25198</v>
@@ -9618,7 +10199,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C133" t="s">
         <v>81</v>
@@ -9633,7 +10214,7 @@
         <v>25</v>
       </c>
       <c r="G133" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>25198</v>
@@ -9653,7 +10234,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
         <v>81</v>
@@ -9682,7 +10263,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C135" t="s">
         <v>81</v>
@@ -9711,7 +10292,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C136" t="s">
         <v>81</v>
@@ -9723,7 +10304,7 @@
         <v>15</v>
       </c>
       <c r="F136" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J136">
         <v>25198</v>
@@ -9740,7 +10321,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C137" t="s">
         <v>81</v>
@@ -9752,7 +10333,7 @@
         <v>15</v>
       </c>
       <c r="F137" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J137">
         <v>25198</v>
@@ -9769,7 +10350,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C138" t="s">
         <v>81</v>
@@ -9781,7 +10362,7 @@
         <v>15</v>
       </c>
       <c r="F138" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J138">
         <v>25198</v>
@@ -9798,7 +10379,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
         <v>81</v>
@@ -9810,7 +10391,7 @@
         <v>15</v>
       </c>
       <c r="F139" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J139">
         <v>25198</v>
@@ -9827,7 +10408,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -9870,7 +10451,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C144" t="s">
         <v>85</v>
@@ -9885,7 +10466,7 @@
         <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H144" t="s">
         <v>44</v>
@@ -9911,7 +10492,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C145" t="s">
         <v>85</v>
@@ -9923,7 +10504,7 @@
         <v>82</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G145" t="s">
         <v>51</v>
@@ -9946,7 +10527,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C146" t="s">
         <v>85</v>
@@ -9987,7 +10568,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C147" t="s">
         <v>85</v>
@@ -9999,7 +10580,7 @@
         <v>82</v>
       </c>
       <c r="F147" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G147" t="s">
         <v>55</v>
@@ -10022,7 +10603,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C148" t="s">
         <v>85</v>
@@ -10034,7 +10615,7 @@
         <v>82</v>
       </c>
       <c r="F148" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G148" t="s">
         <v>19</v>
@@ -10057,7 +10638,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C149" t="s">
         <v>85</v>
@@ -10092,7 +10673,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C150" t="s">
         <v>85</v>
@@ -10127,7 +10708,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C151" t="s">
         <v>85</v>
@@ -10162,7 +10743,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C152" t="s">
         <v>85</v>
@@ -10197,7 +10778,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C153" t="s">
         <v>85</v>
@@ -10232,7 +10813,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C156" t="s">
         <v>31</v>
@@ -10273,7 +10854,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C157" t="s">
         <v>85</v>
@@ -10285,7 +10866,7 @@
         <v>46</v>
       </c>
       <c r="F157" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G157" t="s">
         <v>55</v>
@@ -10314,19 +10895,19 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C158" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D158" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E158" t="s">
         <v>46</v>
       </c>
       <c r="F158" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G158" t="s">
         <v>55</v>
@@ -10355,7 +10936,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C159" t="s">
         <v>104</v>
@@ -10367,7 +10948,7 @@
         <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G159" t="s">
         <v>55</v>
@@ -10390,7 +10971,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C160" t="s">
         <v>47</v>
@@ -10402,7 +10983,7 @@
         <v>46</v>
       </c>
       <c r="F160" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G160" t="s">
         <v>55</v>
@@ -10425,7 +11006,7 @@
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -10437,7 +11018,7 @@
         <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G161" t="s">
         <v>55</v>
@@ -10460,7 +11041,7 @@
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C162" t="s">
         <v>49</v>
@@ -10472,7 +11053,7 @@
         <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G162" t="s">
         <v>55</v>
@@ -10495,7 +11076,7 @@
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C163" t="s">
         <v>25</v>
@@ -10507,7 +11088,7 @@
         <v>46</v>
       </c>
       <c r="F163" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G163" t="s">
         <v>55</v>
@@ -10530,7 +11111,7 @@
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C164" t="s">
         <v>49</v>
@@ -10542,7 +11123,7 @@
         <v>46</v>
       </c>
       <c r="F164" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G164" t="s">
         <v>55</v>
@@ -10565,7 +11146,7 @@
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C165" t="s">
         <v>89</v>
@@ -10577,7 +11158,7 @@
         <v>46</v>
       </c>
       <c r="F165" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G165" t="s">
         <v>55</v>
@@ -10600,19 +11181,19 @@
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D166" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E166" t="s">
         <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G166" t="s">
         <v>55</v>
@@ -10646,8 +11227,8 @@
   </sheetPr>
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10664,10 +11245,10 @@
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="19" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
     <col min="20" max="21" width="16.7109375" customWidth="1"/>
     <col min="22" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10728,12 +11309,14 @@
       <c r="E3" s="5">
         <v>6297</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>8065</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="7">
         <f>AVERAGE(D3:H3)/1000</f>
-        <v>13.429500000000001</v>
+        <v>11.641333333333334</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="7">
@@ -10750,10 +11333,10 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="R3" t="s">
         <v>3</v>
@@ -10772,12 +11355,14 @@
       <c r="E4" s="5">
         <v>2469</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>5737</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I14" si="0">AVERAGE(D4:H4)/1000</f>
-        <v>3.7189999999999999</v>
+        <v>4.3916666666666666</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="7">
@@ -10788,24 +11373,24 @@
         <v>10</v>
       </c>
       <c r="N4" s="2">
-        <v>13.429500000000001</v>
+        <v>11.641333333333334</v>
       </c>
       <c r="O4" s="2">
-        <v>3.7189999999999999</v>
+        <v>4.3916666666666666</v>
       </c>
       <c r="P4" s="2">
-        <v>3.9064999999999999</v>
+        <v>3.5790000000000002</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.4689999999999999</v>
+        <v>2.1566666666666667</v>
       </c>
       <c r="R4" s="2">
-        <v>23.524000000000004</v>
+        <v>21.768666666666668</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
@@ -10814,14 +11399,16 @@
         <v>4172</v>
       </c>
       <c r="E5" s="5">
-        <v>3641</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>2641</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3924</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>3.9064999999999999</v>
+        <v>3.5790000000000002</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="7"/>
@@ -10829,24 +11416,24 @@
         <v>20</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>36.795999999999999</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>10.625</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>4.5469999999999997</v>
       </c>
       <c r="R5" s="2">
-        <v>0</v>
+        <v>59.827999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -10857,12 +11444,14 @@
       <c r="E6" s="5">
         <v>1563</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>1532</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="7">
         <f t="shared" si="0"/>
-        <v>2.4689999999999999</v>
+        <v>2.1566666666666667</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="7">
@@ -10873,19 +11462,19 @@
         <v>50</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>66.415000000000006</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <v>25.393000000000001</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>19.001999999999999</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>15.569000000000001</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>126.379</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -10896,7 +11485,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>36796</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -10904,7 +11493,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.795999999999999</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="7">
@@ -10915,19 +11504,19 @@
         <v>3</v>
       </c>
       <c r="N7" s="2">
-        <v>13.429500000000001</v>
+        <v>114.85233333333335</v>
       </c>
       <c r="O7" s="2">
-        <v>3.7189999999999999</v>
+        <v>40.409666666666666</v>
       </c>
       <c r="P7" s="2">
-        <v>3.9064999999999999</v>
+        <v>30.440999999999999</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.4689999999999999</v>
+        <v>22.272666666666666</v>
       </c>
       <c r="R7" s="2">
-        <v>23.524000000000004</v>
+        <v>207.97566666666665</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -10938,7 +11527,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>10625</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -10946,7 +11535,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.625</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="7">
@@ -10956,13 +11545,13 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="C9" s="5">
         <v>20</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>7860</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -10970,20 +11559,20 @@
       <c r="H9" s="5"/>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="C10" s="5">
         <v>20</v>
       </c>
       <c r="D10" s="5">
-        <v>0</v>
+        <v>4547</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -10991,7 +11580,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5469999999999997</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="7">
@@ -11007,7 +11596,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>66415</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -11015,7 +11604,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.415000000000006</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="7">
@@ -11031,7 +11620,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="5">
-        <v>0</v>
+        <v>25393</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11039,7 +11628,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.393000000000001</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="7">
@@ -11049,13 +11638,13 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>428</v>
       </c>
       <c r="C13" s="5">
         <v>50</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>19002</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -11063,20 +11652,20 @@
       <c r="H13" s="5"/>
       <c r="I13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.001999999999999</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="C14" s="5">
         <v>50</v>
       </c>
       <c r="D14" s="5">
-        <v>0</v>
+        <v>15569</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -11084,7 +11673,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.569000000000001</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="7">
@@ -11102,7 +11691,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -11110,44 +11699,60 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>130</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="K28" s="7">
+        <v>8.0649999999999995</v>
+      </c>
+      <c r="L28" s="7">
+        <v>6.2969999999999997</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="7">
+        <v>5.7370000000000001</v>
+      </c>
+      <c r="L29" s="7">
+        <v>2.4689999999999999</v>
+      </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+        <v>428</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3.9239999999999999</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2.641</v>
+      </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+        <v>429</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1.532</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1.5629999999999999</v>
+      </c>
     </row>
     <row r="45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="10:12" x14ac:dyDescent="0.25">
@@ -11155,39 +11760,55 @@
         <v>0</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>130</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J57" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
+      <c r="K57" s="7">
+        <v>13.157</v>
+      </c>
+      <c r="L57" s="7">
+        <v>20.562000000000001</v>
+      </c>
     </row>
     <row r="58" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
+      <c r="K58" s="7">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="L58" s="7">
+        <v>4.9690000000000003</v>
+      </c>
     </row>
     <row r="59" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J59" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
+        <v>428</v>
+      </c>
+      <c r="K59" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="L59" s="7">
+        <v>4.1719999999999997</v>
+      </c>
     </row>
     <row r="60" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J60" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+        <v>429</v>
+      </c>
+      <c r="K60" s="7">
+        <v>2.9529999999999998</v>
+      </c>
+      <c r="L60" s="7">
+        <v>3.375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11203,8 +11824,8 @@
   </sheetPr>
   <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11267,22 +11888,22 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="J3">
         <v>19836</v>
@@ -11302,22 +11923,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="J4">
         <v>19836</v>
@@ -11337,25 +11958,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J5">
         <v>19836</v>
@@ -11378,22 +11999,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J6">
         <v>19836</v>
@@ -11413,22 +12034,22 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J7">
         <v>19836</v>
@@ -11448,25 +12069,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J8">
         <v>19836</v>
@@ -11489,22 +12110,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J9">
         <v>19836</v>
@@ -11524,22 +12145,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J10">
         <v>19836</v>
@@ -11559,22 +12180,22 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J11">
         <v>19836</v>
@@ -11594,22 +12215,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J12">
         <v>19836</v>
@@ -11670,22 +12291,22 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" t="s">
         <v>253</v>
-      </c>
-      <c r="D17" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" t="s">
-        <v>257</v>
       </c>
       <c r="J17">
         <v>19836</v>
@@ -11705,22 +12326,22 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" t="s">
         <v>255</v>
-      </c>
-      <c r="D18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F18" t="s">
-        <v>258</v>
-      </c>
-      <c r="G18" t="s">
-        <v>259</v>
       </c>
       <c r="J18">
         <v>6743</v>
@@ -11740,25 +12361,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" t="s">
         <v>256</v>
       </c>
-      <c r="E19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" t="s">
-        <v>260</v>
-      </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J19">
         <v>6743</v>
@@ -11781,22 +12402,22 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J20">
         <v>6743</v>
@@ -11816,22 +12437,22 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J21">
         <v>6743</v>
@@ -11851,25 +12472,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J22">
         <v>6743</v>
@@ -11892,22 +12513,22 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J23">
         <v>6743</v>
@@ -11927,22 +12548,22 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G24" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J24">
         <v>6743</v>
@@ -11962,22 +12583,22 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J25">
         <v>6743</v>
@@ -11997,22 +12618,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E26" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J26">
         <v>6743</v>
@@ -12071,6 +12692,356 @@
         <v>90</v>
       </c>
     </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31" t="s">
+        <v>303</v>
+      </c>
+      <c r="J31">
+        <v>6743</v>
+      </c>
+      <c r="K31">
+        <v>10064</v>
+      </c>
+      <c r="L31">
+        <v>13042</v>
+      </c>
+      <c r="M31">
+        <v>6633</v>
+      </c>
+      <c r="N31">
+        <v>9640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" t="s">
+        <v>250</v>
+      </c>
+      <c r="E32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32">
+        <v>6743</v>
+      </c>
+      <c r="K32">
+        <v>10064</v>
+      </c>
+      <c r="L32">
+        <v>13042</v>
+      </c>
+      <c r="M32">
+        <v>6031</v>
+      </c>
+      <c r="N32">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33">
+        <v>6743</v>
+      </c>
+      <c r="K33">
+        <v>10064</v>
+      </c>
+      <c r="L33">
+        <v>13042</v>
+      </c>
+      <c r="M33">
+        <v>4352</v>
+      </c>
+      <c r="N33">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34">
+        <v>6743</v>
+      </c>
+      <c r="K34">
+        <v>10064</v>
+      </c>
+      <c r="L34">
+        <v>13042</v>
+      </c>
+      <c r="M34">
+        <v>4273</v>
+      </c>
+      <c r="N34">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35">
+        <v>6743</v>
+      </c>
+      <c r="K35">
+        <v>10064</v>
+      </c>
+      <c r="L35">
+        <v>13042</v>
+      </c>
+      <c r="M35">
+        <v>4218</v>
+      </c>
+      <c r="N35">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36">
+        <v>6743</v>
+      </c>
+      <c r="K36">
+        <v>10064</v>
+      </c>
+      <c r="L36">
+        <v>13042</v>
+      </c>
+      <c r="M36">
+        <v>4118</v>
+      </c>
+      <c r="N36">
+        <v>21131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37">
+        <v>6743</v>
+      </c>
+      <c r="K37">
+        <v>10064</v>
+      </c>
+      <c r="L37">
+        <v>13042</v>
+      </c>
+      <c r="M37">
+        <v>4134</v>
+      </c>
+      <c r="N37">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38">
+        <v>6743</v>
+      </c>
+      <c r="K38">
+        <v>10064</v>
+      </c>
+      <c r="L38">
+        <v>13042</v>
+      </c>
+      <c r="M38">
+        <v>4079</v>
+      </c>
+      <c r="N38">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" t="s">
+        <v>313</v>
+      </c>
+      <c r="J39">
+        <v>6743</v>
+      </c>
+      <c r="K39">
+        <v>10064</v>
+      </c>
+      <c r="L39">
+        <v>13042</v>
+      </c>
+      <c r="M39">
+        <v>4093</v>
+      </c>
+      <c r="N39">
+        <v>66194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>325</v>
+      </c>
+      <c r="C40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40">
+        <v>6743</v>
+      </c>
+      <c r="K40">
+        <v>10064</v>
+      </c>
+      <c r="L40">
+        <v>13042</v>
+      </c>
+      <c r="M40">
+        <v>4070</v>
+      </c>
+      <c r="N40">
+        <v>66765</v>
+      </c>
+    </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
@@ -12117,6 +13088,718 @@
         <v>90</v>
       </c>
     </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44">
+        <v>19836</v>
+      </c>
+      <c r="K44">
+        <v>10064</v>
+      </c>
+      <c r="L44">
+        <v>6743</v>
+      </c>
+      <c r="M44">
+        <v>4564</v>
+      </c>
+      <c r="N44">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" t="s">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>19836</v>
+      </c>
+      <c r="K45">
+        <v>10064</v>
+      </c>
+      <c r="L45">
+        <v>6743</v>
+      </c>
+      <c r="M45">
+        <v>4273</v>
+      </c>
+      <c r="N45">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" t="s">
+        <v>257</v>
+      </c>
+      <c r="H46" t="s">
+        <v>258</v>
+      </c>
+      <c r="J46">
+        <v>19836</v>
+      </c>
+      <c r="K46">
+        <v>10064</v>
+      </c>
+      <c r="L46">
+        <v>6743</v>
+      </c>
+      <c r="M46">
+        <v>4250</v>
+      </c>
+      <c r="N46">
+        <v>4184</v>
+      </c>
+      <c r="O46">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
+        <v>260</v>
+      </c>
+      <c r="J47">
+        <v>19836</v>
+      </c>
+      <c r="K47">
+        <v>10064</v>
+      </c>
+      <c r="L47">
+        <v>6743</v>
+      </c>
+      <c r="M47">
+        <v>4169</v>
+      </c>
+      <c r="N47">
+        <v>13042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48">
+        <v>19836</v>
+      </c>
+      <c r="K48">
+        <v>10064</v>
+      </c>
+      <c r="L48">
+        <v>6743</v>
+      </c>
+      <c r="M48">
+        <v>4173</v>
+      </c>
+      <c r="N48">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" t="s">
+        <v>251</v>
+      </c>
+      <c r="F49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49">
+        <v>19836</v>
+      </c>
+      <c r="K49">
+        <v>10064</v>
+      </c>
+      <c r="L49">
+        <v>6743</v>
+      </c>
+      <c r="M49">
+        <v>4115</v>
+      </c>
+      <c r="N49">
+        <v>4047</v>
+      </c>
+      <c r="O49">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" t="s">
+        <v>267</v>
+      </c>
+      <c r="J50">
+        <v>19836</v>
+      </c>
+      <c r="K50">
+        <v>10064</v>
+      </c>
+      <c r="L50">
+        <v>6743</v>
+      </c>
+      <c r="M50">
+        <v>4068</v>
+      </c>
+      <c r="N50">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G51" t="s">
+        <v>269</v>
+      </c>
+      <c r="J51">
+        <v>19836</v>
+      </c>
+      <c r="K51">
+        <v>10064</v>
+      </c>
+      <c r="L51">
+        <v>6743</v>
+      </c>
+      <c r="M51">
+        <v>3985</v>
+      </c>
+      <c r="N51">
+        <v>21131</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" t="s">
+        <v>271</v>
+      </c>
+      <c r="J52">
+        <v>19836</v>
+      </c>
+      <c r="K52">
+        <v>10064</v>
+      </c>
+      <c r="L52">
+        <v>6743</v>
+      </c>
+      <c r="M52">
+        <v>4118</v>
+      </c>
+      <c r="N52">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" t="s">
+        <v>273</v>
+      </c>
+      <c r="J53">
+        <v>19836</v>
+      </c>
+      <c r="K53">
+        <v>10064</v>
+      </c>
+      <c r="L53">
+        <v>6743</v>
+      </c>
+      <c r="M53">
+        <v>3996</v>
+      </c>
+      <c r="N53">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="s">
+        <v>251</v>
+      </c>
+      <c r="F54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>285</v>
+      </c>
+      <c r="J54">
+        <v>19836</v>
+      </c>
+      <c r="K54">
+        <v>10064</v>
+      </c>
+      <c r="L54">
+        <v>6743</v>
+      </c>
+      <c r="M54">
+        <v>4218</v>
+      </c>
+      <c r="N54">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" t="s">
+        <v>336</v>
+      </c>
+      <c r="G55" t="s">
+        <v>272</v>
+      </c>
+      <c r="J55">
+        <v>19836</v>
+      </c>
+      <c r="K55">
+        <v>10064</v>
+      </c>
+      <c r="L55">
+        <v>6743</v>
+      </c>
+      <c r="M55">
+        <v>3989</v>
+      </c>
+      <c r="N55">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" t="s">
+        <v>285</v>
+      </c>
+      <c r="J56">
+        <v>19836</v>
+      </c>
+      <c r="K56">
+        <v>10064</v>
+      </c>
+      <c r="L56">
+        <v>6743</v>
+      </c>
+      <c r="M56">
+        <v>3940</v>
+      </c>
+      <c r="N56">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" t="s">
+        <v>338</v>
+      </c>
+      <c r="G57" t="s">
+        <v>339</v>
+      </c>
+      <c r="J57">
+        <v>19836</v>
+      </c>
+      <c r="K57">
+        <v>10064</v>
+      </c>
+      <c r="L57">
+        <v>6743</v>
+      </c>
+      <c r="M57">
+        <v>3929</v>
+      </c>
+      <c r="N57">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F58" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58">
+        <v>19836</v>
+      </c>
+      <c r="K58">
+        <v>10064</v>
+      </c>
+      <c r="L58">
+        <v>6743</v>
+      </c>
+      <c r="M58">
+        <v>4193</v>
+      </c>
+      <c r="N58">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" t="s">
+        <v>269</v>
+      </c>
+      <c r="E59" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" t="s">
+        <v>262</v>
+      </c>
+      <c r="J59">
+        <v>3985</v>
+      </c>
+      <c r="K59">
+        <v>21131</v>
+      </c>
+      <c r="L59">
+        <v>13042</v>
+      </c>
+      <c r="M59">
+        <v>5447</v>
+      </c>
+      <c r="N59">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" t="s">
+        <v>343</v>
+      </c>
+      <c r="G60" t="s">
+        <v>344</v>
+      </c>
+      <c r="J60">
+        <v>3985</v>
+      </c>
+      <c r="K60">
+        <v>21131</v>
+      </c>
+      <c r="L60">
+        <v>4019</v>
+      </c>
+      <c r="M60">
+        <v>3877</v>
+      </c>
+      <c r="N60">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" t="s">
+        <v>289</v>
+      </c>
+      <c r="G61" t="s">
+        <v>345</v>
+      </c>
+      <c r="J61">
+        <v>3985</v>
+      </c>
+      <c r="K61">
+        <v>21131</v>
+      </c>
+      <c r="L61">
+        <v>4047</v>
+      </c>
+      <c r="M61">
+        <v>3845</v>
+      </c>
+      <c r="N61">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" t="s">
+        <v>265</v>
+      </c>
+      <c r="F62" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62">
+        <v>3985</v>
+      </c>
+      <c r="K62">
+        <v>21131</v>
+      </c>
+      <c r="L62">
+        <v>3942</v>
+      </c>
+      <c r="M62">
+        <v>3785</v>
+      </c>
+      <c r="N62">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" t="s">
+        <v>348</v>
+      </c>
+      <c r="G63" t="s">
+        <v>349</v>
+      </c>
+      <c r="J63">
+        <v>3985</v>
+      </c>
+      <c r="K63">
+        <v>21131</v>
+      </c>
+      <c r="L63">
+        <v>3957</v>
+      </c>
+      <c r="M63">
+        <v>3747</v>
+      </c>
+      <c r="N63">
+        <v>3738</v>
+      </c>
+    </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
@@ -12169,7 +13852,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>31</v>
@@ -12208,9 +13891,1777 @@
         <v>90</v>
       </c>
     </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" t="s">
+        <v>250</v>
+      </c>
+      <c r="E90" t="s">
+        <v>251</v>
+      </c>
+      <c r="F90" t="s">
+        <v>252</v>
+      </c>
+      <c r="G90" t="s">
+        <v>253</v>
+      </c>
+      <c r="J90">
+        <v>19836</v>
+      </c>
+      <c r="K90">
+        <v>10064</v>
+      </c>
+      <c r="L90">
+        <v>6743</v>
+      </c>
+      <c r="M90">
+        <v>4564</v>
+      </c>
+      <c r="N90">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91" t="s">
+        <v>251</v>
+      </c>
+      <c r="F91" t="s">
+        <v>254</v>
+      </c>
+      <c r="G91" t="s">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>19836</v>
+      </c>
+      <c r="K91">
+        <v>10064</v>
+      </c>
+      <c r="L91">
+        <v>6743</v>
+      </c>
+      <c r="M91">
+        <v>4273</v>
+      </c>
+      <c r="N91">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" t="s">
+        <v>251</v>
+      </c>
+      <c r="F92" t="s">
+        <v>256</v>
+      </c>
+      <c r="G92" t="s">
+        <v>257</v>
+      </c>
+      <c r="H92" t="s">
+        <v>258</v>
+      </c>
+      <c r="J92">
+        <v>19836</v>
+      </c>
+      <c r="K92">
+        <v>10064</v>
+      </c>
+      <c r="L92">
+        <v>6743</v>
+      </c>
+      <c r="M92">
+        <v>4250</v>
+      </c>
+      <c r="N92">
+        <v>4184</v>
+      </c>
+      <c r="O92">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>389</v>
+      </c>
+      <c r="C93" t="s">
+        <v>249</v>
+      </c>
+      <c r="D93" t="s">
+        <v>250</v>
+      </c>
+      <c r="E93" t="s">
+        <v>251</v>
+      </c>
+      <c r="F93" t="s">
+        <v>259</v>
+      </c>
+      <c r="G93" t="s">
+        <v>350</v>
+      </c>
+      <c r="J93">
+        <v>19836</v>
+      </c>
+      <c r="K93">
+        <v>10064</v>
+      </c>
+      <c r="L93">
+        <v>6743</v>
+      </c>
+      <c r="M93">
+        <v>4169</v>
+      </c>
+      <c r="N93">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" t="s">
+        <v>251</v>
+      </c>
+      <c r="F94" t="s">
+        <v>261</v>
+      </c>
+      <c r="G94" t="s">
+        <v>262</v>
+      </c>
+      <c r="J94">
+        <v>19836</v>
+      </c>
+      <c r="K94">
+        <v>10064</v>
+      </c>
+      <c r="L94">
+        <v>6743</v>
+      </c>
+      <c r="M94">
+        <v>4173</v>
+      </c>
+      <c r="N94">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H95" t="s">
+        <v>265</v>
+      </c>
+      <c r="J95">
+        <v>19836</v>
+      </c>
+      <c r="K95">
+        <v>10064</v>
+      </c>
+      <c r="L95">
+        <v>6743</v>
+      </c>
+      <c r="M95">
+        <v>4115</v>
+      </c>
+      <c r="N95">
+        <v>4047</v>
+      </c>
+      <c r="O95">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" t="s">
+        <v>249</v>
+      </c>
+      <c r="D96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" t="s">
+        <v>266</v>
+      </c>
+      <c r="G96" t="s">
+        <v>267</v>
+      </c>
+      <c r="J96">
+        <v>19836</v>
+      </c>
+      <c r="K96">
+        <v>10064</v>
+      </c>
+      <c r="L96">
+        <v>6743</v>
+      </c>
+      <c r="M96">
+        <v>4068</v>
+      </c>
+      <c r="N96">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" t="s">
+        <v>250</v>
+      </c>
+      <c r="E97" t="s">
+        <v>251</v>
+      </c>
+      <c r="F97" t="s">
+        <v>265</v>
+      </c>
+      <c r="G97" t="s">
+        <v>311</v>
+      </c>
+      <c r="J97">
+        <v>19836</v>
+      </c>
+      <c r="K97">
+        <v>10064</v>
+      </c>
+      <c r="L97">
+        <v>6743</v>
+      </c>
+      <c r="M97">
+        <v>3942</v>
+      </c>
+      <c r="N97">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" t="s">
+        <v>251</v>
+      </c>
+      <c r="F98" t="s">
+        <v>270</v>
+      </c>
+      <c r="G98" t="s">
+        <v>271</v>
+      </c>
+      <c r="J98">
+        <v>19836</v>
+      </c>
+      <c r="K98">
+        <v>10064</v>
+      </c>
+      <c r="L98">
+        <v>6743</v>
+      </c>
+      <c r="M98">
+        <v>4118</v>
+      </c>
+      <c r="N98">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" t="s">
+        <v>251</v>
+      </c>
+      <c r="F99" t="s">
+        <v>272</v>
+      </c>
+      <c r="G99" t="s">
+        <v>273</v>
+      </c>
+      <c r="J99">
+        <v>19836</v>
+      </c>
+      <c r="K99">
+        <v>10064</v>
+      </c>
+      <c r="L99">
+        <v>6743</v>
+      </c>
+      <c r="M99">
+        <v>3996</v>
+      </c>
+      <c r="N99">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>391</v>
+      </c>
+      <c r="C100" t="s">
+        <v>249</v>
+      </c>
+      <c r="D100" t="s">
+        <v>250</v>
+      </c>
+      <c r="E100" t="s">
+        <v>251</v>
+      </c>
+      <c r="F100" t="s">
+        <v>307</v>
+      </c>
+      <c r="G100" t="s">
+        <v>285</v>
+      </c>
+      <c r="H100" t="s">
+        <v>351</v>
+      </c>
+      <c r="J100">
+        <v>19836</v>
+      </c>
+      <c r="K100">
+        <v>10064</v>
+      </c>
+      <c r="L100">
+        <v>6743</v>
+      </c>
+      <c r="M100">
+        <v>4218</v>
+      </c>
+      <c r="N100">
+        <v>3934</v>
+      </c>
+      <c r="O100">
+        <v>99175</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" t="s">
+        <v>249</v>
+      </c>
+      <c r="D101" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" t="s">
+        <v>251</v>
+      </c>
+      <c r="F101" t="s">
+        <v>336</v>
+      </c>
+      <c r="G101" t="s">
+        <v>352</v>
+      </c>
+      <c r="J101">
+        <v>19836</v>
+      </c>
+      <c r="K101">
+        <v>10064</v>
+      </c>
+      <c r="L101">
+        <v>6743</v>
+      </c>
+      <c r="M101">
+        <v>3989</v>
+      </c>
+      <c r="N101">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" t="s">
+        <v>250</v>
+      </c>
+      <c r="E102" t="s">
+        <v>251</v>
+      </c>
+      <c r="F102" t="s">
+        <v>337</v>
+      </c>
+      <c r="G102" t="s">
+        <v>353</v>
+      </c>
+      <c r="J102">
+        <v>19836</v>
+      </c>
+      <c r="K102">
+        <v>10064</v>
+      </c>
+      <c r="L102">
+        <v>6743</v>
+      </c>
+      <c r="M102">
+        <v>3940</v>
+      </c>
+      <c r="N102">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" t="s">
+        <v>249</v>
+      </c>
+      <c r="D103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F103" t="s">
+        <v>338</v>
+      </c>
+      <c r="G103" t="s">
+        <v>339</v>
+      </c>
+      <c r="J103">
+        <v>19836</v>
+      </c>
+      <c r="K103">
+        <v>10064</v>
+      </c>
+      <c r="L103">
+        <v>6743</v>
+      </c>
+      <c r="M103">
+        <v>3929</v>
+      </c>
+      <c r="N103">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>330</v>
+      </c>
+      <c r="C104" t="s">
+        <v>249</v>
+      </c>
+      <c r="D104" t="s">
+        <v>250</v>
+      </c>
+      <c r="E104" t="s">
+        <v>251</v>
+      </c>
+      <c r="F104" t="s">
+        <v>340</v>
+      </c>
+      <c r="G104" t="s">
+        <v>341</v>
+      </c>
+      <c r="J104">
+        <v>19836</v>
+      </c>
+      <c r="K104">
+        <v>10064</v>
+      </c>
+      <c r="L104">
+        <v>6743</v>
+      </c>
+      <c r="M104">
+        <v>4193</v>
+      </c>
+      <c r="N104">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" t="s">
+        <v>268</v>
+      </c>
+      <c r="D105" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" t="s">
+        <v>260</v>
+      </c>
+      <c r="F105" t="s">
+        <v>342</v>
+      </c>
+      <c r="G105" t="s">
+        <v>262</v>
+      </c>
+      <c r="J105">
+        <v>3985</v>
+      </c>
+      <c r="K105">
+        <v>21131</v>
+      </c>
+      <c r="L105">
+        <v>13042</v>
+      </c>
+      <c r="M105">
+        <v>5447</v>
+      </c>
+      <c r="N105">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>394</v>
+      </c>
+      <c r="C106" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" t="s">
+        <v>260</v>
+      </c>
+      <c r="F106" t="s">
+        <v>343</v>
+      </c>
+      <c r="G106" t="s">
+        <v>344</v>
+      </c>
+      <c r="J106">
+        <v>3985</v>
+      </c>
+      <c r="K106">
+        <v>21131</v>
+      </c>
+      <c r="L106">
+        <v>13042</v>
+      </c>
+      <c r="M106">
+        <v>3877</v>
+      </c>
+      <c r="N106">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>395</v>
+      </c>
+      <c r="C107" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" t="s">
+        <v>269</v>
+      </c>
+      <c r="E107" t="s">
+        <v>260</v>
+      </c>
+      <c r="F107" t="s">
+        <v>289</v>
+      </c>
+      <c r="G107" t="s">
+        <v>345</v>
+      </c>
+      <c r="J107">
+        <v>3985</v>
+      </c>
+      <c r="K107">
+        <v>21131</v>
+      </c>
+      <c r="L107">
+        <v>13042</v>
+      </c>
+      <c r="M107">
+        <v>3845</v>
+      </c>
+      <c r="N107">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>396</v>
+      </c>
+      <c r="C108" t="s">
+        <v>268</v>
+      </c>
+      <c r="D108" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" t="s">
+        <v>260</v>
+      </c>
+      <c r="F108" t="s">
+        <v>346</v>
+      </c>
+      <c r="G108" t="s">
+        <v>347</v>
+      </c>
+      <c r="J108">
+        <v>3985</v>
+      </c>
+      <c r="K108">
+        <v>21131</v>
+      </c>
+      <c r="L108">
+        <v>13042</v>
+      </c>
+      <c r="M108">
+        <v>3785</v>
+      </c>
+      <c r="N108">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>397</v>
+      </c>
+      <c r="C109" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" t="s">
+        <v>260</v>
+      </c>
+      <c r="F109" t="s">
+        <v>348</v>
+      </c>
+      <c r="G109" t="s">
+        <v>349</v>
+      </c>
+      <c r="J109">
+        <v>3985</v>
+      </c>
+      <c r="K109">
+        <v>21131</v>
+      </c>
+      <c r="L109">
+        <v>13042</v>
+      </c>
+      <c r="M109">
+        <v>3747</v>
+      </c>
+      <c r="N109">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>398</v>
+      </c>
+      <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" t="s">
+        <v>269</v>
+      </c>
+      <c r="E110" t="s">
+        <v>260</v>
+      </c>
+      <c r="F110" t="s">
+        <v>267</v>
+      </c>
+      <c r="G110" t="s">
+        <v>272</v>
+      </c>
+      <c r="J110">
+        <v>3985</v>
+      </c>
+      <c r="K110">
+        <v>21131</v>
+      </c>
+      <c r="L110">
+        <v>13042</v>
+      </c>
+      <c r="M110">
+        <v>4019</v>
+      </c>
+      <c r="N110">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" t="s">
+        <v>268</v>
+      </c>
+      <c r="D111" t="s">
+        <v>269</v>
+      </c>
+      <c r="E111" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" t="s">
+        <v>258</v>
+      </c>
+      <c r="G111" t="s">
+        <v>265</v>
+      </c>
+      <c r="J111">
+        <v>3985</v>
+      </c>
+      <c r="K111">
+        <v>21131</v>
+      </c>
+      <c r="L111">
+        <v>13042</v>
+      </c>
+      <c r="M111">
+        <v>3957</v>
+      </c>
+      <c r="N111">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>400</v>
+      </c>
+      <c r="C112" t="s">
+        <v>268</v>
+      </c>
+      <c r="D112" t="s">
+        <v>269</v>
+      </c>
+      <c r="E112" t="s">
+        <v>260</v>
+      </c>
+      <c r="F112" t="s">
+        <v>250</v>
+      </c>
+      <c r="G112" t="s">
+        <v>292</v>
+      </c>
+      <c r="J112">
+        <v>3985</v>
+      </c>
+      <c r="K112">
+        <v>21131</v>
+      </c>
+      <c r="L112">
+        <v>13042</v>
+      </c>
+      <c r="M112">
+        <v>10064</v>
+      </c>
+      <c r="N112">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" t="s">
+        <v>268</v>
+      </c>
+      <c r="D113" t="s">
+        <v>269</v>
+      </c>
+      <c r="E113" t="s">
+        <v>260</v>
+      </c>
+      <c r="F113" t="s">
+        <v>353</v>
+      </c>
+      <c r="G113" t="s">
+        <v>354</v>
+      </c>
+      <c r="J113">
+        <v>3985</v>
+      </c>
+      <c r="K113">
+        <v>21131</v>
+      </c>
+      <c r="L113">
+        <v>13042</v>
+      </c>
+      <c r="M113">
+        <v>3785</v>
+      </c>
+      <c r="N113">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114" t="s">
+        <v>269</v>
+      </c>
+      <c r="E114" t="s">
+        <v>260</v>
+      </c>
+      <c r="F114" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" t="s">
+        <v>355</v>
+      </c>
+      <c r="J114">
+        <v>3985</v>
+      </c>
+      <c r="K114">
+        <v>21131</v>
+      </c>
+      <c r="L114">
+        <v>13042</v>
+      </c>
+      <c r="M114">
+        <v>19836</v>
+      </c>
+      <c r="N114">
+        <v>6772</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>403</v>
+      </c>
+      <c r="C115" t="s">
+        <v>268</v>
+      </c>
+      <c r="D115" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115" t="s">
+        <v>252</v>
+      </c>
+      <c r="G115" t="s">
+        <v>350</v>
+      </c>
+      <c r="J115">
+        <v>3985</v>
+      </c>
+      <c r="K115">
+        <v>21131</v>
+      </c>
+      <c r="L115">
+        <v>13042</v>
+      </c>
+      <c r="M115">
+        <v>4564</v>
+      </c>
+      <c r="N115">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>404</v>
+      </c>
+      <c r="C116" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116" t="s">
+        <v>269</v>
+      </c>
+      <c r="E116" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" t="s">
+        <v>253</v>
+      </c>
+      <c r="G116" t="s">
+        <v>356</v>
+      </c>
+      <c r="J116">
+        <v>3985</v>
+      </c>
+      <c r="K116">
+        <v>21131</v>
+      </c>
+      <c r="L116">
+        <v>13042</v>
+      </c>
+      <c r="M116">
+        <v>4284</v>
+      </c>
+      <c r="N116">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>405</v>
+      </c>
+      <c r="C117" t="s">
+        <v>268</v>
+      </c>
+      <c r="D117" t="s">
+        <v>269</v>
+      </c>
+      <c r="E117" t="s">
+        <v>260</v>
+      </c>
+      <c r="F117" t="s">
+        <v>273</v>
+      </c>
+      <c r="G117" t="s">
+        <v>357</v>
+      </c>
+      <c r="J117">
+        <v>3985</v>
+      </c>
+      <c r="K117">
+        <v>21131</v>
+      </c>
+      <c r="L117">
+        <v>13042</v>
+      </c>
+      <c r="M117">
+        <v>4190</v>
+      </c>
+      <c r="N117">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>406</v>
+      </c>
+      <c r="C118" t="s">
+        <v>268</v>
+      </c>
+      <c r="D118" t="s">
+        <v>269</v>
+      </c>
+      <c r="E118" t="s">
+        <v>260</v>
+      </c>
+      <c r="F118" t="s">
+        <v>358</v>
+      </c>
+      <c r="J118">
+        <v>3985</v>
+      </c>
+      <c r="K118">
+        <v>21131</v>
+      </c>
+      <c r="L118">
+        <v>13042</v>
+      </c>
+      <c r="M118">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>407</v>
+      </c>
+      <c r="C119" t="s">
+        <v>268</v>
+      </c>
+      <c r="D119" t="s">
+        <v>269</v>
+      </c>
+      <c r="E119" t="s">
+        <v>260</v>
+      </c>
+      <c r="F119" t="s">
+        <v>285</v>
+      </c>
+      <c r="G119" t="s">
+        <v>359</v>
+      </c>
+      <c r="J119">
+        <v>3985</v>
+      </c>
+      <c r="K119">
+        <v>21131</v>
+      </c>
+      <c r="L119">
+        <v>13042</v>
+      </c>
+      <c r="M119">
+        <v>3934</v>
+      </c>
+      <c r="N119">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C120" t="s">
+        <v>268</v>
+      </c>
+      <c r="D120" t="s">
+        <v>269</v>
+      </c>
+      <c r="E120" t="s">
+        <v>260</v>
+      </c>
+      <c r="F120" t="s">
+        <v>307</v>
+      </c>
+      <c r="G120" t="s">
+        <v>360</v>
+      </c>
+      <c r="J120">
+        <v>3985</v>
+      </c>
+      <c r="K120">
+        <v>21131</v>
+      </c>
+      <c r="L120">
+        <v>13042</v>
+      </c>
+      <c r="M120">
+        <v>4218</v>
+      </c>
+      <c r="N120">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>409</v>
+      </c>
+      <c r="C121" t="s">
+        <v>268</v>
+      </c>
+      <c r="D121" t="s">
+        <v>269</v>
+      </c>
+      <c r="E121" t="s">
+        <v>260</v>
+      </c>
+      <c r="F121" t="s">
+        <v>341</v>
+      </c>
+      <c r="G121" t="s">
+        <v>361</v>
+      </c>
+      <c r="J121">
+        <v>3985</v>
+      </c>
+      <c r="K121">
+        <v>21131</v>
+      </c>
+      <c r="L121">
+        <v>13042</v>
+      </c>
+      <c r="M121">
+        <v>3894</v>
+      </c>
+      <c r="N121">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>410</v>
+      </c>
+      <c r="C122" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" t="s">
+        <v>260</v>
+      </c>
+      <c r="F122" t="s">
+        <v>340</v>
+      </c>
+      <c r="G122" t="s">
+        <v>362</v>
+      </c>
+      <c r="J122">
+        <v>3985</v>
+      </c>
+      <c r="K122">
+        <v>21131</v>
+      </c>
+      <c r="L122">
+        <v>13042</v>
+      </c>
+      <c r="M122">
+        <v>4193</v>
+      </c>
+      <c r="N122">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>411</v>
+      </c>
+      <c r="C123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" t="s">
+        <v>269</v>
+      </c>
+      <c r="E123" t="s">
+        <v>260</v>
+      </c>
+      <c r="F123" t="s">
+        <v>339</v>
+      </c>
+      <c r="G123" t="s">
+        <v>363</v>
+      </c>
+      <c r="J123">
+        <v>3985</v>
+      </c>
+      <c r="K123">
+        <v>21131</v>
+      </c>
+      <c r="L123">
+        <v>13042</v>
+      </c>
+      <c r="M123">
+        <v>3918</v>
+      </c>
+      <c r="N123">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>412</v>
+      </c>
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" t="s">
+        <v>260</v>
+      </c>
+      <c r="F124" t="s">
+        <v>338</v>
+      </c>
+      <c r="G124" t="s">
+        <v>364</v>
+      </c>
+      <c r="H124" t="s">
+        <v>365</v>
+      </c>
+      <c r="J124">
+        <v>3985</v>
+      </c>
+      <c r="K124">
+        <v>21131</v>
+      </c>
+      <c r="L124">
+        <v>13042</v>
+      </c>
+      <c r="M124">
+        <v>3929</v>
+      </c>
+      <c r="N124">
+        <v>3738</v>
+      </c>
+      <c r="O124">
+        <v>16174</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>413</v>
+      </c>
+      <c r="C125" t="s">
+        <v>268</v>
+      </c>
+      <c r="D125" t="s">
+        <v>269</v>
+      </c>
+      <c r="E125" t="s">
+        <v>260</v>
+      </c>
+      <c r="F125" t="s">
+        <v>337</v>
+      </c>
+      <c r="G125" t="s">
+        <v>366</v>
+      </c>
+      <c r="J125">
+        <v>3985</v>
+      </c>
+      <c r="K125">
+        <v>21131</v>
+      </c>
+      <c r="L125">
+        <v>13042</v>
+      </c>
+      <c r="M125">
+        <v>3940</v>
+      </c>
+      <c r="N125">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>414</v>
+      </c>
+      <c r="C126" t="s">
+        <v>268</v>
+      </c>
+      <c r="D126" t="s">
+        <v>269</v>
+      </c>
+      <c r="E126" t="s">
+        <v>260</v>
+      </c>
+      <c r="F126" t="s">
+        <v>251</v>
+      </c>
+      <c r="G126" t="s">
+        <v>367</v>
+      </c>
+      <c r="J126">
+        <v>3985</v>
+      </c>
+      <c r="K126">
+        <v>21131</v>
+      </c>
+      <c r="L126">
+        <v>13042</v>
+      </c>
+      <c r="M126">
+        <v>6743</v>
+      </c>
+      <c r="N126">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" t="s">
+        <v>269</v>
+      </c>
+      <c r="E127" t="s">
+        <v>260</v>
+      </c>
+      <c r="F127" t="s">
+        <v>257</v>
+      </c>
+      <c r="G127" t="s">
+        <v>368</v>
+      </c>
+      <c r="J127">
+        <v>3985</v>
+      </c>
+      <c r="K127">
+        <v>21131</v>
+      </c>
+      <c r="L127">
+        <v>13042</v>
+      </c>
+      <c r="M127">
+        <v>4184</v>
+      </c>
+      <c r="N127">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>416</v>
+      </c>
+      <c r="C128" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" t="s">
+        <v>269</v>
+      </c>
+      <c r="E128" t="s">
+        <v>260</v>
+      </c>
+      <c r="F128" t="s">
+        <v>369</v>
+      </c>
+      <c r="G128" t="s">
+        <v>370</v>
+      </c>
+      <c r="J128">
+        <v>3985</v>
+      </c>
+      <c r="K128">
+        <v>21131</v>
+      </c>
+      <c r="L128">
+        <v>13042</v>
+      </c>
+      <c r="M128">
+        <v>65655</v>
+      </c>
+      <c r="N128">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>417</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>269</v>
+      </c>
+      <c r="E129" t="s">
+        <v>260</v>
+      </c>
+      <c r="F129" t="s">
+        <v>371</v>
+      </c>
+      <c r="G129" t="s">
+        <v>372</v>
+      </c>
+      <c r="J129">
+        <v>3985</v>
+      </c>
+      <c r="K129">
+        <v>21131</v>
+      </c>
+      <c r="L129">
+        <v>13042</v>
+      </c>
+      <c r="M129">
+        <v>5253</v>
+      </c>
+      <c r="N129">
+        <v>67240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>418</v>
+      </c>
+      <c r="C130" t="s">
+        <v>268</v>
+      </c>
+      <c r="D130" t="s">
+        <v>269</v>
+      </c>
+      <c r="E130" t="s">
+        <v>260</v>
+      </c>
+      <c r="F130" t="s">
+        <v>373</v>
+      </c>
+      <c r="G130" t="s">
+        <v>374</v>
+      </c>
+      <c r="J130">
+        <v>3985</v>
+      </c>
+      <c r="K130">
+        <v>21131</v>
+      </c>
+      <c r="L130">
+        <v>13042</v>
+      </c>
+      <c r="M130">
+        <v>4689</v>
+      </c>
+      <c r="N130">
+        <v>64558</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>419</v>
+      </c>
+      <c r="C131" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" t="s">
+        <v>269</v>
+      </c>
+      <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
+        <v>375</v>
+      </c>
+      <c r="G131" t="s">
+        <v>376</v>
+      </c>
+      <c r="J131">
+        <v>3985</v>
+      </c>
+      <c r="K131">
+        <v>21131</v>
+      </c>
+      <c r="L131">
+        <v>13042</v>
+      </c>
+      <c r="M131">
+        <v>4291</v>
+      </c>
+      <c r="N131">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>420</v>
+      </c>
+      <c r="C132" t="s">
+        <v>268</v>
+      </c>
+      <c r="D132" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
+        <v>377</v>
+      </c>
+      <c r="G132" t="s">
+        <v>378</v>
+      </c>
+      <c r="J132">
+        <v>3985</v>
+      </c>
+      <c r="K132">
+        <v>21131</v>
+      </c>
+      <c r="L132">
+        <v>13042</v>
+      </c>
+      <c r="M132">
+        <v>4030</v>
+      </c>
+      <c r="N132">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>421</v>
+      </c>
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133" t="s">
+        <v>269</v>
+      </c>
+      <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
+        <v>271</v>
+      </c>
+      <c r="G133" t="s">
+        <v>379</v>
+      </c>
+      <c r="J133">
+        <v>3985</v>
+      </c>
+      <c r="K133">
+        <v>21131</v>
+      </c>
+      <c r="L133">
+        <v>13042</v>
+      </c>
+      <c r="M133">
+        <v>4020</v>
+      </c>
+      <c r="N133">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>422</v>
+      </c>
+      <c r="C134" t="s">
+        <v>268</v>
+      </c>
+      <c r="D134" t="s">
+        <v>269</v>
+      </c>
+      <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
+        <v>380</v>
+      </c>
+      <c r="G134" t="s">
+        <v>287</v>
+      </c>
+      <c r="J134">
+        <v>3985</v>
+      </c>
+      <c r="K134">
+        <v>21131</v>
+      </c>
+      <c r="L134">
+        <v>13042</v>
+      </c>
+      <c r="M134">
+        <v>3984</v>
+      </c>
+      <c r="N134">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>423</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" t="s">
+        <v>269</v>
+      </c>
+      <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
+        <v>381</v>
+      </c>
+      <c r="G135" t="s">
+        <v>382</v>
+      </c>
+      <c r="J135">
+        <v>3985</v>
+      </c>
+      <c r="K135">
+        <v>21131</v>
+      </c>
+      <c r="L135">
+        <v>13042</v>
+      </c>
+      <c r="M135">
+        <v>3965</v>
+      </c>
+      <c r="N135">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136" t="s">
+        <v>269</v>
+      </c>
+      <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
+        <v>383</v>
+      </c>
+      <c r="G136" t="s">
+        <v>384</v>
+      </c>
+      <c r="J136">
+        <v>3985</v>
+      </c>
+      <c r="K136">
+        <v>21131</v>
+      </c>
+      <c r="L136">
+        <v>13042</v>
+      </c>
+      <c r="M136">
+        <v>3958</v>
+      </c>
+      <c r="N136">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>425</v>
+      </c>
+      <c r="C137" t="s">
+        <v>268</v>
+      </c>
+      <c r="D137" t="s">
+        <v>269</v>
+      </c>
+      <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
+        <v>284</v>
+      </c>
+      <c r="G137" t="s">
+        <v>352</v>
+      </c>
+      <c r="J137">
+        <v>3985</v>
+      </c>
+      <c r="K137">
+        <v>21131</v>
+      </c>
+      <c r="L137">
+        <v>13042</v>
+      </c>
+      <c r="M137">
+        <v>3940</v>
+      </c>
+      <c r="N137">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>426</v>
+      </c>
+      <c r="C138" t="s">
+        <v>268</v>
+      </c>
+      <c r="D138" t="s">
+        <v>269</v>
+      </c>
+      <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
+        <v>385</v>
+      </c>
+      <c r="G138" t="s">
+        <v>386</v>
+      </c>
+      <c r="J138">
+        <v>3985</v>
+      </c>
+      <c r="K138">
+        <v>21131</v>
+      </c>
+      <c r="L138">
+        <v>13042</v>
+      </c>
+      <c r="M138">
+        <v>3932</v>
+      </c>
+      <c r="N138">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>427</v>
+      </c>
+      <c r="C139" t="s">
+        <v>268</v>
+      </c>
+      <c r="D139" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" t="s">
+        <v>260</v>
+      </c>
+      <c r="F139" t="s">
+        <v>387</v>
+      </c>
+      <c r="G139" t="s">
+        <v>388</v>
+      </c>
+      <c r="J139">
+        <v>3985</v>
+      </c>
+      <c r="K139">
+        <v>21131</v>
+      </c>
+      <c r="L139">
+        <v>13042</v>
+      </c>
+      <c r="M139">
+        <v>3929</v>
+      </c>
+      <c r="N139">
+        <v>3760</v>
+      </c>
+    </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -12251,9 +15702,371 @@
         <v>90</v>
       </c>
     </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J144">
+        <v>19836</v>
+      </c>
+      <c r="K144">
+        <v>10064</v>
+      </c>
+      <c r="L144">
+        <v>6743</v>
+      </c>
+      <c r="M144">
+        <v>4564</v>
+      </c>
+      <c r="N144">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>19836</v>
+      </c>
+      <c r="K145">
+        <v>10064</v>
+      </c>
+      <c r="L145">
+        <v>6743</v>
+      </c>
+      <c r="M145">
+        <v>4273</v>
+      </c>
+      <c r="N145">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>276</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J146">
+        <v>19836</v>
+      </c>
+      <c r="K146">
+        <v>10064</v>
+      </c>
+      <c r="L146">
+        <v>6743</v>
+      </c>
+      <c r="M146">
+        <v>4250</v>
+      </c>
+      <c r="N146">
+        <v>4184</v>
+      </c>
+      <c r="O146">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="J147">
+        <v>19836</v>
+      </c>
+      <c r="K147">
+        <v>10064</v>
+      </c>
+      <c r="L147">
+        <v>6743</v>
+      </c>
+      <c r="M147">
+        <v>4169</v>
+      </c>
+      <c r="N147">
+        <v>13042</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>278</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J148">
+        <v>19836</v>
+      </c>
+      <c r="K148">
+        <v>10064</v>
+      </c>
+      <c r="L148">
+        <v>6743</v>
+      </c>
+      <c r="M148">
+        <v>4173</v>
+      </c>
+      <c r="N148">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>279</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="J149">
+        <v>19836</v>
+      </c>
+      <c r="K149">
+        <v>10064</v>
+      </c>
+      <c r="L149">
+        <v>6743</v>
+      </c>
+      <c r="M149">
+        <v>4115</v>
+      </c>
+      <c r="N149">
+        <v>4047</v>
+      </c>
+      <c r="O149">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>280</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J150">
+        <v>19836</v>
+      </c>
+      <c r="K150">
+        <v>10064</v>
+      </c>
+      <c r="L150">
+        <v>6743</v>
+      </c>
+      <c r="M150">
+        <v>4068</v>
+      </c>
+      <c r="N150">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="J151">
+        <v>19836</v>
+      </c>
+      <c r="K151">
+        <v>10064</v>
+      </c>
+      <c r="L151">
+        <v>6743</v>
+      </c>
+      <c r="M151">
+        <v>3985</v>
+      </c>
+      <c r="N151">
+        <v>21131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J152">
+        <v>19836</v>
+      </c>
+      <c r="K152">
+        <v>10064</v>
+      </c>
+      <c r="L152">
+        <v>6743</v>
+      </c>
+      <c r="M152">
+        <v>4118</v>
+      </c>
+      <c r="N152">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>283</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J153">
+        <v>19836</v>
+      </c>
+      <c r="K153">
+        <v>10064</v>
+      </c>
+      <c r="L153">
+        <v>6743</v>
+      </c>
+      <c r="M153">
+        <v>3996</v>
+      </c>
+      <c r="N153">
+        <v>4190</v>
+      </c>
+    </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C156" t="s">
         <v>31</v>

--- a/trunk/yaol-p-xml/testresult/Experiment.xlsx
+++ b/trunk/yaol-p-xml/testresult/Experiment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="dblp-vary query batch size" sheetId="7" r:id="rId1"/>
@@ -18,16 +18,16 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'xmark keyword set used'!$A$1:$P$167</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'xmark query batch size'!$A$25:$G$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
-    <pivotCache cacheId="21" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="440">
   <si>
     <t>Algorithm</t>
   </si>
@@ -1329,16 +1329,99 @@
   </si>
   <si>
     <t>"small" keyword shared</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,8 +1444,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,6 +1476,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1427,6 +1531,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1445,17 +1558,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-AU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="133"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="33"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="33"/>
   <c:pivotSource>
     <c:name>[Experiment.xlsx]dblp-vary query batch size!PivotTable1</c:name>
     <c:fmtId val="0"/>
@@ -1480,7 +1584,6 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1569,7 +1672,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1584,7 +1686,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$M$4:$M$7</c:f>
@@ -1635,7 +1736,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$M$4:$M$7</c:f>
@@ -1686,7 +1786,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$M$4:$M$7</c:f>
@@ -1737,7 +1836,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$M$4:$M$7</c:f>
@@ -1774,24 +1872,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="193698048"/>
-        <c:axId val="193712512"/>
+        <c:axId val="122867072"/>
+        <c:axId val="123082240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193698048"/>
+        <c:axId val="122867072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1810,31 +1898,24 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193712512"/>
+        <c:crossAx val="123082240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193712512"/>
+        <c:axId val="123082240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193698048"/>
+        <c:crossAx val="122867072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1842,15 +1923,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1858,17 +1937,8 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-AU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="133"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="33"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="33"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1894,13 +1964,11 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1915,7 +1983,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$K$27:$L$27</c:f>
@@ -1934,7 +2001,7 @@
             <c:numRef>
               <c:f>'dblp-vary query batch size'!$K$28:$L$28</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>52.145000000000003</c:v>
@@ -1960,7 +2027,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$K$27:$L$27</c:f>
@@ -1979,7 +2045,7 @@
             <c:numRef>
               <c:f>'dblp-vary query batch size'!$K$29:$L$29</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>21.984999999999999</c:v>
@@ -2005,7 +2071,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$K$27:$L$27</c:f>
@@ -2024,7 +2089,7 @@
             <c:numRef>
               <c:f>'dblp-vary query batch size'!$K$30:$L$30</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>14.625999999999999</c:v>
@@ -2050,7 +2115,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$K$27:$L$27</c:f>
@@ -2069,7 +2133,7 @@
             <c:numRef>
               <c:f>'dblp-vary query batch size'!$K$31:$L$31</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>10.72</c:v>
@@ -2081,48 +2145,32 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="195041920"/>
-        <c:axId val="195047808"/>
+        <c:axId val="123122816"/>
+        <c:axId val="123124352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195041920"/>
+        <c:axId val="123122816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195047808"/>
+        <c:crossAx val="123124352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195047808"/>
+        <c:axId val="123124352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195041920"/>
+        <c:crossAx val="123122816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2130,15 +2178,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2146,17 +2192,8 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-AU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="133"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="33"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="33"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2182,13 +2219,11 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2203,7 +2238,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$K$56:$L$56</c:f>
@@ -2222,7 +2256,7 @@
             <c:numRef>
               <c:f>'dblp-vary query batch size'!$K$57:$L$57</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>38.828000000000003</c:v>
@@ -2248,7 +2282,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$K$56:$L$56</c:f>
@@ -2267,7 +2300,7 @@
             <c:numRef>
               <c:f>'dblp-vary query batch size'!$K$58:$L$58</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>13.827999999999999</c:v>
@@ -2293,7 +2326,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$K$56:$L$56</c:f>
@@ -2312,7 +2344,7 @@
             <c:numRef>
               <c:f>'dblp-vary query batch size'!$K$59:$L$59</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4.141</c:v>
@@ -2338,7 +2370,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'dblp-vary query batch size'!$K$56:$L$56</c:f>
@@ -2357,7 +2388,7 @@
             <c:numRef>
               <c:f>'dblp-vary query batch size'!$K$60:$L$60</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>3.516</c:v>
@@ -2369,48 +2400,32 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="195086976"/>
-        <c:axId val="195088768"/>
+        <c:axId val="123189504"/>
+        <c:axId val="123203584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195086976"/>
+        <c:axId val="123189504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195088768"/>
+        <c:crossAx val="123203584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195088768"/>
+        <c:axId val="123203584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195086976"/>
+        <c:crossAx val="123189504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2418,15 +2433,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2434,17 +2447,8 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-AU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="133"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="33"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="33"/>
   <c:pivotSource>
     <c:name>[Experiment.xlsx]xmark query batch size!PivotTable1</c:name>
     <c:fmtId val="5"/>
@@ -2469,7 +2473,6 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -2612,7 +2615,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2627,7 +2629,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$M$4:$M$7</c:f>
@@ -2678,7 +2679,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$M$4:$M$7</c:f>
@@ -2729,7 +2729,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$M$4:$M$7</c:f>
@@ -2780,7 +2779,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$M$4:$M$7</c:f>
@@ -2817,24 +2815,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="194726912"/>
-        <c:axId val="194737280"/>
+        <c:axId val="123342848"/>
+        <c:axId val="123344768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194726912"/>
+        <c:axId val="123342848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2853,31 +2841,24 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194737280"/>
+        <c:crossAx val="123344768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194737280"/>
+        <c:axId val="123344768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194726912"/>
+        <c:crossAx val="123342848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2885,15 +2866,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:extLst/>
@@ -2902,17 +2881,8 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-AU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="133"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="33"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="33"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2938,13 +2908,11 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2959,7 +2927,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$K$27:$L$27</c:f>
@@ -2978,7 +2945,7 @@
             <c:numRef>
               <c:f>'xmark query batch size'!$K$28:$L$28</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8.0649999999999995</c:v>
@@ -3004,7 +2971,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$K$27:$L$27</c:f>
@@ -3023,7 +2989,7 @@
             <c:numRef>
               <c:f>'xmark query batch size'!$K$29:$L$29</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>5.7370000000000001</c:v>
@@ -3049,7 +3015,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$K$27:$L$27</c:f>
@@ -3068,7 +3033,7 @@
             <c:numRef>
               <c:f>'xmark query batch size'!$K$30:$L$30</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>3.9239999999999999</c:v>
@@ -3094,7 +3059,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$K$27:$L$27</c:f>
@@ -3113,7 +3077,7 @@
             <c:numRef>
               <c:f>'xmark query batch size'!$K$31:$L$31</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1.532</c:v>
@@ -3125,48 +3089,32 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="194772992"/>
-        <c:axId val="194774528"/>
+        <c:axId val="123364864"/>
+        <c:axId val="123366400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194772992"/>
+        <c:axId val="123364864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194774528"/>
+        <c:crossAx val="123366400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194774528"/>
+        <c:axId val="123366400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194772992"/>
+        <c:crossAx val="123364864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3174,15 +3122,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3190,17 +3136,8 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-AU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="133"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="33"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="33"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3226,13 +3163,11 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3247,7 +3182,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$K$56:$L$56</c:f>
@@ -3266,7 +3200,7 @@
             <c:numRef>
               <c:f>'xmark query batch size'!$K$57:$L$57</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>13.157</c:v>
@@ -3292,7 +3226,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$K$56:$L$56</c:f>
@@ -3311,7 +3244,7 @@
             <c:numRef>
               <c:f>'xmark query batch size'!$K$58:$L$58</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4.9850000000000003</c:v>
@@ -3337,7 +3270,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$K$56:$L$56</c:f>
@@ -3356,7 +3288,7 @@
             <c:numRef>
               <c:f>'xmark query batch size'!$K$59:$L$59</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>3.75</c:v>
@@ -3382,7 +3314,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'xmark query batch size'!$K$56:$L$56</c:f>
@@ -3401,7 +3332,7 @@
             <c:numRef>
               <c:f>'xmark query batch size'!$K$60:$L$60</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2.9529999999999998</c:v>
@@ -3413,48 +3344,32 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="194807296"/>
-        <c:axId val="194808832"/>
+        <c:axId val="123488896"/>
+        <c:axId val="123498880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194807296"/>
+        <c:axId val="123488896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194808832"/>
+        <c:crossAx val="123498880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194808832"/>
+        <c:axId val="123498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194807296"/>
+        <c:crossAx val="123488896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3462,15 +3377,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4092,7 +4005,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="M14:R19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -4311,7 +4224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="M2:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -4638,7 +4551,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="M2:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -4910,7 +4823,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4945,7 +4857,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5121,17 +5032,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56:L56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -5154,12 +5065,12 @@
     <col min="22" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="D1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5197,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18">
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
@@ -5243,7 +5154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18">
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
@@ -5289,7 +5200,7 @@
         <v>92.320333333333323</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18">
       <c r="B5" s="5" t="s">
         <v>428</v>
       </c>
@@ -5332,7 +5243,7 @@
         <v>158.77350000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18">
       <c r="B6" s="5" t="s">
         <v>429</v>
       </c>
@@ -5378,7 +5289,7 @@
         <v>303.57599999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -5422,7 +5333,7 @@
         <v>554.66983333333337</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
@@ -5448,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="5" t="s">
         <v>428</v>
       </c>
@@ -5471,7 +5382,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="5" t="s">
         <v>429</v>
       </c>
@@ -5497,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -5521,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
@@ -5545,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="B13" s="5" t="s">
         <v>428</v>
       </c>
@@ -5566,7 +5477,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="B14" s="5" t="s">
         <v>429</v>
       </c>
@@ -5596,7 +5507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18">
       <c r="M15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5616,7 +5527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="M16" s="3">
         <v>10</v>
       </c>
@@ -5634,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18">
       <c r="M17" s="3">
         <v>20</v>
       </c>
@@ -5652,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18">
       <c r="M18" s="3">
         <v>50</v>
       </c>
@@ -5670,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18">
       <c r="M19" s="3" t="s">
         <v>3</v>
       </c>
@@ -5688,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="18.75">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -5696,12 +5607,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18">
       <c r="J25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18">
       <c r="J27" s="5" t="s">
         <v>0</v>
       </c>
@@ -5712,7 +5623,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18">
       <c r="J28" s="5" t="s">
         <v>28</v>
       </c>
@@ -5723,7 +5634,7 @@
         <v>35.267000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18">
       <c r="J29" s="5" t="s">
         <v>29</v>
       </c>
@@ -5734,7 +5645,7 @@
         <v>18.751000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18">
       <c r="J30" s="5" t="s">
         <v>428</v>
       </c>
@@ -5745,7 +5656,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18">
       <c r="J31" s="5" t="s">
         <v>429</v>
       </c>
@@ -5756,13 +5667,13 @@
         <v>7.0940000000000003</v>
       </c>
     </row>
-    <row r="45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="45" ht="6.75" customHeight="1"/>
+    <row r="54" spans="10:12">
       <c r="J54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:12">
       <c r="J56" s="5" t="s">
         <v>0</v>
       </c>
@@ -5773,7 +5684,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:12">
       <c r="J57" s="5" t="s">
         <v>28</v>
       </c>
@@ -5784,7 +5695,7 @@
         <v>57.244999999999997</v>
       </c>
     </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:12">
       <c r="J58" s="5" t="s">
         <v>29</v>
       </c>
@@ -5795,7 +5706,7 @@
         <v>17.645</v>
       </c>
     </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:12">
       <c r="J59" s="5" t="s">
         <v>428</v>
       </c>
@@ -5806,7 +5717,7 @@
         <v>11.859</v>
       </c>
     </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:12">
       <c r="J60" s="5" t="s">
         <v>429</v>
       </c>
@@ -5825,54 +5736,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="20.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>35</v>
+      <c r="C2" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>439</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>434</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>36</v>
@@ -5893,23 +5804,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J3">
@@ -5928,23 +5839,23 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="J4">
@@ -5963,23 +5874,23 @@
         <v>19125</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="J5">
@@ -5998,23 +5909,23 @@
         <v>20693</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="J6">
@@ -6033,23 +5944,23 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J7">
@@ -6068,23 +5979,23 @@
         <v>17988</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J8">
@@ -6103,23 +6014,23 @@
         <v>25818</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J9">
@@ -6138,23 +6049,23 @@
         <v>10009</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="J10">
@@ -6173,23 +6084,23 @@
         <v>9005</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="11" t="s">
         <v>55</v>
       </c>
       <c r="J11">
@@ -6208,23 +6119,23 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J12">
@@ -6243,7 +6154,7 @@
         <v>16220</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -6284,7 +6195,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>58</v>
       </c>
@@ -6319,7 +6230,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -6360,7 +6271,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -6401,7 +6312,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="B20" t="s">
         <v>72</v>
       </c>
@@ -6442,7 +6353,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="B21" t="s">
         <v>73</v>
       </c>
@@ -6483,7 +6394,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -6524,7 +6435,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="B23" t="s">
         <v>75</v>
       </c>
@@ -6565,7 +6476,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="B24" t="s">
         <v>76</v>
       </c>
@@ -6606,7 +6517,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -6647,7 +6558,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="B26" t="s">
         <v>78</v>
       </c>
@@ -6688,7 +6599,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -6729,7 +6640,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="B31" t="s">
         <v>91</v>
       </c>
@@ -6764,7 +6675,7 @@
         <v>21175</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="B32" t="s">
         <v>92</v>
       </c>
@@ -6799,7 +6710,7 @@
         <v>19125</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -6834,7 +6745,7 @@
         <v>20693</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="B34" t="s">
         <v>94</v>
       </c>
@@ -6869,7 +6780,7 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="B35" t="s">
         <v>95</v>
       </c>
@@ -6904,7 +6815,7 @@
         <v>17988</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="B36" t="s">
         <v>96</v>
       </c>
@@ -6939,7 +6850,7 @@
         <v>25818</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="B37" t="s">
         <v>97</v>
       </c>
@@ -6974,7 +6885,7 @@
         <v>17988</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="B38" t="s">
         <v>98</v>
       </c>
@@ -7009,7 +6920,7 @@
         <v>18288</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="B39" t="s">
         <v>99</v>
       </c>
@@ -7044,7 +6955,7 @@
         <v>9005</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="B40" t="s">
         <v>100</v>
       </c>
@@ -7079,12 +6990,12 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -7125,7 +7036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="B44" t="s">
         <v>91</v>
       </c>
@@ -7160,7 +7071,7 @@
         <v>21175</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="B45" t="s">
         <v>92</v>
       </c>
@@ -7195,7 +7106,7 @@
         <v>19125</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="B46" t="s">
         <v>93</v>
       </c>
@@ -7230,7 +7141,7 @@
         <v>20693</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="B47" t="s">
         <v>118</v>
       </c>
@@ -7265,7 +7176,7 @@
         <v>12892</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="B48" t="s">
         <v>119</v>
       </c>
@@ -7306,7 +7217,7 @@
         <v>10159</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15">
       <c r="B49" t="s">
         <v>96</v>
       </c>
@@ -7341,7 +7252,7 @@
         <v>25818</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15">
       <c r="B50" t="s">
         <v>120</v>
       </c>
@@ -7382,7 +7293,7 @@
         <v>13831</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15">
       <c r="B51" t="s">
         <v>98</v>
       </c>
@@ -7417,7 +7328,7 @@
         <v>18288</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15">
       <c r="B52" t="s">
         <v>99</v>
       </c>
@@ -7452,7 +7363,7 @@
         <v>9005</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15">
       <c r="B53" t="s">
         <v>100</v>
       </c>
@@ -7487,7 +7398,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -7522,7 +7433,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15">
       <c r="B55" t="s">
         <v>122</v>
       </c>
@@ -7563,7 +7474,7 @@
         <v>14673</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15">
       <c r="B56" t="s">
         <v>123</v>
       </c>
@@ -7598,7 +7509,7 @@
         <v>10781</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15">
       <c r="B57" t="s">
         <v>124</v>
       </c>
@@ -7633,7 +7544,7 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15">
       <c r="B58" t="s">
         <v>125</v>
       </c>
@@ -7668,7 +7579,7 @@
         <v>11370</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15">
       <c r="B59" t="s">
         <v>126</v>
       </c>
@@ -7709,7 +7620,7 @@
         <v>11121</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15">
       <c r="B60" t="s">
         <v>102</v>
       </c>
@@ -7744,7 +7655,7 @@
         <v>10009</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15">
       <c r="B61" t="s">
         <v>127</v>
       </c>
@@ -7779,7 +7690,7 @@
         <v>10182</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15">
       <c r="B62" t="s">
         <v>128</v>
       </c>
@@ -7814,7 +7725,7 @@
         <v>8864</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15">
       <c r="B63" t="s">
         <v>103</v>
       </c>
@@ -7849,7 +7760,7 @@
         <v>16220</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -7890,7 +7801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="B67" t="s">
         <v>153</v>
       </c>
@@ -7931,7 +7842,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="B68" t="s">
         <v>154</v>
       </c>
@@ -7966,7 +7877,7 @@
         <v>15191</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="B69" t="s">
         <v>155</v>
       </c>
@@ -8007,7 +7918,7 @@
         <v>13831</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="B70" t="s">
         <v>156</v>
       </c>
@@ -8042,7 +7953,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="B71" t="s">
         <v>157</v>
       </c>
@@ -8077,7 +7988,7 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="B72" t="s">
         <v>158</v>
       </c>
@@ -8112,7 +8023,7 @@
         <v>16220</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="B73" t="s">
         <v>159</v>
       </c>
@@ -8147,7 +8058,7 @@
         <v>12892</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="B74" t="s">
         <v>160</v>
       </c>
@@ -8188,7 +8099,7 @@
         <v>46434</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="B75" t="s">
         <v>161</v>
       </c>
@@ -8223,7 +8134,7 @@
         <v>9005</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="B76" t="s">
         <v>162</v>
       </c>
@@ -8258,7 +8169,7 @@
         <v>50011</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="B77" t="s">
         <v>163</v>
       </c>
@@ -8293,7 +8204,7 @@
         <v>24048</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="B78" t="s">
         <v>164</v>
       </c>
@@ -8329,7 +8240,7 @@
         <v>17057</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="B79" t="s">
         <v>165</v>
       </c>
@@ -8370,7 +8281,7 @@
         <v>7974</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="B80" t="s">
         <v>166</v>
       </c>
@@ -8405,7 +8316,7 @@
         <v>17083</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="B81" t="s">
         <v>167</v>
       </c>
@@ -8440,7 +8351,7 @@
         <v>26989</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="B82" t="s">
         <v>168</v>
       </c>
@@ -8475,7 +8386,7 @@
         <v>10465</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="B83" t="s">
         <v>169</v>
       </c>
@@ -8510,7 +8421,7 @@
         <v>12087</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="B84" t="s">
         <v>170</v>
       </c>
@@ -8545,7 +8456,7 @@
         <v>13842</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="B85" t="s">
         <v>171</v>
       </c>
@@ -8580,7 +8491,7 @@
         <v>8073</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="B86" t="s">
         <v>152</v>
       </c>
@@ -8615,7 +8526,7 @@
         <v>11939</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -8656,7 +8567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="B90" t="s">
         <v>153</v>
       </c>
@@ -8697,7 +8608,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="B91" t="s">
         <v>154</v>
       </c>
@@ -8732,7 +8643,7 @@
         <v>15191</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="B92" t="s">
         <v>155</v>
       </c>
@@ -8773,7 +8684,7 @@
         <v>13831</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="B93" t="s">
         <v>156</v>
       </c>
@@ -8808,7 +8719,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="B94" t="s">
         <v>157</v>
       </c>
@@ -8843,7 +8754,7 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="B95" t="s">
         <v>158</v>
       </c>
@@ -8878,7 +8789,7 @@
         <v>16220</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="B96" t="s">
         <v>159</v>
       </c>
@@ -8913,7 +8824,7 @@
         <v>12892</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15">
       <c r="B97" t="s">
         <v>160</v>
       </c>
@@ -8954,7 +8865,7 @@
         <v>46434</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15">
       <c r="B98" t="s">
         <v>161</v>
       </c>
@@ -8989,7 +8900,7 @@
         <v>9005</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15">
       <c r="B99" t="s">
         <v>162</v>
       </c>
@@ -9024,7 +8935,7 @@
         <v>50011</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15">
       <c r="B100" t="s">
         <v>163</v>
       </c>
@@ -9059,7 +8970,7 @@
         <v>24048</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15">
       <c r="B101" t="s">
         <v>164</v>
       </c>
@@ -9094,7 +9005,7 @@
         <v>17057</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15">
       <c r="B102" t="s">
         <v>165</v>
       </c>
@@ -9135,7 +9046,7 @@
         <v>7974</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15">
       <c r="B103" t="s">
         <v>166</v>
       </c>
@@ -9170,7 +9081,7 @@
         <v>17083</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15">
       <c r="B104" t="s">
         <v>167</v>
       </c>
@@ -9205,7 +9116,7 @@
         <v>26989</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15">
       <c r="B105" t="s">
         <v>168</v>
       </c>
@@ -9240,7 +9151,7 @@
         <v>10465</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15">
       <c r="B106" t="s">
         <v>169</v>
       </c>
@@ -9275,7 +9186,7 @@
         <v>12087</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15">
       <c r="B107" t="s">
         <v>170</v>
       </c>
@@ -9310,7 +9221,7 @@
         <v>13842</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15">
       <c r="B108" t="s">
         <v>171</v>
       </c>
@@ -9345,7 +9256,7 @@
         <v>8073</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15">
       <c r="B109" t="s">
         <v>152</v>
       </c>
@@ -9380,7 +9291,7 @@
         <v>11939</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15">
       <c r="B110" t="s">
         <v>195</v>
       </c>
@@ -9415,7 +9326,7 @@
         <v>21175</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15">
       <c r="B111" t="s">
         <v>196</v>
       </c>
@@ -9450,7 +9361,7 @@
         <v>19125</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15">
       <c r="B112" t="s">
         <v>197</v>
       </c>
@@ -9485,7 +9396,7 @@
         <v>20693</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15">
       <c r="B113" t="s">
         <v>198</v>
       </c>
@@ -9520,7 +9431,7 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15">
       <c r="B114" t="s">
         <v>199</v>
       </c>
@@ -9555,7 +9466,7 @@
         <v>17988</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15">
       <c r="B115" t="s">
         <v>200</v>
       </c>
@@ -9590,7 +9501,7 @@
         <v>25818</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15">
       <c r="B116" t="s">
         <v>201</v>
       </c>
@@ -9625,7 +9536,7 @@
         <v>17988</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15">
       <c r="B117" t="s">
         <v>202</v>
       </c>
@@ -9660,7 +9571,7 @@
         <v>18288</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15">
       <c r="B118" t="s">
         <v>203</v>
       </c>
@@ -9695,7 +9606,7 @@
         <v>9005</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15">
       <c r="B119" t="s">
         <v>204</v>
       </c>
@@ -9730,7 +9641,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15">
       <c r="B120" t="s">
         <v>205</v>
       </c>
@@ -9771,7 +9682,7 @@
         <v>13842</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15">
       <c r="B121" t="s">
         <v>206</v>
       </c>
@@ -9812,7 +9723,7 @@
         <v>13637</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15">
       <c r="B122" t="s">
         <v>207</v>
       </c>
@@ -9847,7 +9758,7 @@
         <v>10483</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15">
       <c r="B123" t="s">
         <v>208</v>
       </c>
@@ -9882,7 +9793,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15">
       <c r="B124" t="s">
         <v>209</v>
       </c>
@@ -9917,7 +9828,7 @@
         <v>10477</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15">
       <c r="B125" t="s">
         <v>210</v>
       </c>
@@ -9952,7 +9863,7 @@
         <v>10009</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15">
       <c r="B126" t="s">
         <v>211</v>
       </c>
@@ -9987,7 +9898,7 @@
         <v>8920</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15">
       <c r="B127" t="s">
         <v>212</v>
       </c>
@@ -10022,7 +9933,7 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15">
       <c r="B128" t="s">
         <v>213</v>
       </c>
@@ -10057,7 +9968,7 @@
         <v>10491</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="B129" t="s">
         <v>214</v>
       </c>
@@ -10092,7 +10003,7 @@
         <v>20792</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="B130" t="s">
         <v>215</v>
       </c>
@@ -10127,7 +10038,7 @@
         <v>15980</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="B131" t="s">
         <v>216</v>
       </c>
@@ -10162,7 +10073,7 @@
         <v>9463</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="B132" t="s">
         <v>217</v>
       </c>
@@ -10197,7 +10108,7 @@
         <v>16679</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="B133" t="s">
         <v>218</v>
       </c>
@@ -10232,7 +10143,7 @@
         <v>16583</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="B134" t="s">
         <v>219</v>
       </c>
@@ -10261,7 +10172,7 @@
         <v>13831</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="B135" t="s">
         <v>220</v>
       </c>
@@ -10290,7 +10201,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="B136" t="s">
         <v>221</v>
       </c>
@@ -10319,7 +10230,7 @@
         <v>16345</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="B137" t="s">
         <v>222</v>
       </c>
@@ -10348,7 +10259,7 @@
         <v>11376</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="B138" t="s">
         <v>223</v>
       </c>
@@ -10377,7 +10288,7 @@
         <v>10709</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="B139" t="s">
         <v>224</v>
       </c>
@@ -10406,12 +10317,12 @@
         <v>10560</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="C143" s="8" t="s">
         <v>31</v>
       </c>
@@ -10449,7 +10360,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="B144" t="s">
         <v>227</v>
       </c>
@@ -10490,7 +10401,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="B145" t="s">
         <v>228</v>
       </c>
@@ -10525,7 +10436,7 @@
         <v>9463</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="B146" t="s">
         <v>229</v>
       </c>
@@ -10566,7 +10477,7 @@
         <v>13831</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="B147" t="s">
         <v>230</v>
       </c>
@@ -10601,7 +10512,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="B148" t="s">
         <v>231</v>
       </c>
@@ -10636,7 +10547,7 @@
         <v>10159</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="B149" t="s">
         <v>232</v>
       </c>
@@ -10671,7 +10582,7 @@
         <v>12892</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="B150" t="s">
         <v>233</v>
       </c>
@@ -10706,7 +10617,7 @@
         <v>10781</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="B151" t="s">
         <v>234</v>
       </c>
@@ -10741,7 +10652,7 @@
         <v>16220</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="B152" t="s">
         <v>235</v>
       </c>
@@ -10776,7 +10687,7 @@
         <v>9005</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="B153" t="s">
         <v>236</v>
       </c>
@@ -10811,7 +10722,7 @@
         <v>19125</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
         <v>238</v>
       </c>
@@ -10852,7 +10763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="B157" t="s">
         <v>239</v>
       </c>
@@ -10893,7 +10804,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="B158" t="s">
         <v>240</v>
       </c>
@@ -10934,7 +10845,7 @@
         <v>10303</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="B159" t="s">
         <v>241</v>
       </c>
@@ -10969,7 +10880,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="B160" t="s">
         <v>242</v>
       </c>
@@ -11004,7 +10915,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14">
       <c r="B161" t="s">
         <v>243</v>
       </c>
@@ -11039,7 +10950,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14">
       <c r="B162" t="s">
         <v>244</v>
       </c>
@@ -11074,7 +10985,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14">
       <c r="B163" t="s">
         <v>245</v>
       </c>
@@ -11109,7 +11020,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14">
       <c r="B164" t="s">
         <v>246</v>
       </c>
@@ -11144,7 +11055,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14">
       <c r="B165" t="s">
         <v>247</v>
       </c>
@@ -11179,7 +11090,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14">
       <c r="B166" t="s">
         <v>248</v>
       </c>
@@ -11216,22 +11127,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -11253,12 +11164,12 @@
     <col min="22" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="D1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11296,7 +11207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18">
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
@@ -11342,7 +11253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18">
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
@@ -11388,7 +11299,7 @@
         <v>21.768666666666668</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18">
       <c r="B5" s="5" t="s">
         <v>428</v>
       </c>
@@ -11431,7 +11342,7 @@
         <v>59.827999999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18">
       <c r="B6" s="5" t="s">
         <v>429</v>
       </c>
@@ -11477,7 +11388,7 @@
         <v>126.379</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -11519,7 +11430,7 @@
         <v>207.97566666666665</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
@@ -11543,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="5" t="s">
         <v>428</v>
       </c>
@@ -11564,7 +11475,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="5" t="s">
         <v>429</v>
       </c>
@@ -11588,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -11612,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
@@ -11636,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="B13" s="5" t="s">
         <v>428</v>
       </c>
@@ -11657,7 +11568,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="B14" s="5" t="s">
         <v>429</v>
       </c>
@@ -11681,7 +11592,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12">
+      <c r="I17">
+        <f>I12/$I$11</f>
+        <v>0.38233832718512384</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="I18">
+        <f t="shared" ref="I18:I19" si="2">I13/$I$11</f>
+        <v>0.2861100654972521</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.23441993525558985</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="18.75">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -11689,12 +11618,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="J25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="J27" s="5" t="s">
         <v>0</v>
       </c>
@@ -11705,7 +11634,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="J28" s="5" t="s">
         <v>28</v>
       </c>
@@ -11716,7 +11645,7 @@
         <v>6.2969999999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="J29" s="5" t="s">
         <v>29</v>
       </c>
@@ -11727,7 +11656,7 @@
         <v>2.4689999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="J30" s="5" t="s">
         <v>428</v>
       </c>
@@ -11738,7 +11667,7 @@
         <v>2.641</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="J31" s="5" t="s">
         <v>429</v>
       </c>
@@ -11749,13 +11678,13 @@
         <v>1.5629999999999999</v>
       </c>
     </row>
-    <row r="45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="45" ht="6.75" customHeight="1"/>
+    <row r="54" spans="10:12">
       <c r="J54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:12">
       <c r="J56" s="5" t="s">
         <v>0</v>
       </c>
@@ -11766,7 +11695,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:12">
       <c r="J57" s="5" t="s">
         <v>28</v>
       </c>
@@ -11777,7 +11706,7 @@
         <v>20.562000000000001</v>
       </c>
     </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:12">
       <c r="J58" s="5" t="s">
         <v>29</v>
       </c>
@@ -11788,7 +11717,7 @@
         <v>4.9690000000000003</v>
       </c>
     </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:12">
       <c r="J59" s="5" t="s">
         <v>428</v>
       </c>
@@ -11799,7 +11728,7 @@
         <v>4.1719999999999997</v>
       </c>
     </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:12">
       <c r="J60" s="5" t="s">
         <v>429</v>
       </c>
@@ -11818,17 +11747,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
@@ -11840,12 +11769,12 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -11886,7 +11815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>274</v>
       </c>
@@ -11921,7 +11850,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>275</v>
       </c>
@@ -11956,7 +11885,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>276</v>
       </c>
@@ -11997,7 +11926,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>277</v>
       </c>
@@ -12032,7 +11961,7 @@
         <v>13042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>278</v>
       </c>
@@ -12067,7 +11996,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>279</v>
       </c>
@@ -12108,7 +12037,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>280</v>
       </c>
@@ -12143,7 +12072,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>281</v>
       </c>
@@ -12178,7 +12107,7 @@
         <v>21131</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>282</v>
       </c>
@@ -12213,7 +12142,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>283</v>
       </c>
@@ -12248,7 +12177,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -12289,7 +12218,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>274</v>
       </c>
@@ -12324,7 +12253,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>293</v>
       </c>
@@ -12359,7 +12288,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="B19" t="s">
         <v>294</v>
       </c>
@@ -12400,7 +12329,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="B20" t="s">
         <v>295</v>
       </c>
@@ -12435,7 +12364,7 @@
         <v>13042</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="B21" t="s">
         <v>296</v>
       </c>
@@ -12470,7 +12399,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="B22" t="s">
         <v>297</v>
       </c>
@@ -12511,7 +12440,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="B23" t="s">
         <v>298</v>
       </c>
@@ -12546,7 +12475,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="B24" t="s">
         <v>299</v>
       </c>
@@ -12581,7 +12510,7 @@
         <v>21131</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="B25" t="s">
         <v>300</v>
       </c>
@@ -12616,7 +12545,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="B26" t="s">
         <v>301</v>
       </c>
@@ -12651,7 +12580,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -12692,7 +12621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="B31" t="s">
         <v>316</v>
       </c>
@@ -12727,7 +12656,7 @@
         <v>9640</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="B32" t="s">
         <v>317</v>
       </c>
@@ -12762,7 +12691,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="B33" t="s">
         <v>318</v>
       </c>
@@ -12797,7 +12726,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="B34" t="s">
         <v>319</v>
       </c>
@@ -12832,7 +12761,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="B35" t="s">
         <v>320</v>
       </c>
@@ -12867,7 +12796,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="B36" t="s">
         <v>321</v>
       </c>
@@ -12902,7 +12831,7 @@
         <v>21131</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="B37" t="s">
         <v>322</v>
       </c>
@@ -12937,7 +12866,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="B38" t="s">
         <v>323</v>
       </c>
@@ -12972,7 +12901,7 @@
         <v>6062</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="B39" t="s">
         <v>324</v>
       </c>
@@ -13007,7 +12936,7 @@
         <v>66194</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="B40" t="s">
         <v>325</v>
       </c>
@@ -13042,12 +12971,12 @@
         <v>66765</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -13088,7 +13017,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="B44" t="s">
         <v>274</v>
       </c>
@@ -13123,7 +13052,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="B45" t="s">
         <v>275</v>
       </c>
@@ -13158,7 +13087,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="B46" t="s">
         <v>276</v>
       </c>
@@ -13199,7 +13128,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="B47" t="s">
         <v>277</v>
       </c>
@@ -13234,7 +13163,7 @@
         <v>13042</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="B48" t="s">
         <v>278</v>
       </c>
@@ -13269,7 +13198,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15">
       <c r="B49" t="s">
         <v>279</v>
       </c>
@@ -13310,7 +13239,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15">
       <c r="B50" t="s">
         <v>280</v>
       </c>
@@ -13345,7 +13274,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15">
       <c r="B51" t="s">
         <v>281</v>
       </c>
@@ -13380,7 +13309,7 @@
         <v>21131</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15">
       <c r="B52" t="s">
         <v>282</v>
       </c>
@@ -13415,7 +13344,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15">
       <c r="B53" t="s">
         <v>283</v>
       </c>
@@ -13450,7 +13379,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15">
       <c r="B54" t="s">
         <v>326</v>
       </c>
@@ -13485,7 +13414,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15">
       <c r="B55" t="s">
         <v>327</v>
       </c>
@@ -13520,7 +13449,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15">
       <c r="B56" t="s">
         <v>328</v>
       </c>
@@ -13555,7 +13484,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15">
       <c r="B57" t="s">
         <v>329</v>
       </c>
@@ -13590,7 +13519,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15">
       <c r="B58" t="s">
         <v>330</v>
       </c>
@@ -13625,7 +13554,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15">
       <c r="B59" t="s">
         <v>331</v>
       </c>
@@ -13660,7 +13589,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15">
       <c r="B60" t="s">
         <v>332</v>
       </c>
@@ -13695,7 +13624,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15">
       <c r="B61" t="s">
         <v>333</v>
       </c>
@@ -13730,7 +13659,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15">
       <c r="B62" t="s">
         <v>334</v>
       </c>
@@ -13765,7 +13694,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15">
       <c r="B63" t="s">
         <v>335</v>
       </c>
@@ -13800,7 +13729,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -13841,16 +13770,16 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="G68" s="10"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="H78" s="10"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="F80" s="10"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -13891,7 +13820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="B90" t="s">
         <v>274</v>
       </c>
@@ -13926,7 +13855,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="B91" t="s">
         <v>275</v>
       </c>
@@ -13961,7 +13890,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="B92" t="s">
         <v>276</v>
       </c>
@@ -14002,7 +13931,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="B93" t="s">
         <v>389</v>
       </c>
@@ -14037,7 +13966,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="B94" t="s">
         <v>278</v>
       </c>
@@ -14072,7 +14001,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="B95" t="s">
         <v>279</v>
       </c>
@@ -14113,7 +14042,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="B96" t="s">
         <v>280</v>
       </c>
@@ -14148,7 +14077,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15">
       <c r="B97" t="s">
         <v>390</v>
       </c>
@@ -14183,7 +14112,7 @@
         <v>6062</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15">
       <c r="B98" t="s">
         <v>282</v>
       </c>
@@ -14218,7 +14147,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15">
       <c r="B99" t="s">
         <v>283</v>
       </c>
@@ -14253,7 +14182,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15">
       <c r="B100" t="s">
         <v>391</v>
       </c>
@@ -14294,7 +14223,7 @@
         <v>99175</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15">
       <c r="B101" t="s">
         <v>392</v>
       </c>
@@ -14329,7 +14258,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15">
       <c r="B102" t="s">
         <v>393</v>
       </c>
@@ -14364,7 +14293,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15">
       <c r="B103" t="s">
         <v>329</v>
       </c>
@@ -14399,7 +14328,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15">
       <c r="B104" t="s">
         <v>330</v>
       </c>
@@ -14434,7 +14363,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15">
       <c r="B105" t="s">
         <v>331</v>
       </c>
@@ -14469,7 +14398,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15">
       <c r="B106" t="s">
         <v>394</v>
       </c>
@@ -14504,7 +14433,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15">
       <c r="B107" t="s">
         <v>395</v>
       </c>
@@ -14539,7 +14468,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15">
       <c r="B108" t="s">
         <v>396</v>
       </c>
@@ -14574,7 +14503,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15">
       <c r="B109" t="s">
         <v>397</v>
       </c>
@@ -14609,7 +14538,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15">
       <c r="B110" t="s">
         <v>398</v>
       </c>
@@ -14644,7 +14573,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15">
       <c r="B111" t="s">
         <v>399</v>
       </c>
@@ -14679,7 +14608,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15">
       <c r="B112" t="s">
         <v>400</v>
       </c>
@@ -14714,7 +14643,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15">
       <c r="B113" t="s">
         <v>401</v>
       </c>
@@ -14749,7 +14678,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15">
       <c r="B114" t="s">
         <v>402</v>
       </c>
@@ -14784,7 +14713,7 @@
         <v>6772</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15">
       <c r="B115" t="s">
         <v>403</v>
       </c>
@@ -14819,7 +14748,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15">
       <c r="B116" t="s">
         <v>404</v>
       </c>
@@ -14854,7 +14783,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15">
       <c r="B117" t="s">
         <v>405</v>
       </c>
@@ -14889,7 +14818,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15">
       <c r="B118" t="s">
         <v>406</v>
       </c>
@@ -14918,7 +14847,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15">
       <c r="B119" t="s">
         <v>407</v>
       </c>
@@ -14953,7 +14882,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15">
       <c r="B120" t="s">
         <v>408</v>
       </c>
@@ -14988,7 +14917,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15">
       <c r="B121" t="s">
         <v>409</v>
       </c>
@@ -15023,7 +14952,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15">
       <c r="B122" t="s">
         <v>410</v>
       </c>
@@ -15058,7 +14987,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15">
       <c r="B123" t="s">
         <v>411</v>
       </c>
@@ -15093,7 +15022,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15">
       <c r="B124" t="s">
         <v>412</v>
       </c>
@@ -15134,7 +15063,7 @@
         <v>16174</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15">
       <c r="B125" t="s">
         <v>413</v>
       </c>
@@ -15169,7 +15098,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15">
       <c r="B126" t="s">
         <v>414</v>
       </c>
@@ -15204,7 +15133,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15">
       <c r="B127" t="s">
         <v>415</v>
       </c>
@@ -15239,7 +15168,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15">
       <c r="B128" t="s">
         <v>416</v>
       </c>
@@ -15274,7 +15203,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="B129" t="s">
         <v>417</v>
       </c>
@@ -15309,7 +15238,7 @@
         <v>67240</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="B130" t="s">
         <v>418</v>
       </c>
@@ -15344,7 +15273,7 @@
         <v>64558</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="B131" t="s">
         <v>419</v>
       </c>
@@ -15379,7 +15308,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="B132" t="s">
         <v>420</v>
       </c>
@@ -15414,7 +15343,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="B133" t="s">
         <v>421</v>
       </c>
@@ -15449,7 +15378,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="B134" t="s">
         <v>422</v>
       </c>
@@ -15484,7 +15413,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="B135" t="s">
         <v>423</v>
       </c>
@@ -15519,7 +15448,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="B136" t="s">
         <v>424</v>
       </c>
@@ -15554,7 +15483,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="B137" t="s">
         <v>425</v>
       </c>
@@ -15589,7 +15518,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="B138" t="s">
         <v>426</v>
       </c>
@@ -15624,7 +15553,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="B139" t="s">
         <v>427</v>
       </c>
@@ -15659,12 +15588,12 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="C143" s="8" t="s">
         <v>31</v>
       </c>
@@ -15702,7 +15631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="B144" t="s">
         <v>274</v>
       </c>
@@ -15737,7 +15666,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="B145" t="s">
         <v>275</v>
       </c>
@@ -15772,7 +15701,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="B146" t="s">
         <v>276</v>
       </c>
@@ -15813,7 +15742,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="B147" t="s">
         <v>277</v>
       </c>
@@ -15848,7 +15777,7 @@
         <v>13042</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="B148" t="s">
         <v>278</v>
       </c>
@@ -15883,7 +15812,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="B149" t="s">
         <v>279</v>
       </c>
@@ -15924,7 +15853,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="B150" t="s">
         <v>280</v>
       </c>
@@ -15959,7 +15888,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="B151" t="s">
         <v>281</v>
       </c>
@@ -15994,7 +15923,7 @@
         <v>21131</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="B152" t="s">
         <v>282</v>
       </c>
@@ -16029,7 +15958,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="B153" t="s">
         <v>283</v>
       </c>
@@ -16064,7 +15993,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
         <v>238</v>
       </c>

--- a/trunk/yaol-p-xml/testresult/Experiment.xlsx
+++ b/trunk/yaol-p-xml/testresult/Experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dblp-vary query batch size" sheetId="7" r:id="rId1"/>
@@ -1872,11 +1872,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122867072"/>
-        <c:axId val="123082240"/>
+        <c:axId val="122926592"/>
+        <c:axId val="122814464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122867072"/>
+        <c:axId val="122926592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,22 +1900,23 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123082240"/>
+        <c:crossAx val="122814464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123082240"/>
+        <c:axId val="122814464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="220"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122867072"/>
+        <c:crossAx val="122926592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1929,7 +1930,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2145,24 +2146,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123122816"/>
-        <c:axId val="123124352"/>
+        <c:axId val="122849152"/>
+        <c:axId val="122850688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123122816"/>
+        <c:axId val="122849152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123124352"/>
+        <c:crossAx val="122850688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123124352"/>
+        <c:axId val="122850688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2171,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123122816"/>
+        <c:crossAx val="122849152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2184,7 +2185,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2347,10 +2348,10 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.141</c:v>
+                  <c:v>10.141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.859</c:v>
+                  <c:v>13.859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,24 +2401,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123189504"/>
-        <c:axId val="123203584"/>
+        <c:axId val="123160064"/>
+        <c:axId val="123161600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123189504"/>
+        <c:axId val="123160064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123203584"/>
+        <c:crossAx val="123161600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123203584"/>
+        <c:axId val="123161600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2426,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123189504"/>
+        <c:crossAx val="123160064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2439,7 +2440,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2815,11 +2816,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123342848"/>
-        <c:axId val="123344768"/>
+        <c:axId val="123213312"/>
+        <c:axId val="123215232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123342848"/>
+        <c:axId val="123213312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,22 +2844,23 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123344768"/>
+        <c:crossAx val="123215232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123344768"/>
+        <c:axId val="123215232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123342848"/>
+        <c:crossAx val="123213312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2872,7 +2874,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:extLst/>
@@ -3089,24 +3091,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123364864"/>
-        <c:axId val="123366400"/>
+        <c:axId val="123258368"/>
+        <c:axId val="123259904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123364864"/>
+        <c:axId val="123258368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123366400"/>
+        <c:crossAx val="123259904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123366400"/>
+        <c:axId val="123259904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,7 +3116,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123364864"/>
+        <c:crossAx val="123258368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3128,7 +3130,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3344,24 +3346,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123488896"/>
-        <c:axId val="123498880"/>
+        <c:axId val="123364480"/>
+        <c:axId val="123366016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123488896"/>
+        <c:axId val="123364480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123498880"/>
+        <c:crossAx val="123366016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123498880"/>
+        <c:axId val="123366016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,7 +3371,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123488896"/>
+        <c:crossAx val="123364480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3383,7 +3385,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5038,8 +5040,8 @@
   </sheetPr>
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J20"/>
+    <sheetView showGridLines="0" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5668,12 +5670,12 @@
       </c>
     </row>
     <row r="45" ht="6.75" customHeight="1"/>
-    <row r="54" spans="10:12">
+    <row r="54" spans="10:15">
       <c r="J54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="10:12">
+    <row r="56" spans="10:15">
       <c r="J56" s="5" t="s">
         <v>0</v>
       </c>
@@ -5684,7 +5686,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="10:12">
+    <row r="57" spans="10:15">
       <c r="J57" s="5" t="s">
         <v>28</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>57.244999999999997</v>
       </c>
     </row>
-    <row r="58" spans="10:12">
+    <row r="58" spans="10:15">
       <c r="J58" s="5" t="s">
         <v>29</v>
       </c>
@@ -5705,19 +5707,35 @@
       <c r="L58" s="7">
         <v>17.645</v>
       </c>
-    </row>
-    <row r="59" spans="10:12">
+      <c r="N58">
+        <f>K58/$K$57</f>
+        <v>0.35613474811991341</v>
+      </c>
+      <c r="O58">
+        <f>L58/$L$57</f>
+        <v>0.30823652720761641</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15">
       <c r="J59" s="5" t="s">
         <v>428</v>
       </c>
       <c r="K59" s="7">
-        <v>4.141</v>
+        <v>10.141</v>
       </c>
       <c r="L59" s="7">
-        <v>11.859</v>
-      </c>
-    </row>
-    <row r="60" spans="10:12">
+        <v>13.859</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:N60" si="2">K59/$K$57</f>
+        <v>0.26117750077263829</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59:O60" si="3">L59/$L$57</f>
+        <v>0.24209974670276882</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15">
       <c r="J60" s="5" t="s">
         <v>429</v>
       </c>
@@ -5726,6 +5744,14 @@
       </c>
       <c r="L60" s="7">
         <v>9.9529999999999994</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>9.0553209024415368E-2</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="3"/>
+        <v>0.1738667132500655</v>
       </c>
     </row>
   </sheetData>
@@ -5742,7 +5768,7 @@
   </sheetPr>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -11138,8 +11164,8 @@
   </sheetPr>
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11679,12 +11705,12 @@
       </c>
     </row>
     <row r="45" ht="6.75" customHeight="1"/>
-    <row r="54" spans="10:12">
+    <row r="54" spans="10:15">
       <c r="J54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="10:12">
+    <row r="56" spans="10:15">
       <c r="J56" s="5" t="s">
         <v>0</v>
       </c>
@@ -11695,7 +11721,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="10:12">
+    <row r="57" spans="10:15">
       <c r="J57" s="5" t="s">
         <v>28</v>
       </c>
@@ -11706,7 +11732,7 @@
         <v>20.562000000000001</v>
       </c>
     </row>
-    <row r="58" spans="10:12">
+    <row r="58" spans="10:15">
       <c r="J58" s="5" t="s">
         <v>29</v>
       </c>
@@ -11716,8 +11742,16 @@
       <c r="L58" s="7">
         <v>4.9690000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="10:12">
+      <c r="N58">
+        <f>K58/$K$57</f>
+        <v>0.37888576423196779</v>
+      </c>
+      <c r="O58">
+        <f>L58/$L$57</f>
+        <v>0.24165937165645365</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15">
       <c r="J59" s="5" t="s">
         <v>428</v>
       </c>
@@ -11727,8 +11761,16 @@
       <c r="L59" s="7">
         <v>4.1719999999999997</v>
       </c>
-    </row>
-    <row r="60" spans="10:12">
+      <c r="N59">
+        <f t="shared" ref="N59:N60" si="3">K59/$K$57</f>
+        <v>0.28501938131792964</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59:O60" si="4">L59/$L$57</f>
+        <v>0.20289855072463767</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15">
       <c r="J60" s="5" t="s">
         <v>429</v>
       </c>
@@ -11737,6 +11779,14 @@
       </c>
       <c r="L60" s="7">
         <v>3.375</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>0.22444326214182564</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="4"/>
+        <v>0.16413772979282171</v>
       </c>
     </row>
   </sheetData>
@@ -11753,7 +11803,7 @@
   </sheetPr>
   <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
